--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,46 +15,46 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$2</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$2</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$2</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$2</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$2</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$2</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$2</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$2</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$3</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$3</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$3</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$3</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$3</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$3</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$3</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$3</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$3</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$3</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$3</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$3</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$3</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$3</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$3</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$3</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$3</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$3</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$3</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$3</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$3</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$3</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$3</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$3</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$3</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$3</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$3</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$3</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$3</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$3</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$3</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$3</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -984,7 +984,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB78E"/>
+        <xdr:cNvPr id="0" name="ChartB39F"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1019,7 +1019,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB80C"/>
+        <xdr:cNvPr id="0" name="ChartB3FD"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1054,7 +1054,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB83C"/>
+        <xdr:cNvPr id="0" name="ChartB43D"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1089,7 +1089,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB87B"/>
+        <xdr:cNvPr id="0" name="ChartB46D"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1124,7 +1124,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB8BB"/>
+        <xdr:cNvPr id="0" name="ChartB4AC"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1159,7 +1159,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB8FA"/>
+        <xdr:cNvPr id="0" name="ChartB4EC"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1194,7 +1194,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB94A"/>
+        <xdr:cNvPr id="0" name="ChartB53B"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1229,7 +1229,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB999"/>
+        <xdr:cNvPr id="0" name="ChartB58A"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1249,7 +1249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1289,8 +1289,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0">
+        <v>59749</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D2"/>
+  <autoFilter ref="A1:D3"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1298,7 +1312,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1338,8 +1352,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1.88</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D2"/>
+  <autoFilter ref="A1:D3"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1347,7 +1375,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1387,8 +1415,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0">
+        <v>28.34</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D2"/>
+  <autoFilter ref="A1:D3"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1396,7 +1438,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1436,8 +1478,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.230255</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D2"/>
+  <autoFilter ref="A1:D3"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1445,7 +1501,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1485,8 +1541,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0">
+        <v>4383.99</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D2"/>
+  <autoFilter ref="A1:D3"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1494,7 +1564,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1534,8 +1604,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="0">
+        <v>227.73</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D2"/>
+  <autoFilter ref="A1:D3"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1543,7 +1627,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1583,8 +1667,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="0">
+        <v>227.22</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D2"/>
+  <autoFilter ref="A1:D3"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1592,7 +1690,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1632,8 +1730,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="0">
+        <v>21.85</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D2"/>
+  <autoFilter ref="A1:D3"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$3</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$3</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$3</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$3</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$3</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$3</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$3</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$3</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$3</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$3</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$3</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$3</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$3</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$3</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$3</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$3</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$3</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$3</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$3</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$3</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$3</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$3</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$3</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$3</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$3</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$3</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$3</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$3</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$3</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$3</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$3</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$3</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$4</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$4</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$4</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$4</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$4</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$4</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$4</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$4</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$4</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$4</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$4</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$4</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$4</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$4</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$4</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$4</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$4</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$4</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$4</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$4</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$4</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$4</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$4</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$4</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$4</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$4</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$4</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$4</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$4</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$4</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$4</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$4</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>11/21/2021</t>
+  </si>
+  <si>
+    <t>11/22/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -984,7 +987,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB39F"/>
+        <xdr:cNvPr id="0" name="Chart184D"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1019,7 +1022,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB3FD"/>
+        <xdr:cNvPr id="0" name="Chart18AC"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1054,7 +1057,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB43D"/>
+        <xdr:cNvPr id="0" name="Chart18DC"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1089,7 +1092,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB46D"/>
+        <xdr:cNvPr id="0" name="Chart190C"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1124,7 +1127,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB4AC"/>
+        <xdr:cNvPr id="0" name="Chart194B"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1159,7 +1162,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB4EC"/>
+        <xdr:cNvPr id="0" name="Chart198B"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1194,7 +1197,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB53B"/>
+        <xdr:cNvPr id="0" name="Chart19CA"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1229,7 +1232,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB58A"/>
+        <xdr:cNvPr id="0" name="Chart1A19"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1249,7 +1252,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1303,8 +1306,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="0">
+        <v>57443</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D3"/>
+  <autoFilter ref="A1:D4"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1312,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1340,10 +1357,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1354,10 +1371,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1366,8 +1383,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0">
+        <v>1.79</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D3"/>
+  <autoFilter ref="A1:D4"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1375,7 +1406,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1403,10 +1434,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -1417,10 +1448,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -1429,8 +1460,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0">
+        <v>27.5</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D3"/>
+  <autoFilter ref="A1:D4"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1438,7 +1483,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1466,10 +1511,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -1480,10 +1525,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -1492,8 +1537,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.223177</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D3"/>
+  <autoFilter ref="A1:D4"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1501,7 +1560,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1529,10 +1588,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -1543,10 +1602,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -1555,8 +1614,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4177.8</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D3"/>
+  <autoFilter ref="A1:D4"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1564,7 +1637,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1592,10 +1665,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -1606,10 +1679,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -1618,8 +1691,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0">
+        <v>215.75</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D3"/>
+  <autoFilter ref="A1:D4"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1627,7 +1714,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1655,10 +1742,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -1669,10 +1756,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -1681,8 +1768,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="0">
+        <v>220.35</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D3"/>
+  <autoFilter ref="A1:D4"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1690,7 +1791,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1718,10 +1819,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -1732,10 +1833,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -1744,8 +1845,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="0">
+        <v>21.01</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D3"/>
+  <autoFilter ref="A1:D4"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$4</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$4</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$4</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$4</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$4</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$4</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$4</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$4</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$4</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$4</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$4</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$4</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$4</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$4</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$4</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$4</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$4</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$4</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$4</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$4</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$4</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$4</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$4</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$4</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$4</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$4</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$4</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$4</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$4</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$4</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$4</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$4</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$5</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$5</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$5</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$5</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$5</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$5</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$5</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$5</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$5</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$5</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$5</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$5</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$5</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$5</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$5</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$5</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$5</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$5</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$5</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$5</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$5</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$5</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$5</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$5</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$5</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$5</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$5</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$5</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$5</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$5</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$5</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$5</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>11/22/2021</t>
+  </si>
+  <si>
+    <t>11/23/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -987,7 +990,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart184D"/>
+        <xdr:cNvPr id="0" name="Chart5514"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1022,7 +1025,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart18AC"/>
+        <xdr:cNvPr id="0" name="Chart5582"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1057,7 +1060,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart18DC"/>
+        <xdr:cNvPr id="0" name="Chart55C1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1092,7 +1095,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart190C"/>
+        <xdr:cNvPr id="0" name="Chart5601"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1127,7 +1130,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart194B"/>
+        <xdr:cNvPr id="0" name="Chart5631"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1162,7 +1165,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart198B"/>
+        <xdr:cNvPr id="0" name="Chart5670"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1197,7 +1200,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart19CA"/>
+        <xdr:cNvPr id="0" name="Chart56BF"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1232,7 +1235,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1A19"/>
+        <xdr:cNvPr id="0" name="Chart570F"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1252,7 +1255,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1320,8 +1323,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0">
+        <v>57049</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D4"/>
+  <autoFilter ref="A1:D5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1329,7 +1346,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1357,10 +1374,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1371,10 +1388,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1385,10 +1402,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1397,8 +1414,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1.81</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D4"/>
+  <autoFilter ref="A1:D5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1406,7 +1437,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1434,10 +1465,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -1448,10 +1479,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -1462,10 +1493,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -1474,8 +1505,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="0">
+        <v>26.91</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D4"/>
+  <autoFilter ref="A1:D5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1483,7 +1528,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1511,10 +1556,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -1525,10 +1570,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -1539,10 +1584,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -1551,8 +1596,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.222552</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D4"/>
+  <autoFilter ref="A1:D5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1560,7 +1619,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1588,10 +1647,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -1602,10 +1661,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -1616,10 +1675,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -1628,8 +1687,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0">
+        <v>4180.33</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D4"/>
+  <autoFilter ref="A1:D5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1637,7 +1710,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1665,10 +1738,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -1679,10 +1752,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -1693,10 +1766,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -1705,8 +1778,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0">
+        <v>210.78</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D4"/>
+  <autoFilter ref="A1:D5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1714,7 +1801,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1742,10 +1829,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -1756,10 +1843,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -1770,10 +1857,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -1782,8 +1869,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0">
+        <v>220.3</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D4"/>
+  <autoFilter ref="A1:D5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1791,7 +1892,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1819,10 +1920,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -1833,10 +1934,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -1847,10 +1948,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -1859,8 +1960,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="0">
+        <v>21.46</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D4"/>
+  <autoFilter ref="A1:D5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$5</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$5</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$5</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$5</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$5</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$5</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$5</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$5</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$5</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$5</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$5</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$5</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$5</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$5</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$5</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$5</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$5</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$5</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$5</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$5</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$5</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$5</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$5</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$5</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$5</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$5</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$5</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$5</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$5</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$5</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$5</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$5</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$6</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$6</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$6</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$6</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$6</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$6</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$6</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$6</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$6</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$6</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$6</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$6</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$6</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$6</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$6</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$6</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$6</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$6</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$6</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$6</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$6</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$6</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$6</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$6</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$6</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$6</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$6</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$6</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$6</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$6</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$6</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$6</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>11/23/2021</t>
+  </si>
+  <si>
+    <t>11/24/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -990,7 +993,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart5514"/>
+        <xdr:cNvPr id="0" name="Chart7CAC"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1025,7 +1028,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart5582"/>
+        <xdr:cNvPr id="0" name="Chart7D1B"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1060,7 +1063,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart55C1"/>
+        <xdr:cNvPr id="0" name="Chart7D79"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1095,7 +1098,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart5601"/>
+        <xdr:cNvPr id="0" name="Chart7DA9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1130,7 +1133,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart5631"/>
+        <xdr:cNvPr id="0" name="Chart7DD9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1165,7 +1168,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart5670"/>
+        <xdr:cNvPr id="0" name="Chart7E19"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1200,7 +1203,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart56BF"/>
+        <xdr:cNvPr id="0" name="Chart7E58"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1235,7 +1238,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart570F"/>
+        <xdr:cNvPr id="0" name="Chart7E98"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1255,7 +1258,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1337,8 +1340,22 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0">
+        <v>56597</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D5"/>
+  <autoFilter ref="A1:D6"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1346,7 +1363,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1374,10 +1391,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1388,10 +1405,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1402,10 +1419,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1416,10 +1433,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1428,8 +1445,22 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="0">
+        <v>1.68</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D5"/>
+  <autoFilter ref="A1:D6"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1437,7 +1468,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1465,10 +1496,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -1479,10 +1510,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -1493,10 +1524,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -1507,10 +1538,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -1519,8 +1550,22 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="0">
+        <v>26.37</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D5"/>
+  <autoFilter ref="A1:D6"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1528,7 +1573,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1556,10 +1601,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -1570,10 +1615,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -1584,10 +1629,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -1598,10 +1643,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -1610,8 +1655,22 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.223058</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D5"/>
+  <autoFilter ref="A1:D6"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1619,7 +1678,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1647,10 +1706,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -1661,10 +1720,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -1675,10 +1734,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -1689,10 +1748,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -1701,8 +1760,22 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="0">
+        <v>4269.13</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D5"/>
+  <autoFilter ref="A1:D6"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1710,7 +1783,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1738,10 +1811,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -1752,10 +1825,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -1766,10 +1839,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -1780,10 +1853,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -1792,8 +1865,22 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0">
+        <v>210.92</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D5"/>
+  <autoFilter ref="A1:D6"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1801,7 +1888,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1829,10 +1916,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -1843,10 +1930,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -1857,10 +1944,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -1871,10 +1958,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -1883,8 +1970,22 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0">
+        <v>218.84</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D5"/>
+  <autoFilter ref="A1:D6"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1892,7 +1993,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1920,10 +2021,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -1934,10 +2035,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -1948,10 +2049,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -1962,10 +2063,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -1974,8 +2075,22 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="0">
+        <v>21.84</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D5"/>
+  <autoFilter ref="A1:D6"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$6</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$6</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$6</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$6</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$6</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$6</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$6</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$6</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$6</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$6</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$6</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$6</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$6</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$6</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$6</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$6</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$6</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$6</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$6</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$6</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$6</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$6</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$6</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$6</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$6</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$6</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$6</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$6</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$6</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$6</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$6</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$6</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$7</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$7</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$7</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$7</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$7</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$7</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$7</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$7</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$7</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$7</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$7</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$7</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$7</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$7</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$7</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$7</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$7</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$7</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$7</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$7</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$7</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$7</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$7</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$7</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$7</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$7</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$7</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$7</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$7</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$7</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$7</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$7</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>11/24/2021</t>
+  </si>
+  <si>
+    <t>11/25/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -993,7 +996,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart7CAC"/>
+        <xdr:cNvPr id="0" name="Chart8E3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1028,7 +1031,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart7D1B"/>
+        <xdr:cNvPr id="0" name="Chart942"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1063,7 +1066,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart7D79"/>
+        <xdr:cNvPr id="0" name="Chart972"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1098,7 +1101,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart7DA9"/>
+        <xdr:cNvPr id="0" name="Chart9A2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1133,7 +1136,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart7DD9"/>
+        <xdr:cNvPr id="0" name="Chart9D2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1168,7 +1171,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart7E19"/>
+        <xdr:cNvPr id="0" name="ChartA02"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1203,7 +1206,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart7E58"/>
+        <xdr:cNvPr id="0" name="ChartA41"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1238,7 +1241,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart7E98"/>
+        <xdr:cNvPr id="0" name="ChartA81"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1258,7 +1261,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1354,8 +1357,22 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0">
+        <v>57674</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D6"/>
+  <autoFilter ref="A1:D7"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1363,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1391,10 +1408,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1405,10 +1422,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1419,10 +1436,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1433,10 +1450,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1447,10 +1464,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1459,8 +1476,22 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="0">
+        <v>1.69</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D6"/>
+  <autoFilter ref="A1:D7"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1468,7 +1499,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1496,10 +1527,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -1510,10 +1541,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -1524,10 +1555,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -1538,10 +1569,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -1552,10 +1583,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -1564,8 +1595,22 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="0">
+        <v>26.43</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D6"/>
+  <autoFilter ref="A1:D7"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1573,7 +1618,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1601,10 +1646,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -1615,10 +1660,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -1629,10 +1674,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -1643,10 +1688,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -1657,10 +1702,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -1669,8 +1714,22 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0.219012</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D6"/>
+  <autoFilter ref="A1:D7"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1678,7 +1737,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1706,10 +1765,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -1720,10 +1779,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -1734,10 +1793,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -1748,10 +1807,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -1762,10 +1821,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -1774,8 +1833,22 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="0">
+        <v>4314.93</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D6"/>
+  <autoFilter ref="A1:D7"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1783,7 +1856,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1811,10 +1884,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -1825,10 +1898,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -1839,10 +1912,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -1853,10 +1926,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -1867,10 +1940,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -1879,8 +1952,22 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0">
+        <v>218.83</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D6"/>
+  <autoFilter ref="A1:D7"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1888,7 +1975,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1916,10 +2003,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -1930,10 +2017,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -1944,10 +2031,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -1958,10 +2045,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -1972,10 +2059,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -1984,8 +2071,22 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="0">
+        <v>209.01</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D6"/>
+  <autoFilter ref="A1:D7"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1993,7 +2094,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2021,10 +2122,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -2035,10 +2136,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -2049,10 +2150,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -2063,10 +2164,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -2077,10 +2178,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -2089,8 +2190,22 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="0">
+        <v>20.95</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D6"/>
+  <autoFilter ref="A1:D7"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$7</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$7</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$7</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$7</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$7</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$7</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$7</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$7</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$7</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$7</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$7</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$7</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$7</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$7</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$7</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$7</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$7</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$7</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$7</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$7</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$7</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$7</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$7</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$7</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$7</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$7</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$7</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$7</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$7</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$7</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$7</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$7</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$8</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$8</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$8</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$8</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$8</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$8</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$8</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$8</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$8</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$8</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$8</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$8</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$8</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$8</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$8</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$8</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$8</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$8</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$8</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$8</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$8</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$8</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$8</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$8</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$8</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$8</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$8</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$8</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$8</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$8</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$8</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$8</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>11/25/2021</t>
+  </si>
+  <si>
+    <t>11/26/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -996,7 +999,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart8E3"/>
+        <xdr:cNvPr id="0" name="ChartB611"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1031,7 +1034,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart942"/>
+        <xdr:cNvPr id="0" name="ChartB67F"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1066,7 +1069,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart972"/>
+        <xdr:cNvPr id="0" name="ChartB6BF"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1101,7 +1104,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart9A2"/>
+        <xdr:cNvPr id="0" name="ChartB6FE"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1136,7 +1139,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart9D2"/>
+        <xdr:cNvPr id="0" name="ChartB73E"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1171,7 +1174,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartA02"/>
+        <xdr:cNvPr id="0" name="ChartB77D"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1206,7 +1209,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartA41"/>
+        <xdr:cNvPr id="0" name="ChartB7BD"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1241,7 +1244,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartA81"/>
+        <xdr:cNvPr id="0" name="ChartB80C"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1261,7 +1264,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1371,8 +1374,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="0">
+        <v>58047</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D7"/>
+  <autoFilter ref="A1:D8"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1380,7 +1397,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1408,10 +1425,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1422,10 +1439,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1436,10 +1453,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1450,10 +1467,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1464,10 +1481,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1478,10 +1495,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1490,8 +1507,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="0">
+        <v>1.65</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D7"/>
+  <autoFilter ref="A1:D8"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1499,7 +1530,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1527,10 +1558,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -1541,10 +1572,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -1555,10 +1586,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -1569,10 +1600,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -1583,10 +1614,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -1597,10 +1628,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -1609,8 +1640,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="0">
+        <v>26.22</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D7"/>
+  <autoFilter ref="A1:D8"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1618,7 +1663,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1646,10 +1691,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -1660,10 +1705,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -1674,10 +1719,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -1688,10 +1733,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -1702,10 +1747,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -1716,10 +1761,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -1728,8 +1773,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0.218451</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D7"/>
+  <autoFilter ref="A1:D8"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1737,7 +1796,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1765,10 +1824,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -1779,10 +1838,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -1793,10 +1852,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -1807,10 +1866,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -1821,10 +1880,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -1835,10 +1894,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -1847,8 +1906,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="0">
+        <v>4441.96</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D7"/>
+  <autoFilter ref="A1:D8"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1856,7 +1929,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1884,10 +1957,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -1898,10 +1971,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -1912,10 +1985,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -1926,10 +1999,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -1940,10 +2013,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -1954,10 +2027,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -1966,8 +2039,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="0">
+        <v>217.18</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D7"/>
+  <autoFilter ref="A1:D8"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1975,7 +2062,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2003,10 +2090,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -2017,10 +2104,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -2031,10 +2118,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -2045,10 +2132,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -2059,10 +2146,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -2073,10 +2160,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -2085,8 +2172,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0">
+        <v>206.34</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D7"/>
+  <autoFilter ref="A1:D8"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2094,7 +2195,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2122,10 +2223,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -2136,10 +2237,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -2150,10 +2251,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -2164,10 +2265,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -2178,10 +2279,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -2192,10 +2293,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -2204,8 +2305,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="0">
+        <v>20.98</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D7"/>
+  <autoFilter ref="A1:D8"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$8</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$8</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$8</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$8</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$8</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$8</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$8</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$8</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$8</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$8</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$8</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$8</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$8</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$8</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$8</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$8</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$8</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$8</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$8</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$8</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$8</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$8</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$8</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$8</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$8</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$8</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$8</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$8</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$8</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$8</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$8</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$8</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$9</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$9</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$9</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$9</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$9</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$9</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$9</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$9</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$9</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$9</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$9</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$9</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$9</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$9</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$9</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$9</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$9</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$9</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$9</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$9</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$9</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$9</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$9</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$9</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$9</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$9</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$9</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$9</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$9</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$9</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$9</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$9</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>11/26/2021</t>
+  </si>
+  <si>
+    <t>11/27/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -999,7 +1002,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB611"/>
+        <xdr:cNvPr id="0" name="ChartBCBF"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1034,7 +1037,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB67F"/>
+        <xdr:cNvPr id="0" name="ChartBD2D"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1069,7 +1072,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB6BF"/>
+        <xdr:cNvPr id="0" name="ChartBD6D"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1104,7 +1107,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB6FE"/>
+        <xdr:cNvPr id="0" name="ChartBD9D"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1139,7 +1142,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB73E"/>
+        <xdr:cNvPr id="0" name="ChartBDDC"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1174,7 +1177,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB77D"/>
+        <xdr:cNvPr id="0" name="ChartBE1C"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1209,7 +1212,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB7BD"/>
+        <xdr:cNvPr id="0" name="ChartBE5B"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1244,7 +1247,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB80C"/>
+        <xdr:cNvPr id="0" name="ChartBEAA"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1264,7 +1267,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1388,8 +1391,22 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="0">
+        <v>54444</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D8"/>
+  <autoFilter ref="A1:D9"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1397,7 +1414,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1425,10 +1442,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1439,10 +1456,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1453,10 +1470,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1467,10 +1484,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1481,10 +1498,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1495,10 +1512,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1509,10 +1526,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1521,8 +1538,22 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="0">
+        <v>1.56</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D8"/>
+  <autoFilter ref="A1:D9"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1530,7 +1561,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1558,10 +1589,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -1572,10 +1603,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -1586,10 +1617,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -1600,10 +1631,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -1614,10 +1645,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -1628,10 +1659,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -1642,10 +1673,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -1654,8 +1685,22 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="0">
+        <v>24.65</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D8"/>
+  <autoFilter ref="A1:D9"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1663,7 +1708,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1691,10 +1736,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -1705,10 +1750,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -1719,10 +1764,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -1733,10 +1778,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -1747,10 +1792,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -1761,10 +1806,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -1775,10 +1820,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -1787,8 +1832,22 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0.206149</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D8"/>
+  <autoFilter ref="A1:D9"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1796,7 +1855,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1824,10 +1883,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -1838,10 +1897,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -1852,10 +1911,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -1866,10 +1925,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -1880,10 +1939,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -1894,10 +1953,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -1908,10 +1967,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -1920,8 +1979,22 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="0">
+        <v>4124.31</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D8"/>
+  <autoFilter ref="A1:D9"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1929,7 +2002,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1957,10 +2030,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -1971,10 +2044,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -1985,10 +2058,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -1999,10 +2072,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -2013,10 +2086,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -2027,10 +2100,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -2041,10 +2114,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -2053,8 +2126,22 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="0">
+        <v>198.44</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D8"/>
+  <autoFilter ref="A1:D9"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2062,7 +2149,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2090,10 +2177,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -2104,10 +2191,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -2118,10 +2205,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -2132,10 +2219,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -2146,10 +2233,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -2160,10 +2247,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -2174,10 +2261,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -2186,8 +2273,22 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="0">
+        <v>195.53</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D8"/>
+  <autoFilter ref="A1:D9"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2195,7 +2296,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2223,10 +2324,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -2237,10 +2338,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -2251,10 +2352,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -2265,10 +2366,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -2279,10 +2380,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -2293,10 +2394,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -2307,10 +2408,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -2319,8 +2420,22 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="0">
+        <v>19.82</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D8"/>
+  <autoFilter ref="A1:D9"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$9</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$9</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$9</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$9</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$9</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$9</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$9</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$9</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$9</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$9</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$9</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$9</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$9</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$9</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$9</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$9</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$9</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$9</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$9</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$9</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$9</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$9</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$9</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$9</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$9</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$9</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$9</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$9</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$9</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$9</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$9</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$9</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$10</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$10</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$10</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$10</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$10</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$10</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$10</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$10</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$10</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$10</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$10</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$10</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$10</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$10</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$10</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$10</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$10</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$10</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$10</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$10</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$10</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$10</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$10</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$10</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$10</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$10</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$10</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$10</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$10</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$10</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$10</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$10</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>11/27/2021</t>
+  </si>
+  <si>
+    <t>11/28/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1002,7 +1005,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartBCBF"/>
+        <xdr:cNvPr id="0" name="ChartC6E8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1037,7 +1040,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartBD2D"/>
+        <xdr:cNvPr id="0" name="ChartC747"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1072,7 +1075,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartBD6D"/>
+        <xdr:cNvPr id="0" name="ChartC796"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1107,7 +1110,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartBD9D"/>
+        <xdr:cNvPr id="0" name="ChartC7C6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1142,7 +1145,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartBDDC"/>
+        <xdr:cNvPr id="0" name="ChartC805"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1177,7 +1180,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartBE1C"/>
+        <xdr:cNvPr id="0" name="ChartC845"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1212,7 +1215,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartBE5B"/>
+        <xdr:cNvPr id="0" name="ChartC884"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1247,7 +1250,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartBEAA"/>
+        <xdr:cNvPr id="0" name="ChartC8E3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1267,7 +1270,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1405,8 +1408,22 @@
         <v>12</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="0">
+        <v>54128</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D9"/>
+  <autoFilter ref="A1:D10"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1414,7 +1431,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1442,10 +1459,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1456,10 +1473,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1470,10 +1487,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1484,10 +1501,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1498,10 +1515,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1512,10 +1529,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1526,10 +1543,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1540,10 +1557,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -1552,8 +1569,22 @@
         <v>12</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="0">
+        <v>1.49</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D9"/>
+  <autoFilter ref="A1:D10"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1561,7 +1592,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1589,10 +1620,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -1603,10 +1634,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -1617,10 +1648,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -1631,10 +1662,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -1645,10 +1676,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -1659,10 +1690,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -1673,10 +1704,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -1687,10 +1718,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -1699,8 +1730,22 @@
         <v>12</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="0">
+        <v>23.39</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D9"/>
+  <autoFilter ref="A1:D10"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1708,7 +1753,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1736,10 +1781,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -1750,10 +1795,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -1764,10 +1809,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -1778,10 +1823,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -1792,10 +1837,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -1806,10 +1851,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -1820,10 +1865,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -1834,10 +1879,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -1846,8 +1891,22 @@
         <v>12</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0.199152</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D9"/>
+  <autoFilter ref="A1:D10"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1855,7 +1914,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1883,10 +1942,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -1897,10 +1956,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -1911,10 +1970,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -1925,10 +1984,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -1939,10 +1998,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -1953,10 +2012,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -1967,10 +2026,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -1981,10 +2040,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -1993,8 +2052,22 @@
         <v>12</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="0">
+        <v>4028.24</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D9"/>
+  <autoFilter ref="A1:D10"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2002,7 +2075,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2030,10 +2103,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -2044,10 +2117,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -2058,10 +2131,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -2072,10 +2145,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -2086,10 +2159,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -2100,10 +2173,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -2114,10 +2187,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -2128,10 +2201,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -2140,8 +2213,22 @@
         <v>12</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="0">
+        <v>188.68</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D9"/>
+  <autoFilter ref="A1:D10"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2149,7 +2236,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2177,10 +2264,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -2191,10 +2278,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -2205,10 +2292,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -2219,10 +2306,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -2233,10 +2320,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -2247,10 +2334,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -2261,10 +2348,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -2275,10 +2362,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -2287,8 +2374,22 @@
         <v>12</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="0">
+        <v>186.96</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D9"/>
+  <autoFilter ref="A1:D10"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2296,7 +2397,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2324,10 +2425,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -2338,10 +2439,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -2352,10 +2453,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -2366,10 +2467,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -2380,10 +2481,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -2394,10 +2495,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -2408,10 +2509,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -2422,10 +2523,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -2434,8 +2535,22 @@
         <v>12</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="0">
+        <v>18.92</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D9"/>
+  <autoFilter ref="A1:D10"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$10</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$10</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$10</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$10</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$10</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$10</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$10</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$10</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$10</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$10</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$10</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$10</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$10</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$10</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$10</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$10</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$10</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$10</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$10</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$10</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$10</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$10</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$10</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$10</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$10</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$10</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$10</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$10</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$10</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$10</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$10</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$10</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$11</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$11</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$11</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$11</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$11</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$11</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$11</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$11</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$11</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$11</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$11</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$11</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$11</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$11</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$11</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$11</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$11</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$11</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$11</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$11</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$11</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$11</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$11</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$11</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$11</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$11</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$11</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$11</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$11</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$11</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$11</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$11</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>11/28/2021</t>
+  </si>
+  <si>
+    <t>11/29/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1005,7 +1008,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartC6E8"/>
+        <xdr:cNvPr id="0" name="Chart1B28"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1040,7 +1043,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartC747"/>
+        <xdr:cNvPr id="0" name="Chart1B87"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1075,7 +1078,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartC796"/>
+        <xdr:cNvPr id="0" name="Chart1BC6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1110,7 +1113,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartC7C6"/>
+        <xdr:cNvPr id="0" name="Chart1BF6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1145,7 +1148,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartC805"/>
+        <xdr:cNvPr id="0" name="Chart1C36"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1180,7 +1183,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartC845"/>
+        <xdr:cNvPr id="0" name="Chart1C66"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1215,7 +1218,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartC884"/>
+        <xdr:cNvPr id="0" name="Chart1CA5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1250,7 +1253,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartC8E3"/>
+        <xdr:cNvPr id="0" name="Chart1CE5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1270,7 +1273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1422,8 +1425,22 @@
         <v>13</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="0">
+        <v>57548</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D10"/>
+  <autoFilter ref="A1:D11"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1431,7 +1448,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1459,10 +1476,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1473,10 +1490,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1487,10 +1504,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1501,10 +1518,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1515,10 +1532,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1529,10 +1546,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1543,10 +1560,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1557,10 +1574,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -1571,10 +1588,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -1583,8 +1600,22 @@
         <v>13</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1.6</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D10"/>
+  <autoFilter ref="A1:D11"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1592,7 +1623,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1620,10 +1651,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -1634,10 +1665,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -1648,10 +1679,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -1662,10 +1693,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -1676,10 +1707,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -1690,10 +1721,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -1704,10 +1735,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -1718,10 +1749,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -1732,10 +1763,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -1744,8 +1775,22 @@
         <v>13</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="0">
+        <v>24.94</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D10"/>
+  <autoFilter ref="A1:D11"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1753,7 +1798,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1781,10 +1826,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -1795,10 +1840,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -1809,10 +1854,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -1823,10 +1868,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -1837,10 +1882,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -1851,10 +1896,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -1865,10 +1910,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -1879,10 +1924,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -1893,10 +1938,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -1905,8 +1950,22 @@
         <v>13</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0.205705</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D10"/>
+  <autoFilter ref="A1:D11"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1914,7 +1973,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1942,10 +2001,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -1956,10 +2015,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -1970,10 +2029,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -1984,10 +2043,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -1998,10 +2057,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -2012,10 +2071,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -2026,10 +2085,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -2040,10 +2099,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -2054,10 +2113,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -2066,8 +2125,22 @@
         <v>13</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="0">
+        <v>4338.62</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D10"/>
+  <autoFilter ref="A1:D11"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2075,7 +2148,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2103,10 +2176,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -2117,10 +2190,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -2131,10 +2204,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -2145,10 +2218,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -2159,10 +2232,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -2173,10 +2246,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -2187,10 +2260,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -2201,10 +2274,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -2215,10 +2288,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -2227,8 +2300,22 @@
         <v>13</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="0">
+        <v>199.41</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D10"/>
+  <autoFilter ref="A1:D11"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2236,7 +2323,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2264,10 +2351,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -2278,10 +2365,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -2292,10 +2379,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -2306,10 +2393,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -2320,10 +2407,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -2334,10 +2421,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -2348,10 +2435,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -2362,10 +2449,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -2376,10 +2463,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -2388,8 +2475,22 @@
         <v>13</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="0">
+        <v>201.76</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D10"/>
+  <autoFilter ref="A1:D11"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2397,7 +2498,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2425,10 +2526,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -2439,10 +2540,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -2453,10 +2554,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -2467,10 +2568,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -2481,10 +2582,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -2495,10 +2596,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -2509,10 +2610,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -2523,10 +2624,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -2537,10 +2638,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -2549,8 +2650,22 @@
         <v>13</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="0">
+        <v>20.04</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D10"/>
+  <autoFilter ref="A1:D11"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$11</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$11</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$11</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$11</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$11</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$11</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$11</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$11</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$11</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$11</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$11</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$11</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$11</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$11</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$11</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$11</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$11</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$11</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$11</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$11</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$11</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$11</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$11</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$11</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$11</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$11</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$11</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$11</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$11</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$11</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$11</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$11</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$12</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$12</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$12</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$12</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$12</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$12</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$12</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$12</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$12</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$12</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$12</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$12</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$12</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$12</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$12</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$12</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$12</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$12</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$12</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$12</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$12</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$12</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$12</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$12</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$12</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$12</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$12</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$12</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$12</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$12</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$12</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$12</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>11/29/2021</t>
+  </si>
+  <si>
+    <t>11/30/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1008,7 +1011,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1B28"/>
+        <xdr:cNvPr id="0" name="Chart5E4E"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1043,7 +1046,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1B87"/>
+        <xdr:cNvPr id="0" name="Chart5EAD"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1078,7 +1081,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1BC6"/>
+        <xdr:cNvPr id="0" name="Chart5EDD"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1113,7 +1116,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1BF6"/>
+        <xdr:cNvPr id="0" name="Chart5F1C"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1148,7 +1151,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1C36"/>
+        <xdr:cNvPr id="0" name="Chart5F4C"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1183,7 +1186,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1C66"/>
+        <xdr:cNvPr id="0" name="Chart5F8C"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1218,7 +1221,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1CA5"/>
+        <xdr:cNvPr id="0" name="Chart5FBC"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1253,7 +1256,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1CE5"/>
+        <xdr:cNvPr id="0" name="Chart5FFB"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1273,7 +1276,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1439,8 +1442,22 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="0">
+        <v>57229</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D11"/>
+  <autoFilter ref="A1:D12"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1448,7 +1465,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1476,10 +1493,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1490,10 +1507,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1504,10 +1521,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1518,10 +1535,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1532,10 +1549,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1546,10 +1563,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1560,10 +1577,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1574,10 +1591,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -1588,10 +1605,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -1602,10 +1619,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -1614,8 +1631,22 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="0">
+        <v>1.59</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D11"/>
+  <autoFilter ref="A1:D12"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1623,7 +1654,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1651,10 +1682,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -1665,10 +1696,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -1679,10 +1710,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -1693,10 +1724,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -1707,10 +1738,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -1721,10 +1752,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -1735,10 +1766,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -1749,10 +1780,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -1763,10 +1794,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -1777,10 +1808,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -1789,8 +1820,22 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D11"/>
+  <autoFilter ref="A1:D12"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1798,7 +1843,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1826,10 +1871,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -1840,10 +1885,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -1854,10 +1899,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -1868,10 +1913,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -1882,10 +1927,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -1896,10 +1941,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -1910,10 +1955,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -1924,10 +1969,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -1938,10 +1983,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -1952,10 +1997,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -1964,8 +2009,22 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0.221365</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D11"/>
+  <autoFilter ref="A1:D12"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1973,7 +2032,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2001,10 +2060,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -2015,10 +2074,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -2029,10 +2088,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -2043,10 +2102,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -2057,10 +2116,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -2071,10 +2130,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -2085,10 +2144,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -2099,10 +2158,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -2113,10 +2172,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -2127,10 +2186,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -2139,8 +2198,22 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="0">
+        <v>4448.98</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D11"/>
+  <autoFilter ref="A1:D12"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2148,7 +2221,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2176,10 +2249,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -2190,10 +2263,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -2204,10 +2277,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -2218,10 +2291,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -2232,10 +2305,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -2246,10 +2319,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -2260,10 +2333,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -2274,10 +2347,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -2288,10 +2361,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -2302,10 +2375,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -2314,8 +2387,22 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="0">
+        <v>203.77</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D11"/>
+  <autoFilter ref="A1:D12"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2323,7 +2410,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2351,10 +2438,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -2365,10 +2452,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -2379,10 +2466,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -2393,10 +2480,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -2407,10 +2494,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -2421,10 +2508,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -2435,10 +2522,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -2449,10 +2536,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -2463,10 +2550,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -2477,10 +2564,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -2489,8 +2576,22 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="0">
+        <v>204.08</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D11"/>
+  <autoFilter ref="A1:D12"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2498,7 +2599,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2526,10 +2627,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -2540,10 +2641,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -2554,10 +2655,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -2568,10 +2669,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -2582,10 +2683,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -2596,10 +2697,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -2610,10 +2711,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -2624,10 +2725,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -2638,10 +2739,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -2652,10 +2753,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -2664,8 +2765,22 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="0">
+        <v>20.22</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D11"/>
+  <autoFilter ref="A1:D12"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$12</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$12</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$12</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$12</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$12</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$12</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$12</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$12</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$12</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$12</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$12</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$12</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$12</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$12</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$12</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$12</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$12</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$12</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$12</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$12</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$12</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$12</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$12</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$12</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$12</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$12</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$12</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$12</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$12</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$12</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$12</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$12</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$13</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$13</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$13</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$13</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$13</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$13</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$13</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$13</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$13</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$13</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$13</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$13</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$13</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$13</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$13</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$13</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$13</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$13</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$13</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$13</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$13</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$13</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$13</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$13</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$13</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$13</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$13</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$13</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$13</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$13</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$13</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>11/30/2021</t>
+  </si>
+  <si>
+    <t>12/01/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1011,7 +1014,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart5E4E"/>
+        <xdr:cNvPr id="0" name="Chart2A73"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1046,7 +1049,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart5EAD"/>
+        <xdr:cNvPr id="0" name="Chart2AE2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1081,7 +1084,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart5EDD"/>
+        <xdr:cNvPr id="0" name="Chart2B31"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1116,7 +1119,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart5F1C"/>
+        <xdr:cNvPr id="0" name="Chart2B61"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1151,7 +1154,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart5F4C"/>
+        <xdr:cNvPr id="0" name="Chart2BA0"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1186,7 +1189,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart5F8C"/>
+        <xdr:cNvPr id="0" name="Chart2BE0"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1221,7 +1224,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart5FBC"/>
+        <xdr:cNvPr id="0" name="Chart2C1F"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1256,7 +1259,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart5FFB"/>
+        <xdr:cNvPr id="0" name="Chart2C5F"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1276,7 +1279,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1456,8 +1459,22 @@
         <v>15</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="0">
+        <v>57265</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D12"/>
+  <autoFilter ref="A1:D13"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1465,7 +1482,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1493,10 +1510,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1507,10 +1524,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1521,10 +1538,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1535,10 +1552,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1549,10 +1566,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1563,10 +1580,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1577,10 +1594,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1591,10 +1608,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -1605,10 +1622,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -1619,10 +1636,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -1633,10 +1650,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -1645,8 +1662,22 @@
         <v>15</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="0">
+        <v>1.58</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D12"/>
+  <autoFilter ref="A1:D13"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1654,7 +1685,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1682,10 +1713,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -1696,10 +1727,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -1710,10 +1741,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -1724,10 +1755,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -1738,10 +1769,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -1752,10 +1783,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -1766,10 +1797,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -1780,10 +1811,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -1794,10 +1825,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -1808,10 +1839,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -1822,10 +1853,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -1834,8 +1865,22 @@
         <v>15</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="0">
+        <v>26.02</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D12"/>
+  <autoFilter ref="A1:D13"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1843,7 +1888,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1871,10 +1916,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -1885,10 +1930,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -1899,10 +1944,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -1913,10 +1958,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -1927,10 +1972,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -1941,10 +1986,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -1955,10 +2000,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -1969,10 +2014,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -1983,10 +2028,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -1997,10 +2042,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -2011,10 +2056,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -2023,8 +2068,22 @@
         <v>15</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0.215267</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D12"/>
+  <autoFilter ref="A1:D13"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2032,7 +2091,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2060,10 +2119,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -2074,10 +2133,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -2088,10 +2147,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -2102,10 +2161,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -2116,10 +2175,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -2130,10 +2189,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -2144,10 +2203,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -2158,10 +2217,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -2172,10 +2231,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -2186,10 +2245,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -2200,10 +2259,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -2212,8 +2271,22 @@
         <v>15</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4746.42</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D12"/>
+  <autoFilter ref="A1:D13"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2221,7 +2294,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2249,10 +2322,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -2263,10 +2336,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -2277,10 +2350,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -2291,10 +2364,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -2305,10 +2378,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -2319,10 +2392,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -2333,10 +2406,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -2347,10 +2420,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -2361,10 +2434,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -2375,10 +2448,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -2389,10 +2462,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -2401,8 +2474,22 @@
         <v>15</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="0">
+        <v>211.61</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D12"/>
+  <autoFilter ref="A1:D13"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2410,7 +2497,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2438,10 +2525,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -2452,10 +2539,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -2466,10 +2553,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -2480,10 +2567,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -2494,10 +2581,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -2508,10 +2595,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -2522,10 +2609,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -2536,10 +2623,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -2550,10 +2637,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -2564,10 +2651,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -2578,10 +2665,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0">
         <v>204.08</v>
@@ -2590,8 +2677,22 @@
         <v>15</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="0">
+        <v>215.33</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D12"/>
+  <autoFilter ref="A1:D13"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2599,7 +2700,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2627,10 +2728,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -2641,10 +2742,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -2655,10 +2756,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -2669,10 +2770,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -2683,10 +2784,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -2697,10 +2798,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -2711,10 +2812,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -2725,10 +2826,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -2739,10 +2840,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -2753,10 +2854,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -2767,10 +2868,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="0">
         <v>20.22</v>
@@ -2779,8 +2880,22 @@
         <v>15</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="0">
+        <v>22.16</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D12"/>
+  <autoFilter ref="A1:D13"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$13</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$13</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$13</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$13</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$13</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$13</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$13</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$13</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$13</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$13</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$13</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$13</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$13</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$13</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$13</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$13</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$13</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$13</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$13</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$13</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$13</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$13</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$13</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$13</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$13</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$13</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$13</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$13</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$13</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$13</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$13</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$13</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$14</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$14</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$14</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$14</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$14</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$14</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$14</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$14</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$14</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$14</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$14</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$14</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$14</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$14</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$14</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$14</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$14</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$14</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$14</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$14</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$14</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$14</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$14</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$14</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$14</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$14</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$14</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$14</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$14</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$14</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$14</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$14</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>12/01/2021</t>
+  </si>
+  <si>
+    <t>12/02/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1014,7 +1017,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart2A73"/>
+        <xdr:cNvPr id="0" name="Chart92D5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1049,7 +1052,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart2AE2"/>
+        <xdr:cNvPr id="0" name="Chart9382"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1084,7 +1087,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart2B31"/>
+        <xdr:cNvPr id="0" name="Chart93E1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1119,7 +1122,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart2B61"/>
+        <xdr:cNvPr id="0" name="Chart949D"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1154,7 +1157,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart2BA0"/>
+        <xdr:cNvPr id="0" name="Chart94FC"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1189,7 +1192,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart2BE0"/>
+        <xdr:cNvPr id="0" name="Chart957A"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1224,7 +1227,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart2C1F"/>
+        <xdr:cNvPr id="0" name="Chart95C9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1259,7 +1262,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart2C5F"/>
+        <xdr:cNvPr id="0" name="Chart9609"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1279,7 +1282,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1473,8 +1476,22 @@
         <v>16</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="0">
+        <v>56505</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D13"/>
+  <autoFilter ref="A1:D14"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1482,7 +1499,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1510,10 +1527,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1524,10 +1541,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1538,10 +1555,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1552,10 +1569,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1566,10 +1583,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1580,10 +1597,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1594,10 +1611,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1608,10 +1625,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -1622,10 +1639,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -1636,10 +1653,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -1650,10 +1667,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -1664,10 +1681,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="0">
         <v>1.58</v>
@@ -1676,8 +1693,22 @@
         <v>16</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="0">
+        <v>1.54</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D13"/>
+  <autoFilter ref="A1:D14"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1685,7 +1716,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1713,10 +1744,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -1727,10 +1758,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -1741,10 +1772,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -1755,10 +1786,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -1769,10 +1800,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -1783,10 +1814,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -1797,10 +1828,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -1811,10 +1842,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -1825,10 +1856,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -1839,10 +1870,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -1853,10 +1884,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -1867,10 +1898,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="0">
         <v>26.02</v>
@@ -1879,8 +1910,22 @@
         <v>16</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="0">
+        <v>24.67</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D13"/>
+  <autoFilter ref="A1:D14"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1888,7 +1933,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1916,10 +1961,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -1930,10 +1975,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -1944,10 +1989,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -1958,10 +2003,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -1972,10 +2017,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -1986,10 +2031,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -2000,10 +2045,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -2014,10 +2059,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -2028,10 +2073,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -2042,10 +2087,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -2056,10 +2101,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -2070,10 +2115,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="0">
         <v>0.215267</v>
@@ -2082,8 +2127,22 @@
         <v>16</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0.204968</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D13"/>
+  <autoFilter ref="A1:D14"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2091,7 +2150,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2119,10 +2178,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -2133,10 +2192,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -2147,10 +2206,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -2161,10 +2220,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -2175,10 +2234,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -2189,10 +2248,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -2203,10 +2262,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -2217,10 +2276,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -2231,10 +2290,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -2245,10 +2304,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -2259,10 +2318,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -2273,10 +2332,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="0">
         <v>4746.42</v>
@@ -2285,8 +2344,22 @@
         <v>16</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="0">
+        <v>4518.21</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D13"/>
+  <autoFilter ref="A1:D14"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2294,7 +2367,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2322,10 +2395,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -2336,10 +2409,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -2350,10 +2423,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -2364,10 +2437,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -2378,10 +2451,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -2392,10 +2465,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -2406,10 +2479,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -2420,10 +2493,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -2434,10 +2507,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -2448,10 +2521,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -2462,10 +2535,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -2476,10 +2549,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="0">
         <v>211.61</v>
@@ -2488,8 +2561,22 @@
         <v>16</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="0">
+        <v>203.23</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D13"/>
+  <autoFilter ref="A1:D14"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2497,7 +2584,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2525,10 +2612,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -2539,10 +2626,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -2553,10 +2640,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -2567,10 +2654,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -2581,10 +2668,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -2595,10 +2682,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -2609,10 +2696,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -2623,10 +2710,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -2637,10 +2724,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -2651,10 +2738,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -2665,10 +2752,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="0">
         <v>204.08</v>
@@ -2679,10 +2766,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0">
         <v>215.33</v>
@@ -2691,8 +2778,22 @@
         <v>16</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="0">
+        <v>225.38</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D13"/>
+  <autoFilter ref="A1:D14"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2700,7 +2801,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2728,10 +2829,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -2742,10 +2843,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -2756,10 +2857,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -2770,10 +2871,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -2784,10 +2885,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -2798,10 +2899,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -2812,10 +2913,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -2826,10 +2927,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -2840,10 +2941,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -2854,10 +2955,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -2868,10 +2969,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="0">
         <v>20.22</v>
@@ -2882,10 +2983,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="0">
         <v>22.16</v>
@@ -2894,8 +2995,22 @@
         <v>16</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="0">
+        <v>22.34</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D13"/>
+  <autoFilter ref="A1:D14"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$14</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$14</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$14</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$14</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$14</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$14</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$14</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$14</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$14</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$14</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$14</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$14</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$14</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$14</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$14</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$14</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$14</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$14</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$14</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$14</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$14</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$14</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$14</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$14</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$14</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$14</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$14</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$14</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$14</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$14</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$14</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$14</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$15</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$15</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$15</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$15</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$15</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$15</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$15</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$15</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$15</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$15</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$15</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$15</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$15</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$15</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$15</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$15</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$15</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$15</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$15</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$15</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$15</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$15</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$15</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$15</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$15</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$15</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$15</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$15</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$15</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$15</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$15</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$15</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>12/02/2021</t>
+  </si>
+  <si>
+    <t>12/03/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1017,7 +1020,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart92D5"/>
+        <xdr:cNvPr id="0" name="Chart68E"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1052,7 +1055,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart9382"/>
+        <xdr:cNvPr id="0" name="Chart6FC"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1087,7 +1090,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart93E1"/>
+        <xdr:cNvPr id="0" name="Chart72C"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1122,7 +1125,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart949D"/>
+        <xdr:cNvPr id="0" name="Chart75C"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1157,7 +1160,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart94FC"/>
+        <xdr:cNvPr id="0" name="Chart79B"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1192,7 +1195,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart957A"/>
+        <xdr:cNvPr id="0" name="Chart7CB"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1227,7 +1230,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart95C9"/>
+        <xdr:cNvPr id="0" name="Chart81A"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1262,7 +1265,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart9609"/>
+        <xdr:cNvPr id="0" name="Chart869"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1282,7 +1285,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1490,8 +1493,22 @@
         <v>17</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="0">
+        <v>56619</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D14"/>
+  <autoFilter ref="A1:D15"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1499,7 +1516,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1527,10 +1544,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1541,10 +1558,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1555,10 +1572,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1569,10 +1586,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1583,10 +1600,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1597,10 +1614,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1611,10 +1628,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1625,10 +1642,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -1639,10 +1656,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -1653,10 +1670,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -1667,10 +1684,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -1681,10 +1698,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="0">
         <v>1.58</v>
@@ -1695,10 +1712,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="0">
         <v>1.54</v>
@@ -1707,8 +1724,22 @@
         <v>17</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="0">
+        <v>1.69</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D14"/>
+  <autoFilter ref="A1:D15"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1716,7 +1747,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1744,10 +1775,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -1758,10 +1789,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -1772,10 +1803,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -1786,10 +1817,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -1800,10 +1831,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -1814,10 +1845,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -1828,10 +1859,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -1842,10 +1873,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -1856,10 +1887,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -1870,10 +1901,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -1884,10 +1915,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -1898,10 +1929,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="0">
         <v>26.02</v>
@@ -1912,10 +1943,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="0">
         <v>24.67</v>
@@ -1924,8 +1955,22 @@
         <v>17</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="0">
+        <v>24.6</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D14"/>
+  <autoFilter ref="A1:D15"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1933,7 +1978,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1961,10 +2006,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -1975,10 +2020,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -1989,10 +2034,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -2003,10 +2048,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -2017,10 +2062,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -2031,10 +2076,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -2045,10 +2090,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -2059,10 +2104,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -2073,10 +2118,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -2087,10 +2132,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -2101,10 +2146,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -2115,10 +2160,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="0">
         <v>0.215267</v>
@@ -2129,10 +2174,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="0">
         <v>0.204968</v>
@@ -2141,8 +2186,22 @@
         <v>17</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0.20861</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D14"/>
+  <autoFilter ref="A1:D15"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2150,7 +2209,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2178,10 +2237,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -2192,10 +2251,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -2206,10 +2265,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -2220,10 +2279,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -2234,10 +2293,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -2248,10 +2307,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -2262,10 +2321,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -2276,10 +2335,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -2290,10 +2349,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -2304,10 +2363,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -2318,10 +2377,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -2332,10 +2391,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="0">
         <v>4746.42</v>
@@ -2346,10 +2405,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="0">
         <v>4518.21</v>
@@ -2358,8 +2417,22 @@
         <v>17</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="0">
+        <v>4524.56</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D14"/>
+  <autoFilter ref="A1:D15"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2367,7 +2440,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2395,10 +2468,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -2409,10 +2482,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -2423,10 +2496,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -2437,10 +2510,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -2451,10 +2524,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -2465,10 +2538,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -2479,10 +2552,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -2493,10 +2566,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -2507,10 +2580,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -2521,10 +2594,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -2535,10 +2608,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -2549,10 +2622,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="0">
         <v>211.61</v>
@@ -2563,10 +2636,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="0">
         <v>203.23</v>
@@ -2575,8 +2648,22 @@
         <v>17</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="0">
+        <v>201.01</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D14"/>
+  <autoFilter ref="A1:D15"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2584,7 +2671,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2612,10 +2699,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -2626,10 +2713,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -2640,10 +2727,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -2654,10 +2741,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -2668,10 +2755,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -2682,10 +2769,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -2696,10 +2783,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -2710,10 +2797,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -2724,10 +2811,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -2738,10 +2825,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -2752,10 +2839,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="0">
         <v>204.08</v>
@@ -2766,10 +2853,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="0">
         <v>215.33</v>
@@ -2780,10 +2867,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0">
         <v>225.38</v>
@@ -2792,8 +2879,22 @@
         <v>17</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="0">
+        <v>231</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D14"/>
+  <autoFilter ref="A1:D15"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2801,7 +2902,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2829,10 +2930,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -2843,10 +2944,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -2857,10 +2958,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -2871,10 +2972,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -2885,10 +2986,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -2899,10 +3000,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -2913,10 +3014,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -2927,10 +3028,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -2941,10 +3042,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -2955,10 +3056,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -2969,10 +3070,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="0">
         <v>20.22</v>
@@ -2983,10 +3084,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="0">
         <v>22.16</v>
@@ -2997,10 +3098,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="0">
         <v>22.34</v>
@@ -3009,8 +3110,22 @@
         <v>17</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="0">
+        <v>22.16</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D14"/>
+  <autoFilter ref="A1:D15"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$15</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$15</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$15</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$15</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$15</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$15</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$15</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$15</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$15</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$15</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$15</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$15</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$15</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$15</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$15</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$15</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$15</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$15</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$15</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$15</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$15</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$15</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$15</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$15</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$15</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$15</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$15</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$15</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$15</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$15</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$15</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$15</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$16</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$16</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$16</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$16</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$16</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$16</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$16</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$16</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$16</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$16</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$16</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$16</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$16</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$16</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$16</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$16</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$16</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$16</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$16</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$16</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$16</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$16</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$16</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$16</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$16</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$16</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$16</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$16</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$16</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$16</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$16</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$16</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>12/03/2021</t>
+  </si>
+  <si>
+    <t>12/04/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1020,7 +1023,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart68E"/>
+        <xdr:cNvPr id="0" name="Chart68F4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1055,7 +1058,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart6FC"/>
+        <xdr:cNvPr id="0" name="Chart6953"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1090,7 +1093,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart72C"/>
+        <xdr:cNvPr id="0" name="Chart6982"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1125,7 +1128,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart75C"/>
+        <xdr:cNvPr id="0" name="Chart69A3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1160,7 +1163,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart79B"/>
+        <xdr:cNvPr id="0" name="Chart69D3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1195,7 +1198,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart7CB"/>
+        <xdr:cNvPr id="0" name="Chart6A12"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1230,7 +1233,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart81A"/>
+        <xdr:cNvPr id="0" name="Chart6A42"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1265,7 +1268,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart869"/>
+        <xdr:cNvPr id="0" name="Chart6A72"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1285,7 +1288,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1507,8 +1510,22 @@
         <v>18</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="0">
+        <v>52591</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D15"/>
+  <autoFilter ref="A1:D16"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1516,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1544,10 +1561,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1558,10 +1575,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1572,10 +1589,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1586,10 +1603,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1600,10 +1617,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1614,10 +1631,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1628,10 +1645,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1642,10 +1659,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -1656,10 +1673,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -1670,10 +1687,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -1684,10 +1701,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -1698,10 +1715,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="0">
         <v>1.58</v>
@@ -1712,10 +1729,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="0">
         <v>1.54</v>
@@ -1726,10 +1743,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="0">
         <v>1.69</v>
@@ -1738,8 +1755,22 @@
         <v>18</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="0">
+        <v>1.51</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D15"/>
+  <autoFilter ref="A1:D16"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1747,7 +1778,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1775,10 +1806,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -1789,10 +1820,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -1803,10 +1834,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -1817,10 +1848,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -1831,10 +1862,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -1845,10 +1876,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -1859,10 +1890,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -1873,10 +1904,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -1887,10 +1918,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -1901,10 +1932,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -1915,10 +1946,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -1929,10 +1960,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="0">
         <v>26.02</v>
@@ -1943,10 +1974,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="0">
         <v>24.67</v>
@@ -1957,10 +1988,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="0">
         <v>24.6</v>
@@ -1969,8 +2000,22 @@
         <v>18</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="0">
+        <v>22.29</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D15"/>
+  <autoFilter ref="A1:D16"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1978,7 +2023,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2006,10 +2051,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -2020,10 +2065,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -2034,10 +2079,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -2048,10 +2093,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -2062,10 +2107,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -2076,10 +2121,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -2090,10 +2135,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -2104,10 +2149,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -2118,10 +2163,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -2132,10 +2177,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -2146,10 +2191,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -2160,10 +2205,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="0">
         <v>0.215267</v>
@@ -2174,10 +2219,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="0">
         <v>0.204968</v>
@@ -2188,10 +2233,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="0">
         <v>0.20861</v>
@@ -2200,8 +2245,22 @@
         <v>18</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="0">
+        <v>0.192745</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D15"/>
+  <autoFilter ref="A1:D16"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2209,7 +2268,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2237,10 +2296,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -2251,10 +2310,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -2265,10 +2324,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -2279,10 +2338,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -2293,10 +2352,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -2307,10 +2366,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -2321,10 +2380,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -2335,10 +2394,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -2349,10 +2408,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -2363,10 +2422,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -2377,10 +2436,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -2391,10 +2450,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="0">
         <v>4746.42</v>
@@ -2405,10 +2464,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="0">
         <v>4518.21</v>
@@ -2419,10 +2478,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="0">
         <v>4524.56</v>
@@ -2431,8 +2490,22 @@
         <v>18</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="0">
+        <v>4109</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D15"/>
+  <autoFilter ref="A1:D16"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2440,7 +2513,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2468,10 +2541,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -2482,10 +2555,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -2496,10 +2569,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -2510,10 +2583,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -2524,10 +2597,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -2538,10 +2611,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -2552,10 +2625,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -2566,10 +2639,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -2580,10 +2653,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -2594,10 +2667,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -2608,10 +2681,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -2622,10 +2695,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0">
         <v>211.61</v>
@@ -2636,10 +2709,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="0">
         <v>203.23</v>
@@ -2650,10 +2723,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="0">
         <v>201.01</v>
@@ -2662,8 +2735,22 @@
         <v>18</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="0">
+        <v>181.01</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D15"/>
+  <autoFilter ref="A1:D16"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2671,7 +2758,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2699,10 +2786,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -2713,10 +2800,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -2727,10 +2814,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -2741,10 +2828,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -2755,10 +2842,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -2769,10 +2856,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -2783,10 +2870,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -2797,10 +2884,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -2811,10 +2898,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -2825,10 +2912,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -2839,10 +2926,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="0">
         <v>204.08</v>
@@ -2853,10 +2940,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="0">
         <v>215.33</v>
@@ -2867,10 +2954,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="0">
         <v>225.38</v>
@@ -2881,10 +2968,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0">
         <v>231</v>
@@ -2893,8 +2980,22 @@
         <v>18</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="0">
+        <v>200.96</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D15"/>
+  <autoFilter ref="A1:D16"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2902,7 +3003,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2930,10 +3031,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -2944,10 +3045,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -2958,10 +3059,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -2972,10 +3073,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -2986,10 +3087,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -3000,10 +3101,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -3014,10 +3115,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -3028,10 +3129,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -3042,10 +3143,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -3056,10 +3157,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -3070,10 +3171,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="0">
         <v>20.22</v>
@@ -3084,10 +3185,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="0">
         <v>22.16</v>
@@ -3098,10 +3199,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="0">
         <v>22.34</v>
@@ -3112,10 +3213,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="0">
         <v>22.16</v>
@@ -3124,8 +3225,22 @@
         <v>18</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="0">
+        <v>19.26</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D15"/>
+  <autoFilter ref="A1:D16"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$16</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$16</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$16</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$16</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$16</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$16</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$16</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$16</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$16</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$16</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$16</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$16</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$16</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$16</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$16</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$16</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$16</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$16</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$16</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$16</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$16</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$16</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$16</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$16</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$16</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$16</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$16</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$16</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$16</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$16</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$16</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$16</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$17</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$17</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$17</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$17</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$17</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$17</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$17</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$17</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$17</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$17</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$17</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$17</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$17</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$17</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$17</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$17</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$17</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$17</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$17</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$17</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$17</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$17</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$17</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$17</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$17</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$17</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$17</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$17</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$17</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$17</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$17</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$17</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>12/04/2021</t>
+  </si>
+  <si>
+    <t>12/05/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1023,7 +1026,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart68F4"/>
+        <xdr:cNvPr id="0" name="Chart11CF"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1058,7 +1061,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart6953"/>
+        <xdr:cNvPr id="0" name="Chart121F"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1093,7 +1096,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart6982"/>
+        <xdr:cNvPr id="0" name="Chart123F"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1128,7 +1131,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart69A3"/>
+        <xdr:cNvPr id="0" name="Chart126F"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1163,7 +1166,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart69D3"/>
+        <xdr:cNvPr id="0" name="Chart128F"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1198,7 +1201,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart6A12"/>
+        <xdr:cNvPr id="0" name="Chart12BF"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1233,7 +1236,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart6A42"/>
+        <xdr:cNvPr id="0" name="Chart12EF"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1268,7 +1271,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart6A72"/>
+        <xdr:cNvPr id="0" name="Chart131F"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1288,7 +1291,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1524,8 +1527,22 @@
         <v>19</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="0">
+        <v>49173</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D16"/>
+  <autoFilter ref="A1:D17"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1533,7 +1550,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1561,10 +1578,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1575,10 +1592,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1589,10 +1606,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1603,10 +1620,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1617,10 +1634,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1631,10 +1648,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1645,10 +1662,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1659,10 +1676,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -1673,10 +1690,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -1687,10 +1704,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -1701,10 +1718,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -1715,10 +1732,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="0">
         <v>1.58</v>
@@ -1729,10 +1746,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="0">
         <v>1.54</v>
@@ -1743,10 +1760,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="0">
         <v>1.69</v>
@@ -1757,10 +1774,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="0">
         <v>1.51</v>
@@ -1769,8 +1786,22 @@
         <v>19</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="0">
+        <v>1.39</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D16"/>
+  <autoFilter ref="A1:D17"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1778,7 +1809,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1806,10 +1837,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -1820,10 +1851,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -1834,10 +1865,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -1848,10 +1879,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -1862,10 +1893,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -1876,10 +1907,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -1890,10 +1921,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -1904,10 +1935,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -1918,10 +1949,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -1932,10 +1963,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -1946,10 +1977,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -1960,10 +1991,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="0">
         <v>26.02</v>
@@ -1974,10 +2005,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="0">
         <v>24.67</v>
@@ -1988,10 +2019,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="0">
         <v>24.6</v>
@@ -2002,10 +2033,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="0">
         <v>22.29</v>
@@ -2014,8 +2045,22 @@
         <v>19</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="0">
+        <v>20.11</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D16"/>
+  <autoFilter ref="A1:D17"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2023,7 +2068,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2051,10 +2096,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -2065,10 +2110,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -2079,10 +2124,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -2093,10 +2138,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -2107,10 +2152,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -2121,10 +2166,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -2135,10 +2180,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -2149,10 +2194,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -2163,10 +2208,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -2177,10 +2222,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -2191,10 +2236,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -2205,10 +2250,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="0">
         <v>0.215267</v>
@@ -2219,10 +2264,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="0">
         <v>0.204968</v>
@@ -2233,10 +2278,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="0">
         <v>0.20861</v>
@@ -2247,10 +2292,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="0">
         <v>0.192745</v>
@@ -2259,8 +2304,22 @@
         <v>19</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="0">
+        <v>0.177181</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D16"/>
+  <autoFilter ref="A1:D17"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2268,7 +2327,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2296,10 +2355,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -2310,10 +2369,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -2324,10 +2383,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -2338,10 +2397,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -2352,10 +2411,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -2366,10 +2425,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -2380,10 +2439,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -2394,10 +2453,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -2408,10 +2467,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -2422,10 +2481,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -2436,10 +2495,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -2450,10 +2509,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="0">
         <v>4746.42</v>
@@ -2464,10 +2523,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="0">
         <v>4518.21</v>
@@ -2478,10 +2537,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="0">
         <v>4524.56</v>
@@ -2492,10 +2551,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="0">
         <v>4109</v>
@@ -2504,8 +2563,22 @@
         <v>19</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="0">
+        <v>4162.25</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D16"/>
+  <autoFilter ref="A1:D17"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2513,7 +2586,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2541,10 +2614,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -2555,10 +2628,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -2569,10 +2642,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -2583,10 +2656,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -2597,10 +2670,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -2611,10 +2684,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -2625,10 +2698,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -2639,10 +2712,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -2653,10 +2726,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -2667,10 +2740,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -2681,10 +2754,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -2695,10 +2768,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="0">
         <v>211.61</v>
@@ -2709,10 +2782,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0">
         <v>203.23</v>
@@ -2723,10 +2796,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="0">
         <v>201.01</v>
@@ -2737,10 +2810,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="0">
         <v>181.01</v>
@@ -2749,8 +2822,22 @@
         <v>19</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="0">
+        <v>160.26</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D16"/>
+  <autoFilter ref="A1:D17"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2758,7 +2845,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2786,10 +2873,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -2800,10 +2887,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -2814,10 +2901,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -2828,10 +2915,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -2842,10 +2929,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -2856,10 +2943,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -2870,10 +2957,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -2884,10 +2971,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -2898,10 +2985,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -2912,10 +2999,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -2926,10 +3013,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="0">
         <v>204.08</v>
@@ -2940,10 +3027,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="0">
         <v>215.33</v>
@@ -2954,10 +3041,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="0">
         <v>225.38</v>
@@ -2968,10 +3055,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="0">
         <v>231</v>
@@ -2982,10 +3069,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0">
         <v>200.96</v>
@@ -2994,8 +3081,22 @@
         <v>19</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="0">
+        <v>195.88</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D16"/>
+  <autoFilter ref="A1:D17"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3003,7 +3104,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3031,10 +3132,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -3045,10 +3146,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -3059,10 +3160,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -3073,10 +3174,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -3087,10 +3188,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -3101,10 +3202,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -3115,10 +3216,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -3129,10 +3230,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -3143,10 +3244,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -3157,10 +3258,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -3171,10 +3272,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="0">
         <v>20.22</v>
@@ -3185,10 +3286,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="0">
         <v>22.16</v>
@@ -3199,10 +3300,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="0">
         <v>22.34</v>
@@ -3213,10 +3314,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="0">
         <v>22.16</v>
@@ -3227,10 +3328,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="0">
         <v>19.26</v>
@@ -3239,8 +3340,22 @@
         <v>19</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="0">
+        <v>16.96</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D16"/>
+  <autoFilter ref="A1:D17"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$17</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$17</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$17</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$17</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$17</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$17</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$17</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$17</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$17</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$17</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$17</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$17</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$17</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$17</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$17</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$17</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$17</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$17</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$17</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$17</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$17</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$17</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$17</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$17</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$17</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$17</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$17</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$17</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$17</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$17</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$17</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$17</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$18</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$18</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$18</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$18</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$18</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$18</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$18</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$18</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$18</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$18</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$18</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$18</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$18</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$18</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$18</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$18</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$18</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$18</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$18</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$18</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$18</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$18</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$18</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$18</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$18</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$18</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$18</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$18</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$18</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$18</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$18</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$18</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>12/05/2021</t>
+  </si>
+  <si>
+    <t>12/06/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1026,7 +1029,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart11CF"/>
+        <xdr:cNvPr id="0" name="ChartEAE9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1061,7 +1064,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart121F"/>
+        <xdr:cNvPr id="0" name="ChartEB38"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1096,7 +1099,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart123F"/>
+        <xdr:cNvPr id="0" name="ChartEB68"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1131,7 +1134,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart126F"/>
+        <xdr:cNvPr id="0" name="ChartEB88"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1166,7 +1169,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart128F"/>
+        <xdr:cNvPr id="0" name="ChartEBB8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1201,7 +1204,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart12BF"/>
+        <xdr:cNvPr id="0" name="ChartEBE8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1236,7 +1239,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart12EF"/>
+        <xdr:cNvPr id="0" name="ChartEC18"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1271,7 +1274,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart131F"/>
+        <xdr:cNvPr id="0" name="ChartEC57"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1291,7 +1294,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1541,8 +1544,22 @@
         <v>20</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="0">
+        <v>49191</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D17"/>
+  <autoFilter ref="A1:D18"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1550,7 +1567,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1578,10 +1595,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1592,10 +1609,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1606,10 +1623,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1620,10 +1637,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1634,10 +1651,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1648,10 +1665,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1662,10 +1679,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1676,10 +1693,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -1690,10 +1707,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -1704,10 +1721,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -1718,10 +1735,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -1732,10 +1749,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="0">
         <v>1.58</v>
@@ -1746,10 +1763,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="0">
         <v>1.54</v>
@@ -1760,10 +1777,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="0">
         <v>1.69</v>
@@ -1774,10 +1791,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="0">
         <v>1.51</v>
@@ -1788,10 +1805,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="0">
         <v>1.39</v>
@@ -1800,8 +1817,22 @@
         <v>20</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="0">
+        <v>1.37</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D17"/>
+  <autoFilter ref="A1:D18"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1809,7 +1840,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1837,10 +1868,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -1851,10 +1882,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -1865,10 +1896,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -1879,10 +1910,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -1893,10 +1924,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -1907,10 +1938,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -1921,10 +1952,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -1935,10 +1966,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -1949,10 +1980,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -1963,10 +1994,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -1977,10 +2008,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -1991,10 +2022,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="0">
         <v>26.02</v>
@@ -2005,10 +2036,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="0">
         <v>24.67</v>
@@ -2019,10 +2050,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="0">
         <v>24.6</v>
@@ -2033,10 +2064,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="0">
         <v>22.29</v>
@@ -2047,10 +2078,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="0">
         <v>20.11</v>
@@ -2059,8 +2090,22 @@
         <v>20</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="0">
+        <v>19.19</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D17"/>
+  <autoFilter ref="A1:D18"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2068,7 +2113,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2096,10 +2141,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -2110,10 +2155,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -2124,10 +2169,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -2138,10 +2183,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -2152,10 +2197,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -2166,10 +2211,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -2180,10 +2225,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -2194,10 +2239,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -2208,10 +2253,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -2222,10 +2267,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -2236,10 +2281,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -2250,10 +2295,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="0">
         <v>0.215267</v>
@@ -2264,10 +2309,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="0">
         <v>0.204968</v>
@@ -2278,10 +2323,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="0">
         <v>0.20861</v>
@@ -2292,10 +2337,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="0">
         <v>0.192745</v>
@@ -2306,10 +2351,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="0">
         <v>0.177181</v>
@@ -2318,8 +2363,22 @@
         <v>20</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="0">
+        <v>0.171993</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D17"/>
+  <autoFilter ref="A1:D18"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2327,7 +2386,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2355,10 +2414,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -2369,10 +2428,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -2383,10 +2442,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -2397,10 +2456,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -2411,10 +2470,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -2425,10 +2484,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -2439,10 +2498,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -2453,10 +2512,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -2467,10 +2526,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -2481,10 +2540,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -2495,10 +2554,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -2509,10 +2568,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0">
         <v>4746.42</v>
@@ -2523,10 +2582,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="0">
         <v>4518.21</v>
@@ -2537,10 +2596,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="0">
         <v>4524.56</v>
@@ -2551,10 +2610,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="0">
         <v>4109</v>
@@ -2565,10 +2624,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="0">
         <v>4162.25</v>
@@ -2577,8 +2636,22 @@
         <v>20</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="0">
+        <v>4184.03</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D17"/>
+  <autoFilter ref="A1:D18"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2586,7 +2659,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2614,10 +2687,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -2628,10 +2701,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -2642,10 +2715,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -2656,10 +2729,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -2670,10 +2743,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -2684,10 +2757,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -2698,10 +2771,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -2712,10 +2785,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -2726,10 +2799,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -2740,10 +2813,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -2754,10 +2827,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -2768,10 +2841,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="0">
         <v>211.61</v>
@@ -2782,10 +2855,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="0">
         <v>203.23</v>
@@ -2796,10 +2869,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0">
         <v>201.01</v>
@@ -2810,10 +2883,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="0">
         <v>181.01</v>
@@ -2824,10 +2897,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="0">
         <v>160.26</v>
@@ -2836,8 +2909,22 @@
         <v>20</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="0">
+        <v>155.14</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D17"/>
+  <autoFilter ref="A1:D18"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2845,7 +2932,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2873,10 +2960,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -2887,10 +2974,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -2901,10 +2988,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -2915,10 +3002,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -2929,10 +3016,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -2943,10 +3030,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -2957,10 +3044,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -2971,10 +3058,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -2985,10 +3072,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -2999,10 +3086,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -3013,10 +3100,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="0">
         <v>204.08</v>
@@ -3027,10 +3114,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="0">
         <v>215.33</v>
@@ -3041,10 +3128,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="0">
         <v>225.38</v>
@@ -3055,10 +3142,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="0">
         <v>231</v>
@@ -3069,10 +3156,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="0">
         <v>200.96</v>
@@ -3083,10 +3170,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0">
         <v>195.88</v>
@@ -3095,8 +3182,22 @@
         <v>20</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="0">
+        <v>194.68</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D17"/>
+  <autoFilter ref="A1:D18"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3104,7 +3205,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3132,10 +3233,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -3146,10 +3247,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -3160,10 +3261,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -3174,10 +3275,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -3188,10 +3289,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -3202,10 +3303,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -3216,10 +3317,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -3230,10 +3331,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -3244,10 +3345,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -3258,10 +3359,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -3272,10 +3373,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="0">
         <v>20.22</v>
@@ -3286,10 +3387,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="0">
         <v>22.16</v>
@@ -3300,10 +3401,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="0">
         <v>22.34</v>
@@ -3314,10 +3415,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="0">
         <v>22.16</v>
@@ -3328,10 +3429,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="0">
         <v>19.26</v>
@@ -3342,10 +3443,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="0">
         <v>16.96</v>
@@ -3354,8 +3455,22 @@
         <v>20</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="0">
+        <v>16.43</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D17"/>
+  <autoFilter ref="A1:D18"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$18</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$18</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$18</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$18</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$18</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$18</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$18</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$18</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$18</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$18</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$18</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$18</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$18</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$18</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$18</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$18</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$18</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$18</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$18</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$18</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$18</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$18</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$18</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$18</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$18</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$18</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$18</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$18</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$18</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$18</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$18</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$18</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$19</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$19</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$19</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$19</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$19</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$19</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$19</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$19</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$19</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$19</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$19</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$19</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$19</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$19</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$19</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$19</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$19</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$19</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$19</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$19</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$19</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$19</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$19</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$19</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$19</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$19</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$19</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$19</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$19</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$19</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$19</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$19</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>12/06/2021</t>
+  </si>
+  <si>
+    <t>12/07/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1029,7 +1032,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartEAE9"/>
+        <xdr:cNvPr id="0" name="Chart20F6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1064,7 +1067,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartEB38"/>
+        <xdr:cNvPr id="0" name="Chart2164"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1099,7 +1102,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartEB68"/>
+        <xdr:cNvPr id="0" name="Chart2194"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1134,7 +1137,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartEB88"/>
+        <xdr:cNvPr id="0" name="Chart21D4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1169,7 +1172,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartEBB8"/>
+        <xdr:cNvPr id="0" name="Chart2213"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1204,7 +1207,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartEBE8"/>
+        <xdr:cNvPr id="0" name="Chart2253"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1239,7 +1242,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartEC18"/>
+        <xdr:cNvPr id="0" name="Chart2282"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1274,7 +1277,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartEC57"/>
+        <xdr:cNvPr id="0" name="Chart22D2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1294,7 +1297,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1558,8 +1561,22 @@
         <v>21</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="0">
+        <v>51259</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D18"/>
+  <autoFilter ref="A1:D19"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1567,7 +1584,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1595,10 +1612,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1609,10 +1626,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1623,10 +1640,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1637,10 +1654,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1651,10 +1668,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1665,10 +1682,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1679,10 +1696,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1693,10 +1710,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -1707,10 +1724,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -1721,10 +1738,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -1735,10 +1752,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -1749,10 +1766,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="0">
         <v>1.58</v>
@@ -1763,10 +1780,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="0">
         <v>1.54</v>
@@ -1777,10 +1794,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="0">
         <v>1.69</v>
@@ -1791,10 +1808,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="0">
         <v>1.51</v>
@@ -1805,10 +1822,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" s="0">
         <v>1.39</v>
@@ -1819,10 +1836,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="0">
         <v>1.37</v>
@@ -1831,8 +1848,22 @@
         <v>21</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="0">
+        <v>1.45</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D18"/>
+  <autoFilter ref="A1:D19"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1840,7 +1871,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1868,10 +1899,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -1882,10 +1913,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -1896,10 +1927,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -1910,10 +1941,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -1924,10 +1955,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -1938,10 +1969,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -1952,10 +1983,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -1966,10 +1997,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -1980,10 +2011,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -1994,10 +2025,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -2008,10 +2039,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -2022,10 +2053,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="0">
         <v>26.02</v>
@@ -2036,10 +2067,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="0">
         <v>24.67</v>
@@ -2050,10 +2081,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="0">
         <v>24.6</v>
@@ -2064,10 +2095,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="0">
         <v>22.29</v>
@@ -2078,10 +2109,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="0">
         <v>20.11</v>
@@ -2092,10 +2123,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="0">
         <v>19.19</v>
@@ -2104,8 +2135,22 @@
         <v>21</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="0">
+        <v>20.1</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D18"/>
+  <autoFilter ref="A1:D19"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2113,7 +2158,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2141,10 +2186,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -2155,10 +2200,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -2169,10 +2214,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -2183,10 +2228,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -2197,10 +2242,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -2211,10 +2256,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -2225,10 +2270,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -2239,10 +2284,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -2253,10 +2298,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -2267,10 +2312,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -2281,10 +2326,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -2295,10 +2340,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="0">
         <v>0.215267</v>
@@ -2309,10 +2354,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="0">
         <v>0.204968</v>
@@ -2323,10 +2368,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="0">
         <v>0.20861</v>
@@ -2337,10 +2382,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="0">
         <v>0.192745</v>
@@ -2351,10 +2396,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="0">
         <v>0.177181</v>
@@ -2365,10 +2410,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="0">
         <v>0.171993</v>
@@ -2377,8 +2422,22 @@
         <v>21</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="0">
+        <v>0.180834</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D18"/>
+  <autoFilter ref="A1:D19"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2386,7 +2445,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2414,10 +2473,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -2428,10 +2487,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -2442,10 +2501,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -2456,10 +2515,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -2470,10 +2529,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -2484,10 +2543,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -2498,10 +2557,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -2512,10 +2571,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -2526,10 +2585,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -2540,10 +2599,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -2554,10 +2613,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -2568,10 +2627,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="0">
         <v>4746.42</v>
@@ -2582,10 +2641,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0">
         <v>4518.21</v>
@@ -2596,10 +2655,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="0">
         <v>4524.56</v>
@@ -2610,10 +2669,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="0">
         <v>4109</v>
@@ -2624,10 +2683,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="0">
         <v>4162.25</v>
@@ -2638,10 +2697,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="0">
         <v>4184.03</v>
@@ -2650,8 +2709,22 @@
         <v>21</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="0">
+        <v>4367.46</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D18"/>
+  <autoFilter ref="A1:D19"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2659,7 +2732,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2687,10 +2760,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -2701,10 +2774,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -2715,10 +2788,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -2729,10 +2802,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -2743,10 +2816,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -2757,10 +2830,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -2771,10 +2844,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -2785,10 +2858,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -2799,10 +2872,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -2813,10 +2886,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -2827,10 +2900,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -2841,10 +2914,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="0">
         <v>211.61</v>
@@ -2855,10 +2928,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="0">
         <v>203.23</v>
@@ -2869,10 +2942,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="0">
         <v>201.01</v>
@@ -2883,10 +2956,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0">
         <v>181.01</v>
@@ -2897,10 +2970,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="0">
         <v>160.26</v>
@@ -2911,10 +2984,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="0">
         <v>155.14</v>
@@ -2923,8 +2996,22 @@
         <v>21</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="0">
+        <v>160.95</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D18"/>
+  <autoFilter ref="A1:D19"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2932,7 +3019,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2960,10 +3047,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -2974,10 +3061,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -2988,10 +3075,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -3002,10 +3089,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -3016,10 +3103,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -3030,10 +3117,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -3044,10 +3131,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -3058,10 +3145,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -3072,10 +3159,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -3086,10 +3173,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -3100,10 +3187,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="0">
         <v>204.08</v>
@@ -3114,10 +3201,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="0">
         <v>215.33</v>
@@ -3128,10 +3215,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="0">
         <v>225.38</v>
@@ -3142,10 +3229,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="0">
         <v>231</v>
@@ -3156,10 +3243,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="0">
         <v>200.96</v>
@@ -3170,10 +3257,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="0">
         <v>195.88</v>
@@ -3184,10 +3271,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0">
         <v>194.68</v>
@@ -3196,8 +3283,22 @@
         <v>21</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="0">
+        <v>196.72</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D18"/>
+  <autoFilter ref="A1:D19"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3205,7 +3306,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3233,10 +3334,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -3247,10 +3348,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -3261,10 +3362,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -3275,10 +3376,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -3289,10 +3390,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -3303,10 +3404,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -3317,10 +3418,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -3331,10 +3432,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -3345,10 +3446,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -3359,10 +3460,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -3373,10 +3474,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="0">
         <v>20.22</v>
@@ -3387,10 +3488,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="0">
         <v>22.16</v>
@@ -3401,10 +3502,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="0">
         <v>22.34</v>
@@ -3415,10 +3516,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="0">
         <v>22.16</v>
@@ -3429,10 +3530,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="0">
         <v>19.26</v>
@@ -3443,10 +3544,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="0">
         <v>16.96</v>
@@ -3457,10 +3558,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="0">
         <v>16.43</v>
@@ -3469,8 +3570,22 @@
         <v>21</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="0">
+        <v>17.24</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D18"/>
+  <autoFilter ref="A1:D19"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$19</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$19</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$19</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$19</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$19</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$19</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$19</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$19</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$19</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$19</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$19</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$19</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$19</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$19</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$19</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$19</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$19</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$19</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$19</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$19</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$19</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$19</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$19</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$19</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$19</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$19</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$19</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$19</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$19</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$19</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$19</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$19</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$20</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$20</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$20</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$20</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$20</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$20</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$20</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$20</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$20</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$20</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$20</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$20</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$20</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$20</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$20</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$20</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$20</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$20</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$20</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$20</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$20</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$20</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$20</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$20</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$20</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$20</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$20</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$20</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$20</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$20</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$20</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$20</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>12/07/2021</t>
+  </si>
+  <si>
+    <t>12/08/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1032,7 +1035,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart20F6"/>
+        <xdr:cNvPr id="0" name="ChartC"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1067,7 +1070,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart2164"/>
+        <xdr:cNvPr id="0" name="Chart5B"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1102,7 +1105,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart2194"/>
+        <xdr:cNvPr id="0" name="Chart8B"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1137,7 +1140,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart21D4"/>
+        <xdr:cNvPr id="0" name="ChartBB"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1172,7 +1175,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart2213"/>
+        <xdr:cNvPr id="0" name="ChartEB"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1207,7 +1210,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart2253"/>
+        <xdr:cNvPr id="0" name="Chart11B"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1242,7 +1245,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart2282"/>
+        <xdr:cNvPr id="0" name="Chart14B"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1277,7 +1280,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart22D2"/>
+        <xdr:cNvPr id="0" name="Chart17A"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1297,7 +1300,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1575,8 +1578,22 @@
         <v>22</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="0">
+        <v>50510</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D19"/>
+  <autoFilter ref="A1:D20"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1584,7 +1601,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1612,10 +1629,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1626,10 +1643,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1640,10 +1657,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1654,10 +1671,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1668,10 +1685,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1682,10 +1699,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1696,10 +1713,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1710,10 +1727,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -1724,10 +1741,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -1738,10 +1755,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -1752,10 +1769,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -1766,10 +1783,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="0">
         <v>1.58</v>
@@ -1780,10 +1797,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="0">
         <v>1.54</v>
@@ -1794,10 +1811,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="0">
         <v>1.69</v>
@@ -1808,10 +1825,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="0">
         <v>1.51</v>
@@ -1822,10 +1839,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="0">
         <v>1.39</v>
@@ -1836,10 +1853,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="0">
         <v>1.37</v>
@@ -1850,10 +1867,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="0">
         <v>1.45</v>
@@ -1862,8 +1879,22 @@
         <v>22</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="0">
+        <v>1.37</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D19"/>
+  <autoFilter ref="A1:D20"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1871,7 +1902,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1899,10 +1930,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -1913,10 +1944,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -1927,10 +1958,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -1941,10 +1972,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -1955,10 +1986,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -1969,10 +2000,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -1983,10 +2014,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -1997,10 +2028,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -2011,10 +2042,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -2025,10 +2056,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -2039,10 +2070,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -2053,10 +2084,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="0">
         <v>26.02</v>
@@ -2067,10 +2098,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="0">
         <v>24.67</v>
@@ -2081,10 +2112,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="0">
         <v>24.6</v>
@@ -2095,10 +2126,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="0">
         <v>22.29</v>
@@ -2109,10 +2140,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="0">
         <v>20.11</v>
@@ -2123,10 +2154,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="0">
         <v>19.19</v>
@@ -2137,10 +2168,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" s="0">
         <v>20.1</v>
@@ -2149,8 +2180,22 @@
         <v>22</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="0">
+        <v>21.85</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D19"/>
+  <autoFilter ref="A1:D20"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2158,7 +2203,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2186,10 +2231,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -2200,10 +2245,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -2214,10 +2259,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -2228,10 +2273,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -2242,10 +2287,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -2256,10 +2301,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -2270,10 +2315,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -2284,10 +2329,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -2298,10 +2343,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -2312,10 +2357,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -2326,10 +2371,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -2340,10 +2385,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0">
         <v>0.215267</v>
@@ -2354,10 +2399,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="0">
         <v>0.204968</v>
@@ -2368,10 +2413,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="0">
         <v>0.20861</v>
@@ -2382,10 +2427,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="0">
         <v>0.192745</v>
@@ -2396,10 +2441,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="0">
         <v>0.177181</v>
@@ -2410,10 +2455,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="0">
         <v>0.171993</v>
@@ -2424,10 +2469,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="0">
         <v>0.180834</v>
@@ -2436,8 +2481,22 @@
         <v>22</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="0">
+        <v>0.177974</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D19"/>
+  <autoFilter ref="A1:D20"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2445,7 +2504,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2473,10 +2532,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -2487,10 +2546,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -2501,10 +2560,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -2515,10 +2574,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -2529,10 +2588,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -2543,10 +2602,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -2557,10 +2616,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -2571,10 +2630,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -2585,10 +2644,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -2599,10 +2658,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -2613,10 +2672,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -2627,10 +2686,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="0">
         <v>4746.42</v>
@@ -2641,10 +2700,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="0">
         <v>4518.21</v>
@@ -2655,10 +2714,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0">
         <v>4524.56</v>
@@ -2669,10 +2728,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="0">
         <v>4109</v>
@@ -2683,10 +2742,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="0">
         <v>4162.25</v>
@@ -2697,10 +2756,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="0">
         <v>4184.03</v>
@@ -2711,10 +2770,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="0">
         <v>4367.46</v>
@@ -2723,8 +2782,22 @@
         <v>22</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="0">
+        <v>4331.56</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D19"/>
+  <autoFilter ref="A1:D20"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2732,7 +2805,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2760,10 +2833,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -2774,10 +2847,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -2788,10 +2861,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -2802,10 +2875,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -2816,10 +2889,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -2830,10 +2903,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -2844,10 +2917,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -2858,10 +2931,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -2872,10 +2945,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -2886,10 +2959,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -2900,10 +2973,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -2914,10 +2987,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="0">
         <v>211.61</v>
@@ -2928,10 +3001,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="0">
         <v>203.23</v>
@@ -2942,10 +3015,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="0">
         <v>201.01</v>
@@ -2956,10 +3029,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="0">
         <v>181.01</v>
@@ -2970,10 +3043,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0">
         <v>160.26</v>
@@ -2984,10 +3057,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="0">
         <v>155.14</v>
@@ -2998,10 +3071,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="0">
         <v>160.95</v>
@@ -3010,8 +3083,22 @@
         <v>22</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="0">
+        <v>161.57</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D19"/>
+  <autoFilter ref="A1:D20"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3019,7 +3106,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3047,10 +3134,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -3061,10 +3148,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -3075,10 +3162,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -3089,10 +3176,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -3103,10 +3190,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -3117,10 +3204,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -3131,10 +3218,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -3145,10 +3232,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -3159,10 +3246,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -3173,10 +3260,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -3187,10 +3274,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="0">
         <v>204.08</v>
@@ -3201,10 +3288,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="0">
         <v>215.33</v>
@@ -3215,10 +3302,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="0">
         <v>225.38</v>
@@ -3229,10 +3316,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="0">
         <v>231</v>
@@ -3243,10 +3330,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="0">
         <v>200.96</v>
@@ -3257,10 +3344,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="0">
         <v>195.88</v>
@@ -3271,10 +3358,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="0">
         <v>194.68</v>
@@ -3285,10 +3372,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="0">
         <v>196.72</v>
@@ -3297,8 +3384,22 @@
         <v>22</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="0">
+        <v>188.61</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D19"/>
+  <autoFilter ref="A1:D20"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3306,7 +3407,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3334,10 +3435,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -3348,10 +3449,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -3362,10 +3463,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -3376,10 +3477,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -3390,10 +3491,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -3404,10 +3505,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -3418,10 +3519,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -3432,10 +3533,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -3446,10 +3547,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -3460,10 +3561,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -3474,10 +3575,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="0">
         <v>20.22</v>
@@ -3488,10 +3589,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="0">
         <v>22.16</v>
@@ -3502,10 +3603,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="0">
         <v>22.34</v>
@@ -3516,10 +3617,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="0">
         <v>22.16</v>
@@ -3530,10 +3631,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="0">
         <v>19.26</v>
@@ -3544,10 +3645,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="0">
         <v>16.96</v>
@@ -3558,10 +3659,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="0">
         <v>16.43</v>
@@ -3572,10 +3673,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="0">
         <v>17.24</v>
@@ -3584,8 +3685,22 @@
         <v>22</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="0">
+        <v>17.51</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D19"/>
+  <autoFilter ref="A1:D20"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$20</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$20</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$20</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$20</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$20</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$20</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$20</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$20</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$20</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$20</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$20</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$20</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$20</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$20</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$20</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$20</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$20</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$20</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$20</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$20</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$20</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$20</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$20</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$20</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$20</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$20</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$20</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$20</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$20</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$20</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$20</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$20</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$21</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$21</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$21</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$21</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$21</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$21</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$21</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$21</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$21</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$21</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$21</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$21</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$21</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$21</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$21</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$21</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$21</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$21</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$21</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$21</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$21</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$21</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$21</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$21</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$21</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$21</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$21</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$21</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$21</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$21</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$21</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$21</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>12/08/2021</t>
+  </si>
+  <si>
+    <t>12/09/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1035,7 +1038,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartC"/>
+        <xdr:cNvPr id="0" name="Chart186A"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1070,7 +1073,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart5B"/>
+        <xdr:cNvPr id="0" name="Chart18C8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1105,7 +1108,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart8B"/>
+        <xdr:cNvPr id="0" name="Chart1908"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1140,7 +1143,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartBB"/>
+        <xdr:cNvPr id="0" name="Chart1938"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1175,7 +1178,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartEB"/>
+        <xdr:cNvPr id="0" name="Chart1968"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1210,7 +1213,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart11B"/>
+        <xdr:cNvPr id="0" name="Chart1998"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1245,7 +1248,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart14B"/>
+        <xdr:cNvPr id="0" name="Chart19D7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1280,7 +1283,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart17A"/>
+        <xdr:cNvPr id="0" name="Chart1A26"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1300,7 +1303,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1592,8 +1595,22 @@
         <v>23</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="0">
+        <v>49748</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D20"/>
+  <autoFilter ref="A1:D21"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1601,7 +1618,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1629,10 +1646,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1643,10 +1660,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1657,10 +1674,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1671,10 +1688,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1685,10 +1702,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1699,10 +1716,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1713,10 +1730,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1727,10 +1744,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -1741,10 +1758,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -1755,10 +1772,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -1769,10 +1786,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -1783,10 +1800,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="0">
         <v>1.58</v>
@@ -1797,10 +1814,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="0">
         <v>1.54</v>
@@ -1811,10 +1828,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="0">
         <v>1.69</v>
@@ -1825,10 +1842,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="0">
         <v>1.51</v>
@@ -1839,10 +1856,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="0">
         <v>1.39</v>
@@ -1853,10 +1870,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="0">
         <v>1.37</v>
@@ -1867,10 +1884,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="0">
         <v>1.45</v>
@@ -1881,10 +1898,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="0">
         <v>1.37</v>
@@ -1893,8 +1910,22 @@
         <v>23</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="0">
+        <v>1.37</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D20"/>
+  <autoFilter ref="A1:D21"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1902,7 +1933,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1930,10 +1961,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -1944,10 +1975,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -1958,10 +1989,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -1972,10 +2003,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -1986,10 +2017,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -2000,10 +2031,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -2014,10 +2045,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -2028,10 +2059,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -2042,10 +2073,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -2056,10 +2087,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -2070,10 +2101,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -2084,10 +2115,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="0">
         <v>26.02</v>
@@ -2098,10 +2129,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="0">
         <v>24.67</v>
@@ -2112,10 +2143,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="0">
         <v>24.6</v>
@@ -2126,10 +2157,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="0">
         <v>22.29</v>
@@ -2140,10 +2171,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="0">
         <v>20.11</v>
@@ -2154,10 +2185,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="0">
         <v>19.19</v>
@@ -2168,10 +2199,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="0">
         <v>20.1</v>
@@ -2182,10 +2213,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" s="0">
         <v>21.85</v>
@@ -2194,8 +2225,22 @@
         <v>23</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="0">
+        <v>21.81</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D20"/>
+  <autoFilter ref="A1:D21"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2203,7 +2248,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2231,10 +2276,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -2245,10 +2290,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -2259,10 +2304,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -2273,10 +2318,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -2287,10 +2332,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -2301,10 +2346,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -2315,10 +2360,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -2329,10 +2374,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -2343,10 +2388,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -2357,10 +2402,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -2371,10 +2416,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -2385,10 +2430,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="0">
         <v>0.215267</v>
@@ -2399,10 +2444,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0">
         <v>0.204968</v>
@@ -2413,10 +2458,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="0">
         <v>0.20861</v>
@@ -2427,10 +2472,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="0">
         <v>0.192745</v>
@@ -2441,10 +2486,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="0">
         <v>0.177181</v>
@@ -2455,10 +2500,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="0">
         <v>0.171993</v>
@@ -2469,10 +2514,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="0">
         <v>0.180834</v>
@@ -2483,10 +2528,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="0">
         <v>0.177974</v>
@@ -2495,8 +2540,22 @@
         <v>23</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="0">
+        <v>0.177815</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D20"/>
+  <autoFilter ref="A1:D21"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2504,7 +2563,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2532,10 +2591,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -2546,10 +2605,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -2560,10 +2619,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -2574,10 +2633,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -2588,10 +2647,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -2602,10 +2661,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -2616,10 +2675,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -2630,10 +2689,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -2644,10 +2703,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -2658,10 +2717,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -2672,10 +2731,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -2686,10 +2745,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="0">
         <v>4746.42</v>
@@ -2700,10 +2759,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="0">
         <v>4518.21</v>
@@ -2714,10 +2773,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="0">
         <v>4524.56</v>
@@ -2728,10 +2787,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0">
         <v>4109</v>
@@ -2742,10 +2801,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="0">
         <v>4162.25</v>
@@ -2756,10 +2815,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="0">
         <v>4184.03</v>
@@ -2770,10 +2829,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="0">
         <v>4367.46</v>
@@ -2784,10 +2843,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="0">
         <v>4331.56</v>
@@ -2796,8 +2855,22 @@
         <v>23</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="0">
+        <v>4382.01</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D20"/>
+  <autoFilter ref="A1:D21"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2805,7 +2878,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2833,10 +2906,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -2847,10 +2920,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -2861,10 +2934,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -2875,10 +2948,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -2889,10 +2962,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -2903,10 +2976,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -2917,10 +2990,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -2931,10 +3004,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -2945,10 +3018,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -2959,10 +3032,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -2973,10 +3046,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -2987,10 +3060,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="0">
         <v>211.61</v>
@@ -3001,10 +3074,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="0">
         <v>203.23</v>
@@ -3015,10 +3088,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="0">
         <v>201.01</v>
@@ -3029,10 +3102,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="0">
         <v>181.01</v>
@@ -3043,10 +3116,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="0">
         <v>160.26</v>
@@ -3057,10 +3130,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0">
         <v>155.14</v>
@@ -3071,10 +3144,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="0">
         <v>160.95</v>
@@ -3085,10 +3158,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="0">
         <v>161.57</v>
@@ -3097,8 +3170,22 @@
         <v>23</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="0">
+        <v>160.59</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D20"/>
+  <autoFilter ref="A1:D21"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3106,7 +3193,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3134,10 +3221,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -3148,10 +3235,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -3162,10 +3249,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -3176,10 +3263,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -3190,10 +3277,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -3204,10 +3291,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -3218,10 +3305,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -3232,10 +3319,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -3246,10 +3333,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -3260,10 +3347,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -3274,10 +3361,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="0">
         <v>204.08</v>
@@ -3288,10 +3375,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="0">
         <v>215.33</v>
@@ -3302,10 +3389,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="0">
         <v>225.38</v>
@@ -3316,10 +3403,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="0">
         <v>231</v>
@@ -3330,10 +3417,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="0">
         <v>200.96</v>
@@ -3344,10 +3431,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="0">
         <v>195.88</v>
@@ -3358,10 +3445,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="0">
         <v>194.68</v>
@@ -3372,10 +3459,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="0">
         <v>196.72</v>
@@ -3386,10 +3473,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0">
         <v>188.61</v>
@@ -3398,8 +3485,22 @@
         <v>23</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="0">
+        <v>190.45</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D20"/>
+  <autoFilter ref="A1:D21"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3407,7 +3508,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3435,10 +3536,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -3449,10 +3550,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -3463,10 +3564,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -3477,10 +3578,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -3491,10 +3592,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -3505,10 +3606,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -3519,10 +3620,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -3533,10 +3634,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -3547,10 +3648,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -3561,10 +3662,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -3575,10 +3676,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="0">
         <v>20.22</v>
@@ -3589,10 +3690,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="0">
         <v>22.16</v>
@@ -3603,10 +3704,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="0">
         <v>22.34</v>
@@ -3617,10 +3718,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="0">
         <v>22.16</v>
@@ -3631,10 +3732,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="0">
         <v>19.26</v>
@@ -3645,10 +3746,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="0">
         <v>16.96</v>
@@ -3659,10 +3760,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="0">
         <v>16.43</v>
@@ -3673,10 +3774,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="0">
         <v>17.24</v>
@@ -3687,10 +3788,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="0">
         <v>17.51</v>
@@ -3699,8 +3800,22 @@
         <v>23</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="0">
+        <v>17.72</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D20"/>
+  <autoFilter ref="A1:D21"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$21</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$21</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$21</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$21</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$21</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$21</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$21</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$21</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$21</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$21</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$21</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$21</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$21</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$21</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$21</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$21</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$21</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$21</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$21</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$21</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$21</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$21</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$21</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$21</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$21</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$21</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$21</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$21</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$21</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$21</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$21</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$21</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$22</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$22</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$22</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$22</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$22</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$22</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$22</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$22</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$22</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$22</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$22</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$22</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$22</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$22</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$22</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$22</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$22</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$22</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$22</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$22</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$22</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$22</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$22</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$22</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$22</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$22</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$22</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$22</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$22</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$22</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$22</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$22</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>12/09/2021</t>
+  </si>
+  <si>
+    <t>12/10/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1038,7 +1041,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart186A"/>
+        <xdr:cNvPr id="0" name="Chart171A"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1073,7 +1076,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart18C8"/>
+        <xdr:cNvPr id="0" name="Chart1769"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1108,7 +1111,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1908"/>
+        <xdr:cNvPr id="0" name="Chart1799"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1143,7 +1146,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1938"/>
+        <xdr:cNvPr id="0" name="Chart17C9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1178,7 +1181,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1968"/>
+        <xdr:cNvPr id="0" name="Chart17F9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1213,7 +1216,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1998"/>
+        <xdr:cNvPr id="0" name="Chart1829"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1248,7 +1251,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart19D7"/>
+        <xdr:cNvPr id="0" name="Chart1868"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1283,7 +1286,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1A26"/>
+        <xdr:cNvPr id="0" name="Chart18A8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1303,7 +1306,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1609,8 +1612,22 @@
         <v>24</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="0">
+        <v>48429</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D21"/>
+  <autoFilter ref="A1:D22"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1618,7 +1635,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1646,10 +1663,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1660,10 +1677,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1674,10 +1691,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1688,10 +1705,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1702,10 +1719,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1716,10 +1733,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1730,10 +1747,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1744,10 +1761,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -1758,10 +1775,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -1772,10 +1789,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -1786,10 +1803,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -1800,10 +1817,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="0">
         <v>1.58</v>
@@ -1814,10 +1831,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="0">
         <v>1.54</v>
@@ -1828,10 +1845,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="0">
         <v>1.69</v>
@@ -1842,10 +1859,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="0">
         <v>1.51</v>
@@ -1856,10 +1873,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="0">
         <v>1.39</v>
@@ -1870,10 +1887,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="0">
         <v>1.37</v>
@@ -1884,10 +1901,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" s="0">
         <v>1.45</v>
@@ -1898,10 +1915,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="0">
         <v>1.37</v>
@@ -1912,10 +1929,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="0">
         <v>1.37</v>
@@ -1924,8 +1941,22 @@
         <v>24</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="0">
+        <v>1.31</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D21"/>
+  <autoFilter ref="A1:D22"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1933,7 +1964,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1961,10 +1992,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -1975,10 +2006,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -1989,10 +2020,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -2003,10 +2034,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -2017,10 +2048,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -2031,10 +2062,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -2045,10 +2076,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -2059,10 +2090,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -2073,10 +2104,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -2087,10 +2118,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -2101,10 +2132,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -2115,10 +2146,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0">
         <v>26.02</v>
@@ -2129,10 +2160,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="0">
         <v>24.67</v>
@@ -2143,10 +2174,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="0">
         <v>24.6</v>
@@ -2157,10 +2188,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="0">
         <v>22.29</v>
@@ -2171,10 +2202,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="0">
         <v>20.11</v>
@@ -2185,10 +2216,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="0">
         <v>19.19</v>
@@ -2199,10 +2230,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="0">
         <v>20.1</v>
@@ -2213,10 +2244,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="0">
         <v>21.85</v>
@@ -2227,10 +2258,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="0">
         <v>21.81</v>
@@ -2239,8 +2270,22 @@
         <v>24</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="0">
+        <v>20.19</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D21"/>
+  <autoFilter ref="A1:D22"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2248,7 +2293,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2276,10 +2321,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -2290,10 +2335,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -2304,10 +2349,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -2318,10 +2363,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -2332,10 +2377,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -2346,10 +2391,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -2360,10 +2405,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -2374,10 +2419,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -2388,10 +2433,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -2402,10 +2447,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -2416,10 +2461,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -2430,10 +2475,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="0">
         <v>0.215267</v>
@@ -2444,10 +2489,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="0">
         <v>0.204968</v>
@@ -2458,10 +2503,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0">
         <v>0.20861</v>
@@ -2472,10 +2517,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="0">
         <v>0.192745</v>
@@ -2486,10 +2531,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="0">
         <v>0.177181</v>
@@ -2500,10 +2545,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="0">
         <v>0.171993</v>
@@ -2514,10 +2559,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="0">
         <v>0.180834</v>
@@ -2528,10 +2573,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="0">
         <v>0.177974</v>
@@ -2542,10 +2587,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" s="0">
         <v>0.177815</v>
@@ -2554,8 +2599,22 @@
         <v>24</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="0">
+        <v>0.171574</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D21"/>
+  <autoFilter ref="A1:D22"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2563,7 +2622,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2591,10 +2650,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -2605,10 +2664,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -2619,10 +2678,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -2633,10 +2692,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -2647,10 +2706,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -2661,10 +2720,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -2675,10 +2734,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -2689,10 +2748,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -2703,10 +2762,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -2717,10 +2776,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -2731,10 +2790,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -2745,10 +2804,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="0">
         <v>4746.42</v>
@@ -2759,10 +2818,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="0">
         <v>4518.21</v>
@@ -2773,10 +2832,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="0">
         <v>4524.56</v>
@@ -2787,10 +2846,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="0">
         <v>4109</v>
@@ -2801,10 +2860,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0">
         <v>4162.25</v>
@@ -2815,10 +2874,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="0">
         <v>4184.03</v>
@@ -2829,10 +2888,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="0">
         <v>4367.46</v>
@@ -2843,10 +2902,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="0">
         <v>4331.56</v>
@@ -2857,10 +2916,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="0">
         <v>4382.01</v>
@@ -2869,8 +2928,22 @@
         <v>24</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="0">
+        <v>4154.05</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D21"/>
+  <autoFilter ref="A1:D22"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2878,7 +2951,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2906,10 +2979,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -2920,10 +2993,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -2934,10 +3007,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -2948,10 +3021,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -2962,10 +3035,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -2976,10 +3049,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -2990,10 +3063,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -3004,10 +3077,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -3018,10 +3091,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -3032,10 +3105,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -3046,10 +3119,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -3060,10 +3133,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="0">
         <v>211.61</v>
@@ -3074,10 +3147,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="0">
         <v>203.23</v>
@@ -3088,10 +3161,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="0">
         <v>201.01</v>
@@ -3102,10 +3175,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="0">
         <v>181.01</v>
@@ -3116,10 +3189,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="0">
         <v>160.26</v>
@@ -3130,10 +3203,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="0">
         <v>155.14</v>
@@ -3144,10 +3217,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="0">
         <v>160.95</v>
@@ -3158,10 +3231,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="0">
         <v>161.57</v>
@@ -3172,10 +3245,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="0">
         <v>160.59</v>
@@ -3184,8 +3257,22 @@
         <v>24</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="0">
+        <v>154.05</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D21"/>
+  <autoFilter ref="A1:D22"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3193,7 +3280,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3221,10 +3308,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -3235,10 +3322,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -3249,10 +3336,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -3263,10 +3350,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -3277,10 +3364,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -3291,10 +3378,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -3305,10 +3392,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -3319,10 +3406,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -3333,10 +3420,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -3347,10 +3434,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -3361,10 +3448,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="0">
         <v>204.08</v>
@@ -3375,10 +3462,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="0">
         <v>215.33</v>
@@ -3389,10 +3476,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="0">
         <v>225.38</v>
@@ -3403,10 +3490,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="0">
         <v>231</v>
@@ -3417,10 +3504,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="0">
         <v>200.96</v>
@@ -3431,10 +3518,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="0">
         <v>195.88</v>
@@ -3445,10 +3532,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="0">
         <v>194.68</v>
@@ -3459,10 +3546,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="0">
         <v>196.72</v>
@@ -3473,10 +3560,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="0">
         <v>188.61</v>
@@ -3487,10 +3574,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0">
         <v>190.45</v>
@@ -3499,8 +3586,22 @@
         <v>24</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="0">
+        <v>179.87</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D21"/>
+  <autoFilter ref="A1:D22"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3508,7 +3609,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3536,10 +3637,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -3550,10 +3651,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -3564,10 +3665,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -3578,10 +3679,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -3592,10 +3693,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -3606,10 +3707,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -3620,10 +3721,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -3634,10 +3735,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -3648,10 +3749,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -3662,10 +3763,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -3676,10 +3777,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="0">
         <v>20.22</v>
@@ -3690,10 +3791,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="0">
         <v>22.16</v>
@@ -3704,10 +3805,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="0">
         <v>22.34</v>
@@ -3718,10 +3819,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="0">
         <v>22.16</v>
@@ -3732,10 +3833,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="0">
         <v>19.26</v>
@@ -3746,10 +3847,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="0">
         <v>16.96</v>
@@ -3760,10 +3861,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="0">
         <v>16.43</v>
@@ -3774,10 +3875,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="0">
         <v>17.24</v>
@@ -3788,10 +3889,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="0">
         <v>17.51</v>
@@ -3802,10 +3903,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="0">
         <v>17.72</v>
@@ -3814,8 +3915,22 @@
         <v>24</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="0">
+        <v>16.11</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D21"/>
+  <autoFilter ref="A1:D22"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$22</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$22</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$22</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$22</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$22</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$22</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$22</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$22</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$22</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$22</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$22</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$22</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$22</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$22</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$22</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$22</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$22</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$22</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$22</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$22</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$22</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$22</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$22</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$22</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$22</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$22</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$22</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$22</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$22</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$22</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$22</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$22</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$23</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$23</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$23</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$23</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$23</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$23</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$23</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$23</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$23</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$23</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$23</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$23</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$23</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$23</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$23</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$23</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$23</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$23</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$23</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$23</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$23</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$23</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$23</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$23</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$23</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$23</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$23</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$23</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$23</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$23</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$23</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$23</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>12/10/2021</t>
+  </si>
+  <si>
+    <t>12/11/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1041,7 +1044,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart171A"/>
+        <xdr:cNvPr id="0" name="Chart3389"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1076,7 +1079,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1769"/>
+        <xdr:cNvPr id="0" name="Chart33E7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1111,7 +1114,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1799"/>
+        <xdr:cNvPr id="0" name="Chart3417"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1146,7 +1149,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart17C9"/>
+        <xdr:cNvPr id="0" name="Chart3447"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1181,7 +1184,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart17F9"/>
+        <xdr:cNvPr id="0" name="Chart3477"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1216,7 +1219,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1829"/>
+        <xdr:cNvPr id="0" name="Chart34A7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1251,7 +1254,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1868"/>
+        <xdr:cNvPr id="0" name="Chart34D7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1286,7 +1289,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart18A8"/>
+        <xdr:cNvPr id="0" name="Chart3516"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1306,7 +1309,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1626,8 +1629,22 @@
         <v>25</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="0">
+        <v>48497</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D22"/>
+  <autoFilter ref="A1:D23"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1635,7 +1652,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1663,10 +1680,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1677,10 +1694,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1691,10 +1708,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1705,10 +1722,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1719,10 +1736,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1733,10 +1750,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1747,10 +1764,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1761,10 +1778,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -1775,10 +1792,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -1789,10 +1806,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -1803,10 +1820,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -1817,10 +1834,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="0">
         <v>1.58</v>
@@ -1831,10 +1848,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="0">
         <v>1.54</v>
@@ -1845,10 +1862,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="0">
         <v>1.69</v>
@@ -1859,10 +1876,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="0">
         <v>1.51</v>
@@ -1873,10 +1890,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="0">
         <v>1.39</v>
@@ -1887,10 +1904,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="0">
         <v>1.37</v>
@@ -1901,10 +1918,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="0">
         <v>1.45</v>
@@ -1915,10 +1932,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" s="0">
         <v>1.37</v>
@@ -1929,10 +1946,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" s="0">
         <v>1.37</v>
@@ -1943,10 +1960,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" s="0">
         <v>1.31</v>
@@ -1955,8 +1972,22 @@
         <v>25</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="0">
+        <v>1.24</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D22"/>
+  <autoFilter ref="A1:D23"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1964,7 +1995,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1992,10 +2023,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -2006,10 +2037,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -2020,10 +2051,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -2034,10 +2065,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -2048,10 +2079,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -2062,10 +2093,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -2076,10 +2107,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -2090,10 +2121,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -2104,10 +2135,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -2118,10 +2149,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -2132,10 +2163,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -2146,10 +2177,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="0">
         <v>26.02</v>
@@ -2160,10 +2191,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0">
         <v>24.67</v>
@@ -2174,10 +2205,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="0">
         <v>24.6</v>
@@ -2188,10 +2219,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="0">
         <v>22.29</v>
@@ -2202,10 +2233,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="0">
         <v>20.11</v>
@@ -2216,10 +2247,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="0">
         <v>19.19</v>
@@ -2230,10 +2261,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="0">
         <v>20.1</v>
@@ -2244,10 +2275,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="0">
         <v>21.85</v>
@@ -2258,10 +2289,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="0">
         <v>21.81</v>
@@ -2272,10 +2303,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="0">
         <v>20.19</v>
@@ -2284,8 +2315,22 @@
         <v>25</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="0">
+        <v>19.09</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D22"/>
+  <autoFilter ref="A1:D23"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2293,7 +2338,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2321,10 +2366,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -2335,10 +2380,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -2349,10 +2394,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -2363,10 +2408,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -2377,10 +2422,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -2391,10 +2436,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -2405,10 +2450,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -2419,10 +2464,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -2433,10 +2478,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -2447,10 +2492,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -2461,10 +2506,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -2475,10 +2520,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="0">
         <v>0.215267</v>
@@ -2489,10 +2534,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="0">
         <v>0.204968</v>
@@ -2503,10 +2548,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="0">
         <v>0.20861</v>
@@ -2517,10 +2562,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0">
         <v>0.192745</v>
@@ -2531,10 +2576,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="0">
         <v>0.177181</v>
@@ -2545,10 +2590,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="0">
         <v>0.171993</v>
@@ -2559,10 +2604,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="0">
         <v>0.180834</v>
@@ -2573,10 +2618,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="0">
         <v>0.177974</v>
@@ -2587,10 +2632,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="0">
         <v>0.177815</v>
@@ -2601,10 +2646,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="0">
         <v>0.171574</v>
@@ -2613,8 +2658,22 @@
         <v>25</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="0">
+        <v>0.165586</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D22"/>
+  <autoFilter ref="A1:D23"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2622,7 +2681,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2650,10 +2709,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -2664,10 +2723,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -2678,10 +2737,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -2692,10 +2751,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -2706,10 +2765,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -2720,10 +2779,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -2734,10 +2793,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -2748,10 +2807,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -2762,10 +2821,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -2776,10 +2835,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -2790,10 +2849,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -2804,10 +2863,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="0">
         <v>4746.42</v>
@@ -2818,10 +2877,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="0">
         <v>4518.21</v>
@@ -2832,10 +2891,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="0">
         <v>4524.56</v>
@@ -2846,10 +2905,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="0">
         <v>4109</v>
@@ -2860,10 +2919,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="0">
         <v>4162.25</v>
@@ -2874,10 +2933,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0">
         <v>4184.03</v>
@@ -2888,10 +2947,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="0">
         <v>4367.46</v>
@@ -2902,10 +2961,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="0">
         <v>4331.56</v>
@@ -2916,10 +2975,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="0">
         <v>4382.01</v>
@@ -2930,10 +2989,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="0">
         <v>4154.05</v>
@@ -2942,8 +3001,22 @@
         <v>25</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="0">
+        <v>4032.48</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D22"/>
+  <autoFilter ref="A1:D23"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2951,7 +3024,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2979,10 +3052,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -2993,10 +3066,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -3007,10 +3080,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -3021,10 +3094,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -3035,10 +3108,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -3049,10 +3122,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -3063,10 +3136,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -3077,10 +3150,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -3091,10 +3164,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -3105,10 +3178,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -3119,10 +3192,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -3133,10 +3206,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="0">
         <v>211.61</v>
@@ -3147,10 +3220,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="0">
         <v>203.23</v>
@@ -3161,10 +3234,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="0">
         <v>201.01</v>
@@ -3175,10 +3248,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="0">
         <v>181.01</v>
@@ -3189,10 +3262,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="0">
         <v>160.26</v>
@@ -3203,10 +3276,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="0">
         <v>155.14</v>
@@ -3217,10 +3290,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="0">
         <v>160.95</v>
@@ -3231,10 +3304,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0">
         <v>161.57</v>
@@ -3245,10 +3318,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="0">
         <v>160.59</v>
@@ -3259,10 +3332,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="0">
         <v>154.05</v>
@@ -3271,8 +3344,22 @@
         <v>25</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="0">
+        <v>152.08</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D22"/>
+  <autoFilter ref="A1:D23"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3280,7 +3367,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3308,10 +3395,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -3322,10 +3409,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -3336,10 +3423,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -3350,10 +3437,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -3364,10 +3451,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -3378,10 +3465,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -3392,10 +3479,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -3406,10 +3493,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -3420,10 +3507,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -3434,10 +3521,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -3448,10 +3535,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="0">
         <v>204.08</v>
@@ -3462,10 +3549,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="0">
         <v>215.33</v>
@@ -3476,10 +3563,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="0">
         <v>225.38</v>
@@ -3490,10 +3577,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="0">
         <v>231</v>
@@ -3504,10 +3591,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="0">
         <v>200.96</v>
@@ -3518,10 +3605,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="0">
         <v>195.88</v>
@@ -3532,10 +3619,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="0">
         <v>194.68</v>
@@ -3546,10 +3633,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="0">
         <v>196.72</v>
@@ -3560,10 +3647,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="0">
         <v>188.61</v>
@@ -3574,10 +3661,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="0">
         <v>190.45</v>
@@ -3588,10 +3675,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="0">
         <v>179.87</v>
@@ -3600,8 +3687,22 @@
         <v>25</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="0">
+        <v>170.4</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D22"/>
+  <autoFilter ref="A1:D23"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3609,7 +3710,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3637,10 +3738,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -3651,10 +3752,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -3665,10 +3766,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -3679,10 +3780,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -3693,10 +3794,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -3707,10 +3808,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -3721,10 +3822,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -3735,10 +3836,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -3749,10 +3850,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -3763,10 +3864,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -3777,10 +3878,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="0">
         <v>20.22</v>
@@ -3791,10 +3892,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="0">
         <v>22.16</v>
@@ -3805,10 +3906,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="0">
         <v>22.34</v>
@@ -3819,10 +3920,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="0">
         <v>22.16</v>
@@ -3833,10 +3934,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="0">
         <v>19.26</v>
@@ -3847,10 +3948,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="0">
         <v>16.96</v>
@@ -3861,10 +3962,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="0">
         <v>16.43</v>
@@ -3875,10 +3976,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="0">
         <v>17.24</v>
@@ -3889,10 +3990,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="0">
         <v>17.51</v>
@@ -3903,10 +4004,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="0">
         <v>17.72</v>
@@ -3917,10 +4018,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="0">
         <v>16.11</v>
@@ -3929,8 +4030,22 @@
         <v>25</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="0">
+        <v>15.64</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D22"/>
+  <autoFilter ref="A1:D23"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$23</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$23</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$23</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$23</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$23</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$23</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$23</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$23</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$23</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$23</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$23</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$23</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$23</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$23</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$23</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$23</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$23</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$23</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$23</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$23</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$23</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$23</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$23</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$23</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$23</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$23</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$23</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$23</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$23</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$23</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$23</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$23</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$24</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$24</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$24</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$24</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$24</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$24</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$24</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$24</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$24</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$24</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$24</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$24</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$24</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$24</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$24</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$24</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$24</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$24</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$24</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$24</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$24</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$24</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$24</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$24</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$24</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$24</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$24</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$24</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$24</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$24</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$24</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$24</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>12/11/2021</t>
+  </si>
+  <si>
+    <t>12/12/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1044,7 +1047,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart3389"/>
+        <xdr:cNvPr id="0" name="ChartFA8C"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1079,7 +1082,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart33E7"/>
+        <xdr:cNvPr id="0" name="ChartFAEA"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1114,7 +1117,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart3417"/>
+        <xdr:cNvPr id="0" name="ChartFB1A"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1149,7 +1152,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart3447"/>
+        <xdr:cNvPr id="0" name="ChartFB4A"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1184,7 +1187,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart3477"/>
+        <xdr:cNvPr id="0" name="ChartFB8A"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1219,7 +1222,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart34A7"/>
+        <xdr:cNvPr id="0" name="ChartFBBA"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1254,7 +1257,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart34D7"/>
+        <xdr:cNvPr id="0" name="ChartFBF9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1289,7 +1292,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart3516"/>
+        <xdr:cNvPr id="0" name="ChartFC29"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1309,7 +1312,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1643,8 +1646,22 @@
         <v>26</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="0">
+        <v>49195</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D23"/>
+  <autoFilter ref="A1:D24"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1652,7 +1669,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1680,10 +1697,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1694,10 +1711,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1708,10 +1725,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1722,10 +1739,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1736,10 +1753,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1750,10 +1767,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1764,10 +1781,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1778,10 +1795,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -1792,10 +1809,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -1806,10 +1823,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -1820,10 +1837,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -1834,10 +1851,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0">
         <v>1.58</v>
@@ -1848,10 +1865,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="0">
         <v>1.54</v>
@@ -1862,10 +1879,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="0">
         <v>1.69</v>
@@ -1876,10 +1893,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="0">
         <v>1.51</v>
@@ -1890,10 +1907,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="0">
         <v>1.39</v>
@@ -1904,10 +1921,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="0">
         <v>1.37</v>
@@ -1918,10 +1935,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="0">
         <v>1.45</v>
@@ -1932,10 +1949,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="0">
         <v>1.37</v>
@@ -1946,10 +1963,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="0">
         <v>1.37</v>
@@ -1960,10 +1977,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" s="0">
         <v>1.31</v>
@@ -1974,10 +1991,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="0">
         <v>1.24</v>
@@ -1986,8 +2003,22 @@
         <v>26</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="0">
+        <v>1.37</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D23"/>
+  <autoFilter ref="A1:D24"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1995,7 +2026,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2023,10 +2054,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -2037,10 +2068,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -2051,10 +2082,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -2065,10 +2096,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -2079,10 +2110,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -2093,10 +2124,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -2107,10 +2138,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -2121,10 +2152,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -2135,10 +2166,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -2149,10 +2180,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -2163,10 +2194,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -2177,10 +2208,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="0">
         <v>26.02</v>
@@ -2191,10 +2222,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="0">
         <v>24.67</v>
@@ -2205,10 +2236,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0">
         <v>24.6</v>
@@ -2219,10 +2250,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="0">
         <v>22.29</v>
@@ -2233,10 +2264,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="0">
         <v>20.11</v>
@@ -2247,10 +2278,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="0">
         <v>19.19</v>
@@ -2261,10 +2292,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="0">
         <v>20.1</v>
@@ -2275,10 +2306,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="0">
         <v>21.85</v>
@@ -2289,10 +2320,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" s="0">
         <v>21.81</v>
@@ -2303,10 +2334,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" s="0">
         <v>20.19</v>
@@ -2317,10 +2348,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="0">
         <v>19.09</v>
@@ -2329,8 +2360,22 @@
         <v>26</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="0">
+        <v>19.63</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D23"/>
+  <autoFilter ref="A1:D24"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2338,7 +2383,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2366,10 +2411,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -2380,10 +2425,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -2394,10 +2439,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -2408,10 +2453,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -2422,10 +2467,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -2436,10 +2481,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -2450,10 +2495,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -2464,10 +2509,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -2478,10 +2523,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -2492,10 +2537,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -2506,10 +2551,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -2520,10 +2565,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="0">
         <v>0.215267</v>
@@ -2534,10 +2579,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="0">
         <v>0.204968</v>
@@ -2548,10 +2593,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="0">
         <v>0.20861</v>
@@ -2562,10 +2607,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="0">
         <v>0.192745</v>
@@ -2576,10 +2621,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0">
         <v>0.177181</v>
@@ -2590,10 +2635,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="0">
         <v>0.171993</v>
@@ -2604,10 +2649,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="0">
         <v>0.180834</v>
@@ -2618,10 +2663,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="0">
         <v>0.177974</v>
@@ -2632,10 +2677,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="0">
         <v>0.177815</v>
@@ -2646,10 +2691,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="0">
         <v>0.171574</v>
@@ -2660,10 +2705,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" s="0">
         <v>0.165586</v>
@@ -2672,8 +2717,22 @@
         <v>26</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="0">
+        <v>0.168042</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D23"/>
+  <autoFilter ref="A1:D24"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2681,7 +2740,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2709,10 +2768,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -2723,10 +2782,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -2737,10 +2796,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -2751,10 +2810,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -2765,10 +2824,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -2779,10 +2838,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -2793,10 +2852,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -2807,10 +2866,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -2821,10 +2880,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -2835,10 +2894,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -2849,10 +2908,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -2863,10 +2922,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="0">
         <v>4746.42</v>
@@ -2877,10 +2936,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="0">
         <v>4518.21</v>
@@ -2891,10 +2950,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="0">
         <v>4524.56</v>
@@ -2905,10 +2964,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="0">
         <v>4109</v>
@@ -2919,10 +2978,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="0">
         <v>4162.25</v>
@@ -2933,10 +2992,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="0">
         <v>4184.03</v>
@@ -2947,10 +3006,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="0">
         <v>4367.46</v>
@@ -2961,10 +3020,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="0">
         <v>4331.56</v>
@@ -2975,10 +3034,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="0">
         <v>4382.01</v>
@@ -2989,10 +3048,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="0">
         <v>4154.05</v>
@@ -3003,10 +3062,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="0">
         <v>4032.48</v>
@@ -3015,8 +3074,22 @@
         <v>26</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="0">
+        <v>4038.87</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D23"/>
+  <autoFilter ref="A1:D24"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3024,7 +3097,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3052,10 +3125,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -3066,10 +3139,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -3080,10 +3153,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -3094,10 +3167,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -3108,10 +3181,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -3122,10 +3195,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -3136,10 +3209,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -3150,10 +3223,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -3164,10 +3237,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -3178,10 +3251,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -3192,10 +3265,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -3206,10 +3279,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="0">
         <v>211.61</v>
@@ -3220,10 +3293,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="0">
         <v>203.23</v>
@@ -3234,10 +3307,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="0">
         <v>201.01</v>
@@ -3248,10 +3321,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="0">
         <v>181.01</v>
@@ -3262,10 +3335,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="0">
         <v>160.26</v>
@@ -3276,10 +3349,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="0">
         <v>155.14</v>
@@ -3290,10 +3363,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="0">
         <v>160.95</v>
@@ -3304,10 +3377,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="0">
         <v>161.57</v>
@@ -3318,10 +3391,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0">
         <v>160.59</v>
@@ -3332,10 +3405,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="0">
         <v>154.05</v>
@@ -3346,10 +3419,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="0">
         <v>152.08</v>
@@ -3358,8 +3431,22 @@
         <v>26</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="0">
+        <v>155.74</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D23"/>
+  <autoFilter ref="A1:D24"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3367,7 +3454,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3395,10 +3482,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -3409,10 +3496,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -3423,10 +3510,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -3437,10 +3524,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -3451,10 +3538,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -3465,10 +3552,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -3479,10 +3566,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -3493,10 +3580,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -3507,10 +3594,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -3521,10 +3608,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -3535,10 +3622,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="0">
         <v>204.08</v>
@@ -3549,10 +3636,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="0">
         <v>215.33</v>
@@ -3563,10 +3650,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="0">
         <v>225.38</v>
@@ -3577,10 +3664,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="0">
         <v>231</v>
@@ -3591,10 +3678,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="0">
         <v>200.96</v>
@@ -3605,10 +3692,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="0">
         <v>195.88</v>
@@ -3619,10 +3706,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="0">
         <v>194.68</v>
@@ -3633,10 +3720,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="0">
         <v>196.72</v>
@@ -3647,10 +3734,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="0">
         <v>188.61</v>
@@ -3661,10 +3748,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="0">
         <v>190.45</v>
@@ -3675,10 +3762,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="0">
         <v>179.87</v>
@@ -3689,10 +3776,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="0">
         <v>170.4</v>
@@ -3701,8 +3788,22 @@
         <v>26</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="0">
+        <v>168.93</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D23"/>
+  <autoFilter ref="A1:D24"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3710,7 +3811,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3738,10 +3839,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -3752,10 +3853,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -3766,10 +3867,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -3780,10 +3881,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -3794,10 +3895,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -3808,10 +3909,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -3822,10 +3923,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -3836,10 +3937,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -3850,10 +3951,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -3864,10 +3965,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -3878,10 +3979,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="0">
         <v>20.22</v>
@@ -3892,10 +3993,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="0">
         <v>22.16</v>
@@ -3906,10 +4007,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="0">
         <v>22.34</v>
@@ -3920,10 +4021,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="0">
         <v>22.16</v>
@@ -3934,10 +4035,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="0">
         <v>19.26</v>
@@ -3948,10 +4049,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="0">
         <v>16.96</v>
@@ -3962,10 +4063,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="0">
         <v>16.43</v>
@@ -3976,10 +4077,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="0">
         <v>17.24</v>
@@ -3990,10 +4091,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="0">
         <v>17.51</v>
@@ -4004,10 +4105,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="0">
         <v>17.72</v>
@@ -4018,10 +4119,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="0">
         <v>16.11</v>
@@ -4032,10 +4133,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="0">
         <v>15.64</v>
@@ -4044,8 +4145,22 @@
         <v>26</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="0">
+        <v>15.67</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D23"/>
+  <autoFilter ref="A1:D24"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$24</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$24</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$24</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$24</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$24</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$24</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$24</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$24</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$24</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$24</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$24</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$24</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$24</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$24</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$24</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$24</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$24</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$24</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$24</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$24</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$24</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$24</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$24</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$24</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$24</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$24</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$24</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$24</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$24</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$24</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$24</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$24</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$25</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$25</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$25</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$25</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$25</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$25</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$25</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$25</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$25</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$25</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$25</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$25</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$25</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$25</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$25</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$25</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$25</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$25</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$25</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$25</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$25</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$25</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$25</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$25</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$25</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$25</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$25</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$25</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$25</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$25</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$25</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$25</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>12/12/2021</t>
+  </si>
+  <si>
+    <t>12/13/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1047,7 +1050,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartFA8C"/>
+        <xdr:cNvPr id="0" name="ChartD7CB"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1082,7 +1085,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartFAEA"/>
+        <xdr:cNvPr id="0" name="ChartD81A"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1117,7 +1120,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartFB1A"/>
+        <xdr:cNvPr id="0" name="ChartD84A"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1152,7 +1155,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartFB4A"/>
+        <xdr:cNvPr id="0" name="ChartD889"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1187,7 +1190,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartFB8A"/>
+        <xdr:cNvPr id="0" name="ChartD8AA"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1222,7 +1225,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartFBBA"/>
+        <xdr:cNvPr id="0" name="ChartD8D9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1257,7 +1260,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartFBF9"/>
+        <xdr:cNvPr id="0" name="ChartD919"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1292,7 +1295,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartFC29"/>
+        <xdr:cNvPr id="0" name="ChartD949"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1312,7 +1315,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1660,8 +1663,22 @@
         <v>27</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="0">
+        <v>48883</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D24"/>
+  <autoFilter ref="A1:D25"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1669,7 +1686,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1697,10 +1714,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1711,10 +1728,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1725,10 +1742,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1739,10 +1756,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1753,10 +1770,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1767,10 +1784,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1781,10 +1798,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1795,10 +1812,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -1809,10 +1826,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -1823,10 +1840,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -1837,10 +1854,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -1851,10 +1868,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="0">
         <v>1.58</v>
@@ -1865,10 +1882,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0">
         <v>1.54</v>
@@ -1879,10 +1896,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="0">
         <v>1.69</v>
@@ -1893,10 +1910,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="0">
         <v>1.51</v>
@@ -1907,10 +1924,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="0">
         <v>1.39</v>
@@ -1921,10 +1938,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="0">
         <v>1.37</v>
@@ -1935,10 +1952,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="0">
         <v>1.45</v>
@@ -1949,10 +1966,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="0">
         <v>1.37</v>
@@ -1963,10 +1980,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="0">
         <v>1.37</v>
@@ -1977,10 +1994,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="0">
         <v>1.31</v>
@@ -1991,10 +2008,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" s="0">
         <v>1.24</v>
@@ -2005,10 +2022,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="0">
         <v>1.37</v>
@@ -2017,8 +2034,22 @@
         <v>27</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="0">
+        <v>1.31</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D24"/>
+  <autoFilter ref="A1:D25"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2026,7 +2057,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2054,10 +2085,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -2068,10 +2099,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -2082,10 +2113,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -2096,10 +2127,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -2110,10 +2141,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -2124,10 +2155,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -2138,10 +2169,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -2152,10 +2183,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -2166,10 +2197,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -2180,10 +2211,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -2194,10 +2225,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -2208,10 +2239,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="0">
         <v>26.02</v>
@@ -2222,10 +2253,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="0">
         <v>24.67</v>
@@ -2236,10 +2267,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="0">
         <v>24.6</v>
@@ -2250,10 +2281,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0">
         <v>22.29</v>
@@ -2264,10 +2295,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="0">
         <v>20.11</v>
@@ -2278,10 +2309,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="0">
         <v>19.19</v>
@@ -2292,10 +2323,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="0">
         <v>20.1</v>
@@ -2306,10 +2337,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="0">
         <v>21.85</v>
@@ -2320,10 +2351,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="0">
         <v>21.81</v>
@@ -2334,10 +2365,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="0">
         <v>20.19</v>
@@ -2348,10 +2379,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="0">
         <v>19.09</v>
@@ -2362,10 +2393,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" s="0">
         <v>19.63</v>
@@ -2374,8 +2405,22 @@
         <v>27</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="0">
+        <v>19.55</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D24"/>
+  <autoFilter ref="A1:D25"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2383,7 +2428,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2411,10 +2456,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -2425,10 +2470,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -2439,10 +2484,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -2453,10 +2498,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -2467,10 +2512,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -2481,10 +2526,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -2495,10 +2540,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -2509,10 +2554,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -2523,10 +2568,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -2537,10 +2582,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -2551,10 +2596,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -2565,10 +2610,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="0">
         <v>0.215267</v>
@@ -2579,10 +2624,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="0">
         <v>0.204968</v>
@@ -2593,10 +2638,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="0">
         <v>0.20861</v>
@@ -2607,10 +2652,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="0">
         <v>0.192745</v>
@@ -2621,10 +2666,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="0">
         <v>0.177181</v>
@@ -2635,10 +2680,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0">
         <v>0.171993</v>
@@ -2649,10 +2694,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="0">
         <v>0.180834</v>
@@ -2663,10 +2708,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="0">
         <v>0.177974</v>
@@ -2677,10 +2722,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="0">
         <v>0.177815</v>
@@ -2691,10 +2736,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="0">
         <v>0.171574</v>
@@ -2705,10 +2750,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" s="0">
         <v>0.165586</v>
@@ -2719,10 +2764,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="0">
         <v>0.168042</v>
@@ -2731,8 +2776,22 @@
         <v>27</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="0">
+        <v>0.165679</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D24"/>
+  <autoFilter ref="A1:D25"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2740,7 +2799,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2768,10 +2827,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -2782,10 +2841,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -2796,10 +2855,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -2810,10 +2869,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -2824,10 +2883,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -2838,10 +2897,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -2852,10 +2911,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -2866,10 +2925,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -2880,10 +2939,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -2894,10 +2953,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -2908,10 +2967,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -2922,10 +2981,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="0">
         <v>4746.42</v>
@@ -2936,10 +2995,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="0">
         <v>4518.21</v>
@@ -2950,10 +3009,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="0">
         <v>4524.56</v>
@@ -2964,10 +3023,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="0">
         <v>4109</v>
@@ -2978,10 +3037,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="0">
         <v>4162.25</v>
@@ -2992,10 +3051,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="0">
         <v>4184.03</v>
@@ -3006,10 +3065,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="0">
         <v>4367.46</v>
@@ -3020,10 +3079,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0">
         <v>4331.56</v>
@@ -3034,10 +3093,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="0">
         <v>4382.01</v>
@@ -3048,10 +3107,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="0">
         <v>4154.05</v>
@@ -3062,10 +3121,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="0">
         <v>4032.48</v>
@@ -3076,10 +3135,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="0">
         <v>4038.87</v>
@@ -3088,8 +3147,22 @@
         <v>27</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="0">
+        <v>4005.24</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D24"/>
+  <autoFilter ref="A1:D25"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3097,7 +3170,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3125,10 +3198,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -3139,10 +3212,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -3153,10 +3226,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -3167,10 +3240,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -3181,10 +3254,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -3195,10 +3268,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -3209,10 +3282,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -3223,10 +3296,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -3237,10 +3310,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -3251,10 +3324,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -3265,10 +3338,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -3279,10 +3352,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="0">
         <v>211.61</v>
@@ -3293,10 +3366,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="0">
         <v>203.23</v>
@@ -3307,10 +3380,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="0">
         <v>201.01</v>
@@ -3321,10 +3394,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="0">
         <v>181.01</v>
@@ -3335,10 +3408,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="0">
         <v>160.26</v>
@@ -3349,10 +3422,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="0">
         <v>155.14</v>
@@ -3363,10 +3436,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="0">
         <v>160.95</v>
@@ -3377,10 +3450,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="0">
         <v>161.57</v>
@@ -3391,10 +3464,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="0">
         <v>160.59</v>
@@ -3405,10 +3478,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="0">
         <v>154.05</v>
@@ -3419,10 +3492,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="0">
         <v>152.08</v>
@@ -3433,10 +3506,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="0">
         <v>155.74</v>
@@ -3445,8 +3518,22 @@
         <v>27</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="0">
+        <v>154</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D24"/>
+  <autoFilter ref="A1:D25"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3454,7 +3541,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3482,10 +3569,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -3496,10 +3583,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -3510,10 +3597,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -3524,10 +3611,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -3538,10 +3625,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -3552,10 +3639,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -3566,10 +3653,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -3580,10 +3667,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -3594,10 +3681,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -3608,10 +3695,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -3622,10 +3709,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="0">
         <v>204.08</v>
@@ -3636,10 +3723,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="0">
         <v>215.33</v>
@@ -3650,10 +3737,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="0">
         <v>225.38</v>
@@ -3664,10 +3751,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="0">
         <v>231</v>
@@ -3678,10 +3765,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="0">
         <v>200.96</v>
@@ -3692,10 +3779,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="0">
         <v>195.88</v>
@@ -3706,10 +3793,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="0">
         <v>194.68</v>
@@ -3720,10 +3807,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="0">
         <v>196.72</v>
@@ -3734,10 +3821,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="0">
         <v>188.61</v>
@@ -3748,10 +3835,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="0">
         <v>190.45</v>
@@ -3762,10 +3849,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="0">
         <v>179.87</v>
@@ -3776,10 +3863,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="0">
         <v>170.4</v>
@@ -3790,10 +3877,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="0">
         <v>168.93</v>
@@ -3802,8 +3889,22 @@
         <v>27</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="0">
+        <v>167.2</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D24"/>
+  <autoFilter ref="A1:D25"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3811,7 +3912,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3839,10 +3940,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -3853,10 +3954,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -3867,10 +3968,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -3881,10 +3982,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -3895,10 +3996,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -3909,10 +4010,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -3923,10 +4024,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -3937,10 +4038,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -3951,10 +4052,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -3965,10 +4066,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -3979,10 +4080,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="0">
         <v>20.22</v>
@@ -3993,10 +4094,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="0">
         <v>22.16</v>
@@ -4007,10 +4108,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="0">
         <v>22.34</v>
@@ -4021,10 +4122,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="0">
         <v>22.16</v>
@@ -4035,10 +4136,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="0">
         <v>19.26</v>
@@ -4049,10 +4150,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="0">
         <v>16.96</v>
@@ -4063,10 +4164,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="0">
         <v>16.43</v>
@@ -4077,10 +4178,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="0">
         <v>17.24</v>
@@ -4091,10 +4192,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="0">
         <v>17.51</v>
@@ -4105,10 +4206,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="0">
         <v>17.72</v>
@@ -4119,10 +4220,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" s="0">
         <v>16.11</v>
@@ -4133,10 +4234,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="0">
         <v>15.64</v>
@@ -4147,10 +4248,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="0">
         <v>15.67</v>
@@ -4159,8 +4260,22 @@
         <v>27</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="0">
+        <v>15.41</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D24"/>
+  <autoFilter ref="A1:D25"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$25</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$25</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$25</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$25</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$25</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$25</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$25</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$25</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$25</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$25</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$25</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$25</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$25</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$25</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$25</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$25</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$25</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$25</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$25</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$25</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$25</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$25</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$25</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$25</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$25</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$25</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$25</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$25</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$25</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$25</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$25</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$25</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$26</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$26</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$26</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$26</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$26</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$26</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$26</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$26</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$26</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$26</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$26</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$26</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$26</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$26</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$26</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$26</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$26</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$26</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$26</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$26</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$26</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$26</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$26</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$26</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$26</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$26</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$26</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$26</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$26</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$26</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$26</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$26</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>12/13/2021</t>
+  </si>
+  <si>
+    <t>12/14/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1050,7 +1053,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartD7CB"/>
+        <xdr:cNvPr id="0" name="Chart38A4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1085,7 +1088,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartD81A"/>
+        <xdr:cNvPr id="0" name="Chart3903"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1120,7 +1123,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartD84A"/>
+        <xdr:cNvPr id="0" name="Chart3933"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1155,7 +1158,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartD889"/>
+        <xdr:cNvPr id="0" name="Chart3953"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1190,7 +1193,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartD8AA"/>
+        <xdr:cNvPr id="0" name="Chart3983"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1225,7 +1228,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartD8D9"/>
+        <xdr:cNvPr id="0" name="Chart39B3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1260,7 +1263,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartD919"/>
+        <xdr:cNvPr id="0" name="Chart39E3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1295,7 +1298,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartD949"/>
+        <xdr:cNvPr id="0" name="Chart3A13"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1315,7 +1318,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1677,8 +1680,22 @@
         <v>28</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="0">
+        <v>47167</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D25"/>
+  <autoFilter ref="A1:D26"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1686,7 +1703,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1714,10 +1731,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1728,10 +1745,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1742,10 +1759,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1756,10 +1773,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1770,10 +1787,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1784,10 +1801,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1798,10 +1815,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1812,10 +1829,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -1826,10 +1843,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -1840,10 +1857,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -1854,10 +1871,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -1868,10 +1885,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="0">
         <v>1.58</v>
@@ -1882,10 +1899,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="0">
         <v>1.54</v>
@@ -1896,10 +1913,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0">
         <v>1.69</v>
@@ -1910,10 +1927,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="0">
         <v>1.51</v>
@@ -1924,10 +1941,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="0">
         <v>1.39</v>
@@ -1938,10 +1955,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="0">
         <v>1.37</v>
@@ -1952,10 +1969,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="0">
         <v>1.45</v>
@@ -1966,10 +1983,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="0">
         <v>1.37</v>
@@ -1980,10 +1997,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" s="0">
         <v>1.37</v>
@@ -1994,10 +2011,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" s="0">
         <v>1.31</v>
@@ -2008,10 +2025,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="0">
         <v>1.24</v>
@@ -2022,10 +2039,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" s="0">
         <v>1.37</v>
@@ -2036,10 +2053,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" s="0">
         <v>1.31</v>
@@ -2048,8 +2065,22 @@
         <v>28</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="0">
+        <v>1.22</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D25"/>
+  <autoFilter ref="A1:D26"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2057,7 +2088,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2085,10 +2116,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -2099,10 +2130,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -2113,10 +2144,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -2127,10 +2158,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -2141,10 +2172,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -2155,10 +2186,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -2169,10 +2200,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -2183,10 +2214,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -2197,10 +2228,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -2211,10 +2242,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -2225,10 +2256,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -2239,10 +2270,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="0">
         <v>26.02</v>
@@ -2253,10 +2284,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="0">
         <v>24.67</v>
@@ -2267,10 +2298,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="0">
         <v>24.6</v>
@@ -2281,10 +2312,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="0">
         <v>22.29</v>
@@ -2295,10 +2326,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0">
         <v>20.11</v>
@@ -2309,10 +2340,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="0">
         <v>19.19</v>
@@ -2323,10 +2354,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="0">
         <v>20.1</v>
@@ -2337,10 +2368,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="0">
         <v>21.85</v>
@@ -2351,10 +2382,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="0">
         <v>21.81</v>
@@ -2365,10 +2396,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="0">
         <v>20.19</v>
@@ -2379,10 +2410,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" s="0">
         <v>19.09</v>
@@ -2393,10 +2424,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" s="0">
         <v>19.63</v>
@@ -2407,10 +2438,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="0">
         <v>19.55</v>
@@ -2419,8 +2450,22 @@
         <v>28</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="0">
+        <v>17.96</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D25"/>
+  <autoFilter ref="A1:D26"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2428,7 +2473,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2456,10 +2501,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -2470,10 +2515,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -2484,10 +2529,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -2498,10 +2543,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -2512,10 +2557,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -2526,10 +2571,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -2540,10 +2585,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -2554,10 +2599,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -2568,10 +2613,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -2582,10 +2627,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -2596,10 +2641,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -2610,10 +2655,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="0">
         <v>0.215267</v>
@@ -2624,10 +2669,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="0">
         <v>0.204968</v>
@@ -2638,10 +2683,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="0">
         <v>0.20861</v>
@@ -2652,10 +2697,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="0">
         <v>0.192745</v>
@@ -2666,10 +2711,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="0">
         <v>0.177181</v>
@@ -2680,10 +2725,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="0">
         <v>0.171993</v>
@@ -2694,10 +2739,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="0">
         <v>0.180834</v>
@@ -2708,10 +2753,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="0">
         <v>0.177974</v>
@@ -2722,10 +2767,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="0">
         <v>0.177815</v>
@@ -2736,10 +2781,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="0">
         <v>0.171574</v>
@@ -2750,10 +2795,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="0">
         <v>0.165586</v>
@@ -2764,10 +2809,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" s="0">
         <v>0.168042</v>
@@ -2778,10 +2823,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="0">
         <v>0.165679</v>
@@ -2790,8 +2835,22 @@
         <v>28</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="0">
+        <v>0.158598</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D25"/>
+  <autoFilter ref="A1:D26"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2799,7 +2858,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2827,10 +2886,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -2841,10 +2900,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -2855,10 +2914,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -2869,10 +2928,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -2883,10 +2942,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -2897,10 +2956,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -2911,10 +2970,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -2925,10 +2984,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -2939,10 +2998,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -2953,10 +3012,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -2967,10 +3026,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -2981,10 +3040,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="0">
         <v>4746.42</v>
@@ -2995,10 +3054,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="0">
         <v>4518.21</v>
@@ -3009,10 +3068,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="0">
         <v>4524.56</v>
@@ -3023,10 +3082,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="0">
         <v>4109</v>
@@ -3037,10 +3096,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="0">
         <v>4162.25</v>
@@ -3051,10 +3110,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="0">
         <v>4184.03</v>
@@ -3065,10 +3124,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="0">
         <v>4367.46</v>
@@ -3079,10 +3138,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="0">
         <v>4331.56</v>
@@ -3093,10 +3152,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0">
         <v>4382.01</v>
@@ -3107,10 +3166,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="0">
         <v>4154.05</v>
@@ -3121,10 +3180,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="0">
         <v>4032.48</v>
@@ -3135,10 +3194,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="0">
         <v>4038.87</v>
@@ -3149,10 +3208,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="0">
         <v>4005.24</v>
@@ -3161,8 +3220,22 @@
         <v>28</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="0">
+        <v>3794.29</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D25"/>
+  <autoFilter ref="A1:D26"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3170,7 +3243,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3198,10 +3271,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -3212,10 +3285,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -3226,10 +3299,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -3240,10 +3313,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -3254,10 +3327,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -3268,10 +3341,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -3282,10 +3355,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -3296,10 +3369,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -3310,10 +3383,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -3324,10 +3397,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -3338,10 +3411,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -3352,10 +3425,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="0">
         <v>211.61</v>
@@ -3366,10 +3439,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="0">
         <v>203.23</v>
@@ -3380,10 +3453,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="0">
         <v>201.01</v>
@@ -3394,10 +3467,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="0">
         <v>181.01</v>
@@ -3408,10 +3481,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="0">
         <v>160.26</v>
@@ -3422,10 +3495,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="0">
         <v>155.14</v>
@@ -3436,10 +3509,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="0">
         <v>160.95</v>
@@ -3450,10 +3523,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="0">
         <v>161.57</v>
@@ -3464,10 +3537,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="0">
         <v>160.59</v>
@@ -3478,10 +3551,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="0">
         <v>154.05</v>
@@ -3492,10 +3565,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="0">
         <v>152.08</v>
@@ -3506,10 +3579,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="0">
         <v>155.74</v>
@@ -3520,10 +3593,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="0">
         <v>154</v>
@@ -3532,8 +3605,22 @@
         <v>28</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="0">
+        <v>145.92</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D25"/>
+  <autoFilter ref="A1:D26"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3541,7 +3628,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3569,10 +3656,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -3583,10 +3670,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -3597,10 +3684,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -3611,10 +3698,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -3625,10 +3712,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -3639,10 +3726,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -3653,10 +3740,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -3667,10 +3754,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -3681,10 +3768,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -3695,10 +3782,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -3709,10 +3796,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="0">
         <v>204.08</v>
@@ -3723,10 +3810,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="0">
         <v>215.33</v>
@@ -3737,10 +3824,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="0">
         <v>225.38</v>
@@ -3751,10 +3838,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="0">
         <v>231</v>
@@ -3765,10 +3852,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="0">
         <v>200.96</v>
@@ -3779,10 +3866,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="0">
         <v>195.88</v>
@@ -3793,10 +3880,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="0">
         <v>194.68</v>
@@ -3807,10 +3894,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="0">
         <v>196.72</v>
@@ -3821,10 +3908,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="0">
         <v>188.61</v>
@@ -3835,10 +3922,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="0">
         <v>190.45</v>
@@ -3849,10 +3936,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="0">
         <v>179.87</v>
@@ -3863,10 +3950,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="0">
         <v>170.4</v>
@@ -3877,10 +3964,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="0">
         <v>168.93</v>
@@ -3891,10 +3978,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="0">
         <v>167.2</v>
@@ -3903,8 +3990,22 @@
         <v>28</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="0">
+        <v>154.34</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D25"/>
+  <autoFilter ref="A1:D26"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3912,7 +4013,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3940,10 +4041,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -3954,10 +4055,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -3968,10 +4069,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -3982,10 +4083,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -3996,10 +4097,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -4010,10 +4111,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -4024,10 +4125,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -4038,10 +4139,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -4052,10 +4153,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -4066,10 +4167,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -4080,10 +4181,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="0">
         <v>20.22</v>
@@ -4094,10 +4195,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="0">
         <v>22.16</v>
@@ -4108,10 +4209,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="0">
         <v>22.34</v>
@@ -4122,10 +4223,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="0">
         <v>22.16</v>
@@ -4136,10 +4237,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="0">
         <v>19.26</v>
@@ -4150,10 +4251,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="0">
         <v>16.96</v>
@@ -4164,10 +4265,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="0">
         <v>16.43</v>
@@ -4178,10 +4279,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="0">
         <v>17.24</v>
@@ -4192,10 +4293,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="0">
         <v>17.51</v>
@@ -4206,10 +4307,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="0">
         <v>17.72</v>
@@ -4220,10 +4321,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="0">
         <v>16.11</v>
@@ -4234,10 +4335,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" s="0">
         <v>15.64</v>
@@ -4248,10 +4349,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" s="0">
         <v>15.67</v>
@@ -4262,10 +4363,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="0">
         <v>15.41</v>
@@ -4274,8 +4375,22 @@
         <v>28</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="0">
+        <v>14.24</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D25"/>
+  <autoFilter ref="A1:D26"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$26</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$26</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$26</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$26</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$26</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$26</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$26</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$26</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$26</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$26</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$26</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$26</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$26</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$26</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$26</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$26</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$26</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$26</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$26</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$26</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$26</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$26</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$26</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$26</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$26</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$26</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$26</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$26</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$26</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$26</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$26</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$26</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$27</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$27</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$27</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$27</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$27</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$27</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$27</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$27</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$27</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$27</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$27</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$27</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$27</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$27</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$27</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$27</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$27</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$27</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$27</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$27</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$27</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$27</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$27</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$27</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$27</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$27</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$27</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$27</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$27</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$27</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$27</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$27</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>12/14/2021</t>
+  </si>
+  <si>
+    <t>12/15/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1053,7 +1056,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart38A4"/>
+        <xdr:cNvPr id="0" name="ChartD268"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1088,7 +1091,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart3903"/>
+        <xdr:cNvPr id="0" name="ChartD382"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1123,7 +1126,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart3933"/>
+        <xdr:cNvPr id="0" name="ChartD3E1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1158,7 +1161,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart3953"/>
+        <xdr:cNvPr id="0" name="ChartD44F"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1193,7 +1196,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart3983"/>
+        <xdr:cNvPr id="0" name="ChartD49E"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1228,7 +1231,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart39B3"/>
+        <xdr:cNvPr id="0" name="ChartD55B"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1263,7 +1266,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart39E3"/>
+        <xdr:cNvPr id="0" name="ChartD5C9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1298,7 +1301,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart3A13"/>
+        <xdr:cNvPr id="0" name="ChartD628"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1318,7 +1321,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1694,8 +1697,22 @@
         <v>29</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="0">
+        <v>48305</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D26"/>
+  <autoFilter ref="A1:D27"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1703,7 +1720,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1731,10 +1748,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1745,10 +1762,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1759,10 +1776,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1773,10 +1790,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1787,10 +1804,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1801,10 +1818,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1815,10 +1832,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1829,10 +1846,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -1843,10 +1860,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -1857,10 +1874,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -1871,10 +1888,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -1885,10 +1902,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="0">
         <v>1.58</v>
@@ -1899,10 +1916,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="0">
         <v>1.54</v>
@@ -1913,10 +1930,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="0">
         <v>1.69</v>
@@ -1927,10 +1944,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0">
         <v>1.51</v>
@@ -1941,10 +1958,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="0">
         <v>1.39</v>
@@ -1955,10 +1972,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="0">
         <v>1.37</v>
@@ -1969,10 +1986,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="0">
         <v>1.45</v>
@@ -1983,10 +2000,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="0">
         <v>1.37</v>
@@ -1997,10 +2014,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="0">
         <v>1.37</v>
@@ -2011,10 +2028,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="0">
         <v>1.31</v>
@@ -2025,10 +2042,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="0">
         <v>1.24</v>
@@ -2039,10 +2056,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" s="0">
         <v>1.37</v>
@@ -2053,10 +2070,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" s="0">
         <v>1.31</v>
@@ -2067,10 +2084,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" s="0">
         <v>1.22</v>
@@ -2079,8 +2096,22 @@
         <v>29</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="0">
+        <v>1.25</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D26"/>
+  <autoFilter ref="A1:D27"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2088,7 +2119,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2116,10 +2147,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -2130,10 +2161,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -2144,10 +2175,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -2158,10 +2189,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -2172,10 +2203,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -2186,10 +2217,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -2200,10 +2231,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -2214,10 +2245,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -2228,10 +2259,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -2242,10 +2273,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -2256,10 +2287,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -2270,10 +2301,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="0">
         <v>26.02</v>
@@ -2284,10 +2315,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="0">
         <v>24.67</v>
@@ -2298,10 +2329,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="0">
         <v>24.6</v>
@@ -2312,10 +2343,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="0">
         <v>22.29</v>
@@ -2326,10 +2357,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="0">
         <v>20.11</v>
@@ -2340,10 +2371,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0">
         <v>19.19</v>
@@ -2354,10 +2385,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="0">
         <v>20.1</v>
@@ -2368,10 +2399,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="0">
         <v>21.85</v>
@@ -2382,10 +2413,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="0">
         <v>21.81</v>
@@ -2396,10 +2427,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="0">
         <v>20.19</v>
@@ -2410,10 +2441,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" s="0">
         <v>19.09</v>
@@ -2424,10 +2455,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="0">
         <v>19.63</v>
@@ -2438,10 +2469,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="0">
         <v>19.55</v>
@@ -2452,10 +2483,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="0">
         <v>17.96</v>
@@ -2464,8 +2495,22 @@
         <v>29</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="0">
+        <v>18.29</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D26"/>
+  <autoFilter ref="A1:D27"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2473,7 +2518,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2501,10 +2546,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -2515,10 +2560,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -2529,10 +2574,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -2543,10 +2588,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -2557,10 +2602,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -2571,10 +2616,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -2585,10 +2630,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -2599,10 +2644,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -2613,10 +2658,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -2627,10 +2672,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -2641,10 +2686,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -2655,10 +2700,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="0">
         <v>0.215267</v>
@@ -2669,10 +2714,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="0">
         <v>0.204968</v>
@@ -2683,10 +2728,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="0">
         <v>0.20861</v>
@@ -2697,10 +2742,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="0">
         <v>0.192745</v>
@@ -2711,10 +2756,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="0">
         <v>0.177181</v>
@@ -2725,10 +2770,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="0">
         <v>0.171993</v>
@@ -2739,10 +2784,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="0">
         <v>0.180834</v>
@@ -2753,10 +2798,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0">
         <v>0.177974</v>
@@ -2767,10 +2812,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="0">
         <v>0.177815</v>
@@ -2781,10 +2826,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="0">
         <v>0.171574</v>
@@ -2795,10 +2840,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="0">
         <v>0.165586</v>
@@ -2809,10 +2854,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="0">
         <v>0.168042</v>
@@ -2823,10 +2868,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="0">
         <v>0.165679</v>
@@ -2837,10 +2882,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" s="0">
         <v>0.158598</v>
@@ -2849,8 +2894,22 @@
         <v>29</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="0">
+        <v>0.181898</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D26"/>
+  <autoFilter ref="A1:D27"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2858,7 +2917,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2886,10 +2945,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -2900,10 +2959,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -2914,10 +2973,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -2928,10 +2987,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -2942,10 +3001,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -2956,10 +3015,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -2970,10 +3029,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -2984,10 +3043,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -2998,10 +3057,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -3012,10 +3071,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -3026,10 +3085,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -3040,10 +3099,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="0">
         <v>4746.42</v>
@@ -3054,10 +3113,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="0">
         <v>4518.21</v>
@@ -3068,10 +3127,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="0">
         <v>4524.56</v>
@@ -3082,10 +3141,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="0">
         <v>4109</v>
@@ -3096,10 +3155,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="0">
         <v>4162.25</v>
@@ -3110,10 +3169,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="0">
         <v>4184.03</v>
@@ -3124,10 +3183,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="0">
         <v>4367.46</v>
@@ -3138,10 +3197,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="0">
         <v>4331.56</v>
@@ -3152,10 +3211,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="0">
         <v>4382.01</v>
@@ -3166,10 +3225,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="0">
         <v>4154.05</v>
@@ -3180,10 +3239,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="0">
         <v>4032.48</v>
@@ -3194,10 +3253,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="0">
         <v>4038.87</v>
@@ -3208,10 +3267,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="0">
         <v>4005.24</v>
@@ -3222,10 +3281,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" s="0">
         <v>3794.29</v>
@@ -3234,8 +3293,22 @@
         <v>29</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="0">
+        <v>3849.59</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D26"/>
+  <autoFilter ref="A1:D27"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3243,7 +3316,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3271,10 +3344,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -3285,10 +3358,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -3299,10 +3372,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -3313,10 +3386,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -3327,10 +3400,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -3341,10 +3414,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -3355,10 +3428,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -3369,10 +3442,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -3383,10 +3456,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -3397,10 +3470,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -3411,10 +3484,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -3425,10 +3498,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="0">
         <v>211.61</v>
@@ -3439,10 +3512,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="0">
         <v>203.23</v>
@@ -3453,10 +3526,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="0">
         <v>201.01</v>
@@ -3467,10 +3540,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="0">
         <v>181.01</v>
@@ -3481,10 +3554,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="0">
         <v>160.26</v>
@@ -3495,10 +3568,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="0">
         <v>155.14</v>
@@ -3509,10 +3582,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="0">
         <v>160.95</v>
@@ -3523,10 +3596,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="0">
         <v>161.57</v>
@@ -3537,10 +3610,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="0">
         <v>160.59</v>
@@ -3551,10 +3624,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="0">
         <v>154.05</v>
@@ -3565,10 +3638,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="0">
         <v>152.08</v>
@@ -3579,10 +3652,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="0">
         <v>155.74</v>
@@ -3593,10 +3666,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="0">
         <v>154</v>
@@ -3607,10 +3680,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="0">
         <v>145.92</v>
@@ -3619,8 +3692,22 @@
         <v>29</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="0">
+        <v>150.11</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D26"/>
+  <autoFilter ref="A1:D27"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3628,7 +3715,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3656,10 +3743,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -3670,10 +3757,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -3684,10 +3771,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -3698,10 +3785,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -3712,10 +3799,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -3726,10 +3813,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -3740,10 +3827,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -3754,10 +3841,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -3768,10 +3855,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -3782,10 +3869,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -3796,10 +3883,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="0">
         <v>204.08</v>
@@ -3810,10 +3897,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="0">
         <v>215.33</v>
@@ -3824,10 +3911,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="0">
         <v>225.38</v>
@@ -3838,10 +3925,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="0">
         <v>231</v>
@@ -3852,10 +3939,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="0">
         <v>200.96</v>
@@ -3866,10 +3953,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="0">
         <v>195.88</v>
@@ -3880,10 +3967,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="0">
         <v>194.68</v>
@@ -3894,10 +3981,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="0">
         <v>196.72</v>
@@ -3908,10 +3995,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="0">
         <v>188.61</v>
@@ -3922,10 +4009,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="0">
         <v>190.45</v>
@@ -3936,10 +4023,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" s="0">
         <v>179.87</v>
@@ -3950,10 +4037,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="0">
         <v>170.4</v>
@@ -3964,10 +4051,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="0">
         <v>168.93</v>
@@ -3978,10 +4065,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="0">
         <v>167.2</v>
@@ -3992,10 +4079,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="0">
         <v>154.34</v>
@@ -4004,8 +4091,22 @@
         <v>29</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="0">
+        <v>160.95</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D26"/>
+  <autoFilter ref="A1:D27"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4013,7 +4114,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4041,10 +4142,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -4055,10 +4156,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -4069,10 +4170,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -4083,10 +4184,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -4097,10 +4198,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -4111,10 +4212,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -4125,10 +4226,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -4139,10 +4240,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -4153,10 +4254,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -4167,10 +4268,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -4181,10 +4282,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="0">
         <v>20.22</v>
@@ -4195,10 +4296,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="0">
         <v>22.16</v>
@@ -4209,10 +4310,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="0">
         <v>22.34</v>
@@ -4223,10 +4324,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="0">
         <v>22.16</v>
@@ -4237,10 +4338,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="0">
         <v>19.26</v>
@@ -4251,10 +4352,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="0">
         <v>16.96</v>
@@ -4265,10 +4366,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="0">
         <v>16.43</v>
@@ -4279,10 +4380,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="0">
         <v>17.24</v>
@@ -4293,10 +4394,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="0">
         <v>17.51</v>
@@ -4307,10 +4408,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="0">
         <v>17.72</v>
@@ -4321,10 +4422,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="0">
         <v>16.11</v>
@@ -4335,10 +4436,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="0">
         <v>15.64</v>
@@ -4349,10 +4450,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="0">
         <v>15.67</v>
@@ -4363,10 +4464,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="0">
         <v>15.41</v>
@@ -4377,10 +4478,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="0">
         <v>14.24</v>
@@ -4389,8 +4490,22 @@
         <v>29</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="0">
+        <v>15</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D26"/>
+  <autoFilter ref="A1:D27"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$27</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$27</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$27</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$27</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$27</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$27</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$27</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$27</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$27</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$27</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$27</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$27</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$27</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$27</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$27</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$27</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$27</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$27</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$27</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$27</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$27</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$27</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$27</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$27</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$27</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$27</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$27</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$27</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$27</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$27</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$27</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$27</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$28</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$28</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$28</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$28</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$28</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$28</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$28</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$28</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$28</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$28</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$28</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$28</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$28</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$28</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$28</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$28</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$28</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$28</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$28</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$28</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$28</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$28</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$28</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$28</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$28</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$28</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$28</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$28</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$28</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$28</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$28</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$28</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>12/15/2021</t>
+  </si>
+  <si>
+    <t>12/16/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1056,7 +1059,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartD268"/>
+        <xdr:cNvPr id="0" name="Chart7F8F"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1091,7 +1094,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartD382"/>
+        <xdr:cNvPr id="0" name="Chart7FDE"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1126,7 +1129,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartD3E1"/>
+        <xdr:cNvPr id="0" name="Chart800E"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1161,7 +1164,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartD44F"/>
+        <xdr:cNvPr id="0" name="Chart803E"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1196,7 +1199,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartD49E"/>
+        <xdr:cNvPr id="0" name="Chart806E"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1231,7 +1234,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartD55B"/>
+        <xdr:cNvPr id="0" name="Chart809E"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1266,7 +1269,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartD5C9"/>
+        <xdr:cNvPr id="0" name="Chart80DD"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1301,7 +1304,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartD628"/>
+        <xdr:cNvPr id="0" name="Chart810D"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1321,7 +1324,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1711,8 +1714,22 @@
         <v>30</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="0">
+        <v>48738</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D27"/>
+  <autoFilter ref="A1:D28"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1720,7 +1737,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1748,10 +1765,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1762,10 +1779,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1776,10 +1793,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1790,10 +1807,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1804,10 +1821,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1818,10 +1835,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1832,10 +1849,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1846,10 +1863,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -1860,10 +1877,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -1874,10 +1891,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -1888,10 +1905,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -1902,10 +1919,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="0">
         <v>1.58</v>
@@ -1916,10 +1933,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="0">
         <v>1.54</v>
@@ -1930,10 +1947,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="0">
         <v>1.69</v>
@@ -1944,10 +1961,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="0">
         <v>1.51</v>
@@ -1958,10 +1975,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0">
         <v>1.39</v>
@@ -1972,10 +1989,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="0">
         <v>1.37</v>
@@ -1986,10 +2003,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="0">
         <v>1.45</v>
@@ -2000,10 +2017,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="0">
         <v>1.37</v>
@@ -2014,10 +2031,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="0">
         <v>1.37</v>
@@ -2028,10 +2045,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="0">
         <v>1.31</v>
@@ -2042,10 +2059,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" s="0">
         <v>1.24</v>
@@ -2056,10 +2073,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" s="0">
         <v>1.37</v>
@@ -2070,10 +2087,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="0">
         <v>1.31</v>
@@ -2084,10 +2101,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26" s="0">
         <v>1.22</v>
@@ -2098,10 +2115,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" s="0">
         <v>1.25</v>
@@ -2110,8 +2127,22 @@
         <v>30</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="0">
+        <v>1.3</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D27"/>
+  <autoFilter ref="A1:D28"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2119,7 +2150,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2147,10 +2178,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -2161,10 +2192,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -2175,10 +2206,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -2189,10 +2220,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -2203,10 +2234,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -2217,10 +2248,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -2231,10 +2262,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -2245,10 +2276,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -2259,10 +2290,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -2273,10 +2304,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -2287,10 +2318,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -2301,10 +2332,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="0">
         <v>26.02</v>
@@ -2315,10 +2346,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="0">
         <v>24.67</v>
@@ -2329,10 +2360,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="0">
         <v>24.6</v>
@@ -2343,10 +2374,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="0">
         <v>22.29</v>
@@ -2357,10 +2388,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="0">
         <v>20.11</v>
@@ -2371,10 +2402,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="0">
         <v>19.19</v>
@@ -2385,10 +2416,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="0">
         <v>20.1</v>
@@ -2399,10 +2430,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="0">
         <v>21.85</v>
@@ -2413,10 +2444,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="0">
         <v>21.81</v>
@@ -2427,10 +2458,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="0">
         <v>20.19</v>
@@ -2441,10 +2472,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="0">
         <v>19.09</v>
@@ -2455,10 +2486,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" s="0">
         <v>19.63</v>
@@ -2469,10 +2500,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="0">
         <v>19.55</v>
@@ -2483,10 +2514,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" s="0">
         <v>17.96</v>
@@ -2497,10 +2528,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27" s="0">
         <v>18.29</v>
@@ -2509,8 +2540,22 @@
         <v>30</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="0">
+        <v>19.79</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D27"/>
+  <autoFilter ref="A1:D28"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2518,7 +2563,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2546,10 +2591,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -2560,10 +2605,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -2574,10 +2619,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -2588,10 +2633,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -2602,10 +2647,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -2616,10 +2661,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -2630,10 +2675,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -2644,10 +2689,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -2658,10 +2703,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -2672,10 +2717,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -2686,10 +2731,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -2700,10 +2745,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="0">
         <v>0.215267</v>
@@ -2714,10 +2759,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="0">
         <v>0.204968</v>
@@ -2728,10 +2773,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="0">
         <v>0.20861</v>
@@ -2742,10 +2787,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="0">
         <v>0.192745</v>
@@ -2756,10 +2801,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="0">
         <v>0.177181</v>
@@ -2770,10 +2815,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="0">
         <v>0.171993</v>
@@ -2784,10 +2829,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="0">
         <v>0.180834</v>
@@ -2798,10 +2843,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="0">
         <v>0.177974</v>
@@ -2812,10 +2857,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0">
         <v>0.177815</v>
@@ -2826,10 +2871,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="0">
         <v>0.171574</v>
@@ -2840,10 +2885,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="0">
         <v>0.165586</v>
@@ -2854,10 +2899,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="0">
         <v>0.168042</v>
@@ -2868,10 +2913,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="0">
         <v>0.165679</v>
@@ -2882,10 +2927,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="0">
         <v>0.158598</v>
@@ -2896,10 +2941,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="0">
         <v>0.181898</v>
@@ -2908,8 +2953,22 @@
         <v>30</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="0">
+        <v>0.180307</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D27"/>
+  <autoFilter ref="A1:D28"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2917,7 +2976,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2945,10 +3004,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -2959,10 +3018,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -2973,10 +3032,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -2987,10 +3046,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -3001,10 +3060,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -3015,10 +3074,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -3029,10 +3088,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -3043,10 +3102,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -3057,10 +3116,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -3071,10 +3130,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -3085,10 +3144,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -3099,10 +3158,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="0">
         <v>4746.42</v>
@@ -3113,10 +3172,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="0">
         <v>4518.21</v>
@@ -3127,10 +3186,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="0">
         <v>4524.56</v>
@@ -3141,10 +3200,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="0">
         <v>4109</v>
@@ -3155,10 +3214,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="0">
         <v>4162.25</v>
@@ -3169,10 +3228,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="0">
         <v>4184.03</v>
@@ -3183,10 +3242,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="0">
         <v>4367.46</v>
@@ -3197,10 +3256,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="0">
         <v>4331.56</v>
@@ -3211,10 +3270,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="0">
         <v>4382.01</v>
@@ -3225,10 +3284,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="0">
         <v>4154.05</v>
@@ -3239,10 +3298,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="0">
         <v>4032.48</v>
@@ -3253,10 +3312,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="0">
         <v>4038.87</v>
@@ -3267,10 +3326,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="0">
         <v>4005.24</v>
@@ -3281,10 +3340,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="0">
         <v>3794.29</v>
@@ -3295,10 +3354,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" s="0">
         <v>3849.59</v>
@@ -3307,8 +3366,22 @@
         <v>30</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="0">
+        <v>4009.86</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D27"/>
+  <autoFilter ref="A1:D28"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3316,7 +3389,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3344,10 +3417,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -3358,10 +3431,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -3372,10 +3445,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -3386,10 +3459,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -3400,10 +3473,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -3414,10 +3487,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -3428,10 +3501,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -3442,10 +3515,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -3456,10 +3529,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -3470,10 +3543,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -3484,10 +3557,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -3498,10 +3571,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="0">
         <v>211.61</v>
@@ -3512,10 +3585,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="0">
         <v>203.23</v>
@@ -3526,10 +3599,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="0">
         <v>201.01</v>
@@ -3540,10 +3613,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="0">
         <v>181.01</v>
@@ -3554,10 +3627,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="0">
         <v>160.26</v>
@@ -3568,10 +3641,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="0">
         <v>155.14</v>
@@ -3582,10 +3655,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="0">
         <v>160.95</v>
@@ -3596,10 +3669,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="0">
         <v>161.57</v>
@@ -3610,10 +3683,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="0">
         <v>160.59</v>
@@ -3624,10 +3697,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="0">
         <v>154.05</v>
@@ -3638,10 +3711,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="0">
         <v>152.08</v>
@@ -3652,10 +3725,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="0">
         <v>155.74</v>
@@ -3666,10 +3739,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="0">
         <v>154</v>
@@ -3680,10 +3753,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="0">
         <v>145.92</v>
@@ -3694,10 +3767,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="0">
         <v>150.11</v>
@@ -3706,8 +3779,22 @@
         <v>30</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="0">
+        <v>153.24</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D27"/>
+  <autoFilter ref="A1:D28"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3715,7 +3802,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3743,10 +3830,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -3757,10 +3844,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -3771,10 +3858,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -3785,10 +3872,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -3799,10 +3886,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -3813,10 +3900,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -3827,10 +3914,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -3841,10 +3928,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -3855,10 +3942,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -3869,10 +3956,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -3883,10 +3970,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="0">
         <v>204.08</v>
@@ -3897,10 +3984,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="0">
         <v>215.33</v>
@@ -3911,10 +3998,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="0">
         <v>225.38</v>
@@ -3925,10 +4012,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="0">
         <v>231</v>
@@ -3939,10 +4026,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="0">
         <v>200.96</v>
@@ -3953,10 +4040,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="0">
         <v>195.88</v>
@@ -3967,10 +4054,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="0">
         <v>194.68</v>
@@ -3981,10 +4068,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="0">
         <v>196.72</v>
@@ -3995,10 +4082,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="0">
         <v>188.61</v>
@@ -4009,10 +4096,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="0">
         <v>190.45</v>
@@ -4023,10 +4110,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="0">
         <v>179.87</v>
@@ -4037,10 +4124,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" s="0">
         <v>170.4</v>
@@ -4051,10 +4138,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" s="0">
         <v>168.93</v>
@@ -4065,10 +4152,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="0">
         <v>167.2</v>
@@ -4079,10 +4166,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="0">
         <v>154.34</v>
@@ -4093,10 +4180,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" s="0">
         <v>160.95</v>
@@ -4105,8 +4192,22 @@
         <v>30</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="0">
+        <v>177.49</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D27"/>
+  <autoFilter ref="A1:D28"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4114,7 +4215,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4142,10 +4243,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -4156,10 +4257,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -4170,10 +4271,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -4184,10 +4285,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -4198,10 +4299,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -4212,10 +4313,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -4226,10 +4327,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -4240,10 +4341,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -4254,10 +4355,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -4268,10 +4369,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -4282,10 +4383,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="0">
         <v>20.22</v>
@@ -4296,10 +4397,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="0">
         <v>22.16</v>
@@ -4310,10 +4411,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="0">
         <v>22.34</v>
@@ -4324,10 +4425,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="0">
         <v>22.16</v>
@@ -4338,10 +4439,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="0">
         <v>19.26</v>
@@ -4352,10 +4453,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="0">
         <v>16.96</v>
@@ -4366,10 +4467,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="0">
         <v>16.43</v>
@@ -4380,10 +4481,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="0">
         <v>17.24</v>
@@ -4394,10 +4495,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="0">
         <v>17.51</v>
@@ -4408,10 +4509,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="0">
         <v>17.72</v>
@@ -4422,10 +4523,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="0">
         <v>16.11</v>
@@ -4436,10 +4537,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="0">
         <v>15.64</v>
@@ -4450,10 +4551,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="0">
         <v>15.67</v>
@@ -4464,10 +4565,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="0">
         <v>15.41</v>
@@ -4478,10 +4579,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="0">
         <v>14.24</v>
@@ -4492,10 +4593,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="0">
         <v>15</v>
@@ -4504,8 +4605,22 @@
         <v>30</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="0">
+        <v>15.1</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D27"/>
+  <autoFilter ref="A1:D28"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$28</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$28</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$28</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$28</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$28</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$28</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$28</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$28</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$28</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$28</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$28</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$28</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$28</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$28</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$28</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$28</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$28</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$28</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$28</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$28</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$28</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$28</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$28</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$28</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$28</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$28</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$28</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$28</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$28</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$28</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$28</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$28</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$29</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$29</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$29</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$29</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$29</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$29</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$29</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$29</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$29</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$29</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$29</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$29</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$29</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$29</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$29</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$29</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$29</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$29</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$29</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$29</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$29</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$29</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$29</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$29</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$29</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$29</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$29</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$29</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$29</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$29</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$29</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$29</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>12/16/2021</t>
+  </si>
+  <si>
+    <t>12/17/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1059,7 +1062,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart7F8F"/>
+        <xdr:cNvPr id="0" name="Chart50A6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1094,7 +1097,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart7FDE"/>
+        <xdr:cNvPr id="0" name="Chart50F5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1129,7 +1132,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart800E"/>
+        <xdr:cNvPr id="0" name="Chart5134"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1164,7 +1167,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart803E"/>
+        <xdr:cNvPr id="0" name="Chart5164"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1199,7 +1202,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart806E"/>
+        <xdr:cNvPr id="0" name="Chart5194"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1234,7 +1237,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart809E"/>
+        <xdr:cNvPr id="0" name="Chart51C4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1269,7 +1272,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart80DD"/>
+        <xdr:cNvPr id="0" name="Chart51F4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1304,7 +1307,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart810D"/>
+        <xdr:cNvPr id="0" name="Chart5224"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1324,7 +1327,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1728,8 +1731,22 @@
         <v>31</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="0">
+        <v>47971</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D28"/>
+  <autoFilter ref="A1:D29"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1737,7 +1754,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1765,10 +1782,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1779,10 +1796,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1793,10 +1810,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1807,10 +1824,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1821,10 +1838,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1835,10 +1852,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1849,10 +1866,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1863,10 +1880,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -1877,10 +1894,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -1891,10 +1908,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -1905,10 +1922,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -1919,10 +1936,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="0">
         <v>1.58</v>
@@ -1933,10 +1950,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="0">
         <v>1.54</v>
@@ -1947,10 +1964,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="0">
         <v>1.69</v>
@@ -1961,10 +1978,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="0">
         <v>1.51</v>
@@ -1975,10 +1992,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="0">
         <v>1.39</v>
@@ -1989,10 +2006,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0">
         <v>1.37</v>
@@ -2003,10 +2020,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="0">
         <v>1.45</v>
@@ -2017,10 +2034,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="0">
         <v>1.37</v>
@@ -2031,10 +2048,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="0">
         <v>1.37</v>
@@ -2045,10 +2062,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="0">
         <v>1.31</v>
@@ -2059,10 +2076,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" s="0">
         <v>1.24</v>
@@ -2073,10 +2090,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="0">
         <v>1.37</v>
@@ -2087,10 +2104,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="0">
         <v>1.31</v>
@@ -2101,10 +2118,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="0">
         <v>1.22</v>
@@ -2115,10 +2132,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" s="0">
         <v>1.25</v>
@@ -2129,10 +2146,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" s="0">
         <v>1.3</v>
@@ -2141,8 +2158,22 @@
         <v>31</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="0">
+        <v>1.26</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D28"/>
+  <autoFilter ref="A1:D29"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2150,7 +2181,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2178,10 +2209,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -2192,10 +2223,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -2206,10 +2237,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -2220,10 +2251,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -2234,10 +2265,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -2248,10 +2279,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -2262,10 +2293,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -2276,10 +2307,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -2290,10 +2321,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -2304,10 +2335,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -2318,10 +2349,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -2332,10 +2363,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="0">
         <v>26.02</v>
@@ -2346,10 +2377,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="0">
         <v>24.67</v>
@@ -2360,10 +2391,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="0">
         <v>24.6</v>
@@ -2374,10 +2405,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="0">
         <v>22.29</v>
@@ -2388,10 +2419,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="0">
         <v>20.11</v>
@@ -2402,10 +2433,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="0">
         <v>19.19</v>
@@ -2416,10 +2447,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="0">
         <v>20.1</v>
@@ -2430,10 +2461,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0">
         <v>21.85</v>
@@ -2444,10 +2475,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="0">
         <v>21.81</v>
@@ -2458,10 +2489,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="0">
         <v>20.19</v>
@@ -2472,10 +2503,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="0">
         <v>19.09</v>
@@ -2486,10 +2517,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="0">
         <v>19.63</v>
@@ -2500,10 +2531,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="0">
         <v>19.55</v>
@@ -2514,10 +2545,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" s="0">
         <v>17.96</v>
@@ -2528,10 +2559,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" s="0">
         <v>18.29</v>
@@ -2542,10 +2573,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" s="0">
         <v>19.79</v>
@@ -2554,8 +2585,22 @@
         <v>31</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="0">
+        <v>19.15</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D28"/>
+  <autoFilter ref="A1:D29"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2563,7 +2608,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2591,10 +2636,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -2605,10 +2650,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -2619,10 +2664,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -2633,10 +2678,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -2647,10 +2692,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -2661,10 +2706,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -2675,10 +2720,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -2689,10 +2734,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -2703,10 +2748,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -2717,10 +2762,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -2731,10 +2776,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -2745,10 +2790,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="0">
         <v>0.215267</v>
@@ -2759,10 +2804,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="0">
         <v>0.204968</v>
@@ -2773,10 +2818,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="0">
         <v>0.20861</v>
@@ -2787,10 +2832,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="0">
         <v>0.192745</v>
@@ -2801,10 +2846,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="0">
         <v>0.177181</v>
@@ -2815,10 +2860,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="0">
         <v>0.171993</v>
@@ -2829,10 +2874,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="0">
         <v>0.180834</v>
@@ -2843,10 +2888,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="0">
         <v>0.177974</v>
@@ -2857,10 +2902,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="0">
         <v>0.177815</v>
@@ -2871,10 +2916,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="0">
         <v>0.171574</v>
@@ -2885,10 +2930,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="0">
         <v>0.165586</v>
@@ -2899,10 +2944,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="0">
         <v>0.168042</v>
@@ -2913,10 +2958,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="0">
         <v>0.165679</v>
@@ -2927,10 +2972,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" s="0">
         <v>0.158598</v>
@@ -2941,10 +2986,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="0">
         <v>0.181898</v>
@@ -2955,10 +3000,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" s="0">
         <v>0.180307</v>
@@ -2967,8 +3012,22 @@
         <v>31</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="0">
+        <v>0.175952</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D28"/>
+  <autoFilter ref="A1:D29"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2976,7 +3035,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3004,10 +3063,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -3018,10 +3077,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -3032,10 +3091,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -3046,10 +3105,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -3060,10 +3119,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -3074,10 +3133,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -3088,10 +3147,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -3102,10 +3161,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -3116,10 +3175,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -3130,10 +3189,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -3144,10 +3203,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -3158,10 +3217,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="0">
         <v>4746.42</v>
@@ -3172,10 +3231,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="0">
         <v>4518.21</v>
@@ -3186,10 +3245,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="0">
         <v>4524.56</v>
@@ -3200,10 +3259,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="0">
         <v>4109</v>
@@ -3214,10 +3273,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="0">
         <v>4162.25</v>
@@ -3228,10 +3287,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="0">
         <v>4184.03</v>
@@ -3242,10 +3301,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="0">
         <v>4367.46</v>
@@ -3256,10 +3315,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="0">
         <v>4331.56</v>
@@ -3270,10 +3329,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="0">
         <v>4382.01</v>
@@ -3284,10 +3343,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="0">
         <v>4154.05</v>
@@ -3298,10 +3357,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="0">
         <v>4032.48</v>
@@ -3312,10 +3371,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="0">
         <v>4038.87</v>
@@ -3326,10 +3385,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="0">
         <v>4005.24</v>
@@ -3340,10 +3399,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="0">
         <v>3794.29</v>
@@ -3354,10 +3413,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="0">
         <v>3849.59</v>
@@ -3368,10 +3427,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" s="0">
         <v>4009.86</v>
@@ -3380,8 +3439,22 @@
         <v>31</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="0">
+        <v>3986.63</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D28"/>
+  <autoFilter ref="A1:D29"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3389,7 +3462,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3417,10 +3490,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -3431,10 +3504,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -3445,10 +3518,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -3459,10 +3532,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -3473,10 +3546,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -3487,10 +3560,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -3501,10 +3574,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -3515,10 +3588,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -3529,10 +3602,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -3543,10 +3616,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -3557,10 +3630,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -3571,10 +3644,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="0">
         <v>211.61</v>
@@ -3585,10 +3658,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="0">
         <v>203.23</v>
@@ -3599,10 +3672,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="0">
         <v>201.01</v>
@@ -3613,10 +3686,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="0">
         <v>181.01</v>
@@ -3627,10 +3700,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="0">
         <v>160.26</v>
@@ -3641,10 +3714,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="0">
         <v>155.14</v>
@@ -3655,10 +3728,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="0">
         <v>160.95</v>
@@ -3669,10 +3742,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="0">
         <v>161.57</v>
@@ -3683,10 +3756,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="0">
         <v>160.59</v>
@@ -3697,10 +3770,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" s="0">
         <v>154.05</v>
@@ -3711,10 +3784,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="0">
         <v>152.08</v>
@@ -3725,10 +3798,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="0">
         <v>155.74</v>
@@ -3739,10 +3812,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="0">
         <v>154</v>
@@ -3753,10 +3826,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="0">
         <v>145.92</v>
@@ -3767,10 +3840,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="0">
         <v>150.11</v>
@@ -3781,10 +3854,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="0">
         <v>153.24</v>
@@ -3793,8 +3866,22 @@
         <v>31</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="0">
+        <v>150.23</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D28"/>
+  <autoFilter ref="A1:D29"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3802,7 +3889,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3830,10 +3917,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -3844,10 +3931,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -3858,10 +3945,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -3872,10 +3959,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -3886,10 +3973,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -3900,10 +3987,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -3914,10 +4001,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -3928,10 +4015,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -3942,10 +4029,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -3956,10 +4043,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -3970,10 +4057,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="0">
         <v>204.08</v>
@@ -3984,10 +4071,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="0">
         <v>215.33</v>
@@ -3998,10 +4085,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="0">
         <v>225.38</v>
@@ -4012,10 +4099,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="0">
         <v>231</v>
@@ -4026,10 +4113,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="0">
         <v>200.96</v>
@@ -4040,10 +4127,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="0">
         <v>195.88</v>
@@ -4054,10 +4141,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="0">
         <v>194.68</v>
@@ -4068,10 +4155,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="0">
         <v>196.72</v>
@@ -4082,10 +4169,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="0">
         <v>188.61</v>
@@ -4096,10 +4183,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="0">
         <v>190.45</v>
@@ -4110,10 +4197,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="0">
         <v>179.87</v>
@@ -4124,10 +4211,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="0">
         <v>170.4</v>
@@ -4138,10 +4225,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="0">
         <v>168.93</v>
@@ -4152,10 +4239,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="0">
         <v>167.2</v>
@@ -4166,10 +4253,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="0">
         <v>154.34</v>
@@ -4180,10 +4267,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="0">
         <v>160.95</v>
@@ -4194,10 +4281,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="0">
         <v>177.49</v>
@@ -4206,8 +4293,22 @@
         <v>31</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="0">
+        <v>179.72</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D28"/>
+  <autoFilter ref="A1:D29"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4215,7 +4316,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4243,10 +4344,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -4257,10 +4358,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -4271,10 +4372,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -4285,10 +4386,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -4299,10 +4400,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -4313,10 +4414,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -4327,10 +4428,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -4341,10 +4442,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -4355,10 +4456,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -4369,10 +4470,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -4383,10 +4484,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="0">
         <v>20.22</v>
@@ -4397,10 +4498,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="0">
         <v>22.16</v>
@@ -4411,10 +4512,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="0">
         <v>22.34</v>
@@ -4425,10 +4526,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="0">
         <v>22.16</v>
@@ -4439,10 +4540,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="0">
         <v>19.26</v>
@@ -4453,10 +4554,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="0">
         <v>16.96</v>
@@ -4467,10 +4568,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="0">
         <v>16.43</v>
@@ -4481,10 +4582,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="0">
         <v>17.24</v>
@@ -4495,10 +4596,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="0">
         <v>17.51</v>
@@ -4509,10 +4610,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="0">
         <v>17.72</v>
@@ -4523,10 +4624,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="0">
         <v>16.11</v>
@@ -4537,10 +4638,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="0">
         <v>15.64</v>
@@ -4551,10 +4652,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" s="0">
         <v>15.67</v>
@@ -4565,10 +4666,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" s="0">
         <v>15.41</v>
@@ -4579,10 +4680,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="0">
         <v>14.24</v>
@@ -4593,10 +4694,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="0">
         <v>15</v>
@@ -4607,10 +4708,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" s="0">
         <v>15.1</v>
@@ -4619,8 +4720,22 @@
         <v>31</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="0">
+        <v>14.56</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D28"/>
+  <autoFilter ref="A1:D29"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$29</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$29</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$29</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$29</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$29</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$29</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$29</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$29</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$29</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$29</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$29</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$29</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$29</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$29</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$29</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$29</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$29</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$29</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$29</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$29</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$29</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$29</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$29</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$29</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$29</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$29</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$29</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$29</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$29</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$29</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$29</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$29</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$30</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$30</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$30</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$30</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$30</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$30</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$30</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$30</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$30</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$30</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$30</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$30</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$30</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$30</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$30</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$30</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$30</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$30</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$30</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$30</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$30</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$30</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$30</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$30</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$30</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$30</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$30</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$30</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$30</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$30</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$30</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$30</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>12/17/2021</t>
+  </si>
+  <si>
+    <t>12/18/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1062,7 +1065,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart50A6"/>
+        <xdr:cNvPr id="0" name="Chart1C4B"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1097,7 +1100,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart50F5"/>
+        <xdr:cNvPr id="0" name="Chart1C9A"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1132,7 +1135,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart5134"/>
+        <xdr:cNvPr id="0" name="Chart1CD9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1167,7 +1170,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart5164"/>
+        <xdr:cNvPr id="0" name="Chart1CFA"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1202,7 +1205,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart5194"/>
+        <xdr:cNvPr id="0" name="Chart1D2A"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1237,7 +1240,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart51C4"/>
+        <xdr:cNvPr id="0" name="Chart1D69"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1272,7 +1275,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart51F4"/>
+        <xdr:cNvPr id="0" name="Chart1D99"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1307,7 +1310,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart5224"/>
+        <xdr:cNvPr id="0" name="Chart1DD8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1327,7 +1330,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1745,8 +1748,22 @@
         <v>32</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="0">
+        <v>46296</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D29"/>
+  <autoFilter ref="A1:D30"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1754,7 +1771,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1782,10 +1799,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1796,10 +1813,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1810,10 +1827,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1824,10 +1841,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1838,10 +1855,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1852,10 +1869,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1866,10 +1883,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1880,10 +1897,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -1894,10 +1911,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -1908,10 +1925,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -1922,10 +1939,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -1936,10 +1953,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="0">
         <v>1.58</v>
@@ -1950,10 +1967,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="0">
         <v>1.54</v>
@@ -1964,10 +1981,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="0">
         <v>1.69</v>
@@ -1978,10 +1995,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="0">
         <v>1.51</v>
@@ -1992,10 +2009,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="0">
         <v>1.39</v>
@@ -2006,10 +2023,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="0">
         <v>1.37</v>
@@ -2020,10 +2037,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="0">
         <v>1.45</v>
@@ -2034,10 +2051,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="0">
         <v>1.37</v>
@@ -2048,10 +2065,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="0">
         <v>1.37</v>
@@ -2062,10 +2079,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="0">
         <v>1.31</v>
@@ -2076,10 +2093,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="0">
         <v>1.24</v>
@@ -2090,10 +2107,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" s="0">
         <v>1.37</v>
@@ -2104,10 +2121,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="0">
         <v>1.31</v>
@@ -2118,10 +2135,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" s="0">
         <v>1.22</v>
@@ -2132,10 +2149,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27" s="0">
         <v>1.25</v>
@@ -2146,10 +2163,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" s="0">
         <v>1.3</v>
@@ -2160,10 +2177,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" s="0">
         <v>1.26</v>
@@ -2172,8 +2189,22 @@
         <v>32</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="0">
+        <v>1.22</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D29"/>
+  <autoFilter ref="A1:D30"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2181,7 +2212,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2209,10 +2240,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -2223,10 +2254,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -2237,10 +2268,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -2251,10 +2282,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -2265,10 +2296,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -2279,10 +2310,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -2293,10 +2324,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -2307,10 +2338,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -2321,10 +2352,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -2335,10 +2366,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -2349,10 +2380,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -2363,10 +2394,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="0">
         <v>26.02</v>
@@ -2377,10 +2408,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="0">
         <v>24.67</v>
@@ -2391,10 +2422,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="0">
         <v>24.6</v>
@@ -2405,10 +2436,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="0">
         <v>22.29</v>
@@ -2419,10 +2450,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="0">
         <v>20.11</v>
@@ -2433,10 +2464,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="0">
         <v>19.19</v>
@@ -2447,10 +2478,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="0">
         <v>20.1</v>
@@ -2461,10 +2492,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="0">
         <v>21.85</v>
@@ -2475,10 +2506,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0">
         <v>21.81</v>
@@ -2489,10 +2520,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="0">
         <v>20.19</v>
@@ -2503,10 +2534,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="0">
         <v>19.09</v>
@@ -2517,10 +2548,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="0">
         <v>19.63</v>
@@ -2531,10 +2562,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="0">
         <v>19.55</v>
@@ -2545,10 +2576,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="0">
         <v>17.96</v>
@@ -2559,10 +2590,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="0">
         <v>18.29</v>
@@ -2573,10 +2604,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" s="0">
         <v>19.79</v>
@@ -2587,10 +2618,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" s="0">
         <v>19.15</v>
@@ -2599,8 +2630,22 @@
         <v>32</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="0">
+        <v>18.46</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D29"/>
+  <autoFilter ref="A1:D30"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2608,7 +2653,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2636,10 +2681,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -2650,10 +2695,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -2664,10 +2709,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -2678,10 +2723,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -2692,10 +2737,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -2706,10 +2751,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -2720,10 +2765,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -2734,10 +2779,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -2748,10 +2793,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -2762,10 +2807,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -2776,10 +2821,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -2790,10 +2835,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="0">
         <v>0.215267</v>
@@ -2804,10 +2849,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="0">
         <v>0.204968</v>
@@ -2818,10 +2863,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="0">
         <v>0.20861</v>
@@ -2832,10 +2877,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="0">
         <v>0.192745</v>
@@ -2846,10 +2891,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="0">
         <v>0.177181</v>
@@ -2860,10 +2905,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="0">
         <v>0.171993</v>
@@ -2874,10 +2919,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="0">
         <v>0.180834</v>
@@ -2888,10 +2933,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="0">
         <v>0.177974</v>
@@ -2902,10 +2947,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="0">
         <v>0.177815</v>
@@ -2916,10 +2961,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="0">
         <v>0.171574</v>
@@ -2930,10 +2975,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="0">
         <v>0.165586</v>
@@ -2944,10 +2989,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="0">
         <v>0.168042</v>
@@ -2958,10 +3003,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="0">
         <v>0.165679</v>
@@ -2972,10 +3017,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="0">
         <v>0.158598</v>
@@ -2986,10 +3031,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" s="0">
         <v>0.181898</v>
@@ -3000,10 +3045,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" s="0">
         <v>0.180307</v>
@@ -3014,10 +3059,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="0">
         <v>0.175952</v>
@@ -3026,8 +3071,22 @@
         <v>32</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="0">
+        <v>0.169715</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D29"/>
+  <autoFilter ref="A1:D30"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3035,7 +3094,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3063,10 +3122,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -3077,10 +3136,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -3091,10 +3150,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -3105,10 +3164,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -3119,10 +3178,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -3133,10 +3192,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -3147,10 +3206,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -3161,10 +3220,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -3175,10 +3234,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -3189,10 +3248,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -3203,10 +3262,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -3217,10 +3276,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="0">
         <v>4746.42</v>
@@ -3231,10 +3290,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="0">
         <v>4518.21</v>
@@ -3245,10 +3304,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="0">
         <v>4524.56</v>
@@ -3259,10 +3318,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="0">
         <v>4109</v>
@@ -3273,10 +3332,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="0">
         <v>4162.25</v>
@@ -3287,10 +3346,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="0">
         <v>4184.03</v>
@@ -3301,10 +3360,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="0">
         <v>4367.46</v>
@@ -3315,10 +3374,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="0">
         <v>4331.56</v>
@@ -3329,10 +3388,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="0">
         <v>4382.01</v>
@@ -3343,10 +3402,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="0">
         <v>4154.05</v>
@@ -3357,10 +3416,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="0">
         <v>4032.48</v>
@@ -3371,10 +3430,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="0">
         <v>4038.87</v>
@@ -3385,10 +3444,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="0">
         <v>4005.24</v>
@@ -3399,10 +3458,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="0">
         <v>3794.29</v>
@@ -3413,10 +3472,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="0">
         <v>3849.59</v>
@@ -3427,10 +3486,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="0">
         <v>4009.86</v>
@@ -3441,10 +3500,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" s="0">
         <v>3986.63</v>
@@ -3453,8 +3512,22 @@
         <v>32</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="0">
+        <v>3868.55</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D29"/>
+  <autoFilter ref="A1:D30"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3462,7 +3535,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3490,10 +3563,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -3504,10 +3577,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -3518,10 +3591,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -3532,10 +3605,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -3546,10 +3619,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -3560,10 +3633,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -3574,10 +3647,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -3588,10 +3661,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -3602,10 +3675,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -3616,10 +3689,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -3630,10 +3703,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -3644,10 +3717,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="0">
         <v>211.61</v>
@@ -3658,10 +3731,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="0">
         <v>203.23</v>
@@ -3672,10 +3745,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="0">
         <v>201.01</v>
@@ -3686,10 +3759,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="0">
         <v>181.01</v>
@@ -3700,10 +3773,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="0">
         <v>160.26</v>
@@ -3714,10 +3787,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="0">
         <v>155.14</v>
@@ -3728,10 +3801,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="0">
         <v>160.95</v>
@@ -3742,10 +3815,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="0">
         <v>161.57</v>
@@ -3756,10 +3829,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="0">
         <v>160.59</v>
@@ -3770,10 +3843,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="0">
         <v>154.05</v>
@@ -3784,10 +3857,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" s="0">
         <v>152.08</v>
@@ -3798,10 +3871,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" s="0">
         <v>155.74</v>
@@ -3812,10 +3885,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="0">
         <v>154</v>
@@ -3826,10 +3899,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="0">
         <v>145.92</v>
@@ -3840,10 +3913,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" s="0">
         <v>150.11</v>
@@ -3854,10 +3927,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="0">
         <v>153.24</v>
@@ -3868,10 +3941,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" s="0">
         <v>150.23</v>
@@ -3880,8 +3953,22 @@
         <v>32</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="0">
+        <v>145.91</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D29"/>
+  <autoFilter ref="A1:D30"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3889,7 +3976,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3917,10 +4004,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -3931,10 +4018,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -3945,10 +4032,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -3959,10 +4046,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -3973,10 +4060,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -3987,10 +4074,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -4001,10 +4088,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -4015,10 +4102,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -4029,10 +4116,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -4043,10 +4130,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -4057,10 +4144,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="0">
         <v>204.08</v>
@@ -4071,10 +4158,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="0">
         <v>215.33</v>
@@ -4085,10 +4172,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="0">
         <v>225.38</v>
@@ -4099,10 +4186,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="0">
         <v>231</v>
@@ -4113,10 +4200,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="0">
         <v>200.96</v>
@@ -4127,10 +4214,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="0">
         <v>195.88</v>
@@ -4141,10 +4228,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="0">
         <v>194.68</v>
@@ -4155,10 +4242,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="0">
         <v>196.72</v>
@@ -4169,10 +4256,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="0">
         <v>188.61</v>
@@ -4183,10 +4270,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="0">
         <v>190.45</v>
@@ -4197,10 +4284,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="0">
         <v>179.87</v>
@@ -4211,10 +4298,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="0">
         <v>170.4</v>
@@ -4225,10 +4312,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="0">
         <v>168.93</v>
@@ -4239,10 +4326,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="0">
         <v>167.2</v>
@@ -4253,10 +4340,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="0">
         <v>154.34</v>
@@ -4267,10 +4354,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="0">
         <v>160.95</v>
@@ -4281,10 +4368,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="0">
         <v>177.49</v>
@@ -4295,10 +4382,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" s="0">
         <v>179.72</v>
@@ -4307,8 +4394,22 @@
         <v>32</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="0">
+        <v>173.85</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D29"/>
+  <autoFilter ref="A1:D30"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4316,7 +4417,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4344,10 +4445,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -4358,10 +4459,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -4372,10 +4473,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -4386,10 +4487,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -4400,10 +4501,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -4414,10 +4515,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -4428,10 +4529,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -4442,10 +4543,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -4456,10 +4557,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -4470,10 +4571,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -4484,10 +4585,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0">
         <v>20.22</v>
@@ -4498,10 +4599,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="0">
         <v>22.16</v>
@@ -4512,10 +4613,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="0">
         <v>22.34</v>
@@ -4526,10 +4627,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="0">
         <v>22.16</v>
@@ -4540,10 +4641,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="0">
         <v>19.26</v>
@@ -4554,10 +4655,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="0">
         <v>16.96</v>
@@ -4568,10 +4669,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="0">
         <v>16.43</v>
@@ -4582,10 +4683,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="0">
         <v>17.24</v>
@@ -4596,10 +4697,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="0">
         <v>17.51</v>
@@ -4610,10 +4711,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="0">
         <v>17.72</v>
@@ -4624,10 +4725,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="0">
         <v>16.11</v>
@@ -4638,10 +4739,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="0">
         <v>15.64</v>
@@ -4652,10 +4753,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="0">
         <v>15.67</v>
@@ -4666,10 +4767,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" s="0">
         <v>15.41</v>
@@ -4680,10 +4781,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="0">
         <v>14.24</v>
@@ -4694,10 +4795,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" s="0">
         <v>15</v>
@@ -4708,10 +4809,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="0">
         <v>15.1</v>
@@ -4722,10 +4823,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" s="0">
         <v>14.56</v>
@@ -4734,8 +4835,22 @@
         <v>32</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="0">
+        <v>15.38</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D29"/>
+  <autoFilter ref="A1:D30"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$30</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$30</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$30</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$30</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$30</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$30</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$30</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$30</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$30</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$30</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$30</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$30</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$30</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$30</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$30</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$30</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$30</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$30</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$30</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$30</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$30</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$30</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$30</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$30</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$30</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$30</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$30</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$30</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$30</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$30</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$30</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$30</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$31</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$31</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$31</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$31</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$31</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$31</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$31</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$31</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$31</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$31</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$31</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$31</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$31</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$31</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$31</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$31</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$31</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$31</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$31</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$31</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$31</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$31</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$31</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$31</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$31</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$31</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$31</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$31</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$31</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$31</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$31</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$31</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>12/18/2021</t>
+  </si>
+  <si>
+    <t>12/19/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1065,7 +1068,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1C4B"/>
+        <xdr:cNvPr id="0" name="Chart159C"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1100,7 +1103,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1C9A"/>
+        <xdr:cNvPr id="0" name="Chart15EB"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1135,7 +1138,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1CD9"/>
+        <xdr:cNvPr id="0" name="Chart163A"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1170,7 +1173,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1CFA"/>
+        <xdr:cNvPr id="0" name="Chart165A"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1205,7 +1208,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1D2A"/>
+        <xdr:cNvPr id="0" name="Chart168A"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1240,7 +1243,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1D69"/>
+        <xdr:cNvPr id="0" name="Chart16C9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1275,7 +1278,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1D99"/>
+        <xdr:cNvPr id="0" name="Chart16F9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1310,7 +1313,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1DD8"/>
+        <xdr:cNvPr id="0" name="Chart1729"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1330,7 +1333,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1762,8 +1765,22 @@
         <v>33</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="0">
+        <v>47922</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D30"/>
+  <autoFilter ref="A1:D31"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1771,7 +1788,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1799,10 +1816,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1813,10 +1830,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1827,10 +1844,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1841,10 +1858,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1855,10 +1872,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1869,10 +1886,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1883,10 +1900,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1897,10 +1914,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -1911,10 +1928,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -1925,10 +1942,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -1939,10 +1956,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -1953,10 +1970,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="0">
         <v>1.58</v>
@@ -1967,10 +1984,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="0">
         <v>1.54</v>
@@ -1981,10 +1998,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="0">
         <v>1.69</v>
@@ -1995,10 +2012,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="0">
         <v>1.51</v>
@@ -2009,10 +2026,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="0">
         <v>1.39</v>
@@ -2023,10 +2040,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="0">
         <v>1.37</v>
@@ -2037,10 +2054,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="0">
         <v>1.45</v>
@@ -2051,10 +2068,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0">
         <v>1.37</v>
@@ -2065,10 +2082,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="0">
         <v>1.37</v>
@@ -2079,10 +2096,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="0">
         <v>1.31</v>
@@ -2093,10 +2110,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="0">
         <v>1.24</v>
@@ -2107,10 +2124,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="0">
         <v>1.37</v>
@@ -2121,10 +2138,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="0">
         <v>1.31</v>
@@ -2135,10 +2152,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" s="0">
         <v>1.22</v>
@@ -2149,10 +2166,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" s="0">
         <v>1.25</v>
@@ -2163,10 +2180,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" s="0">
         <v>1.3</v>
@@ -2177,10 +2194,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" s="0">
         <v>1.26</v>
@@ -2191,10 +2208,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" s="0">
         <v>1.22</v>
@@ -2203,8 +2220,22 @@
         <v>33</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="0">
+        <v>1.3</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D30"/>
+  <autoFilter ref="A1:D31"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2212,7 +2243,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2240,10 +2271,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -2254,10 +2285,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -2268,10 +2299,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -2282,10 +2313,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -2296,10 +2327,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -2310,10 +2341,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -2324,10 +2355,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -2338,10 +2369,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -2352,10 +2383,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -2366,10 +2397,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -2380,10 +2411,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -2394,10 +2425,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="0">
         <v>26.02</v>
@@ -2408,10 +2439,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="0">
         <v>24.67</v>
@@ -2422,10 +2453,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="0">
         <v>24.6</v>
@@ -2436,10 +2467,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="0">
         <v>22.29</v>
@@ -2450,10 +2481,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="0">
         <v>20.11</v>
@@ -2464,10 +2495,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="0">
         <v>19.19</v>
@@ -2478,10 +2509,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="0">
         <v>20.1</v>
@@ -2492,10 +2523,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="0">
         <v>21.85</v>
@@ -2506,10 +2537,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="0">
         <v>21.81</v>
@@ -2520,10 +2551,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="0">
         <v>20.19</v>
@@ -2534,10 +2565,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="0">
         <v>19.09</v>
@@ -2548,10 +2579,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="0">
         <v>19.63</v>
@@ -2562,10 +2593,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="0">
         <v>19.55</v>
@@ -2576,10 +2607,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" s="0">
         <v>17.96</v>
@@ -2590,10 +2621,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="0">
         <v>18.29</v>
@@ -2604,10 +2635,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" s="0">
         <v>19.79</v>
@@ -2618,10 +2649,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" s="0">
         <v>19.15</v>
@@ -2632,10 +2663,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" s="0">
         <v>18.46</v>
@@ -2644,8 +2675,22 @@
         <v>33</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="0">
+        <v>20.22</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D30"/>
+  <autoFilter ref="A1:D31"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2653,7 +2698,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2681,10 +2726,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -2695,10 +2740,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -2709,10 +2754,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -2723,10 +2768,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -2737,10 +2782,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -2751,10 +2796,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -2765,10 +2810,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -2779,10 +2824,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -2793,10 +2838,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -2807,10 +2852,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -2821,10 +2866,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -2835,10 +2880,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="0">
         <v>0.215267</v>
@@ -2849,10 +2894,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="0">
         <v>0.204968</v>
@@ -2863,10 +2908,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="0">
         <v>0.20861</v>
@@ -2877,10 +2922,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="0">
         <v>0.192745</v>
@@ -2891,10 +2936,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="0">
         <v>0.177181</v>
@@ -2905,10 +2950,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="0">
         <v>0.171993</v>
@@ -2919,10 +2964,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="0">
         <v>0.180834</v>
@@ -2933,10 +2978,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="0">
         <v>0.177974</v>
@@ -2947,10 +2992,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="0">
         <v>0.177815</v>
@@ -2961,10 +3006,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="0">
         <v>0.171574</v>
@@ -2975,10 +3020,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="0">
         <v>0.165586</v>
@@ -2989,10 +3034,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="0">
         <v>0.168042</v>
@@ -3003,10 +3048,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="0">
         <v>0.165679</v>
@@ -3017,10 +3062,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="0">
         <v>0.158598</v>
@@ -3031,10 +3076,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="0">
         <v>0.181898</v>
@@ -3045,10 +3090,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" s="0">
         <v>0.180307</v>
@@ -3059,10 +3104,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" s="0">
         <v>0.175952</v>
@@ -3073,10 +3118,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" s="0">
         <v>0.169715</v>
@@ -3085,8 +3130,22 @@
         <v>33</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="0">
+        <v>0.17388</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D30"/>
+  <autoFilter ref="A1:D31"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3094,7 +3153,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3122,10 +3181,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -3136,10 +3195,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -3150,10 +3209,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -3164,10 +3223,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -3178,10 +3237,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -3192,10 +3251,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -3206,10 +3265,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -3220,10 +3279,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -3234,10 +3293,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -3248,10 +3307,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -3262,10 +3321,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -3276,10 +3335,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="0">
         <v>4746.42</v>
@@ -3290,10 +3349,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="0">
         <v>4518.21</v>
@@ -3304,10 +3363,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="0">
         <v>4524.56</v>
@@ -3318,10 +3377,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="0">
         <v>4109</v>
@@ -3332,10 +3391,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="0">
         <v>4162.25</v>
@@ -3346,10 +3405,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="0">
         <v>4184.03</v>
@@ -3360,10 +3419,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="0">
         <v>4367.46</v>
@@ -3374,10 +3433,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="0">
         <v>4331.56</v>
@@ -3388,10 +3447,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="0">
         <v>4382.01</v>
@@ -3402,10 +3461,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" s="0">
         <v>4154.05</v>
@@ -3416,10 +3475,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="0">
         <v>4032.48</v>
@@ -3430,10 +3489,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="0">
         <v>4038.87</v>
@@ -3444,10 +3503,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="0">
         <v>4005.24</v>
@@ -3458,10 +3517,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="0">
         <v>3794.29</v>
@@ -3472,10 +3531,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="0">
         <v>3849.59</v>
@@ -3486,10 +3545,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="0">
         <v>4009.86</v>
@@ -3500,10 +3559,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" s="0">
         <v>3986.63</v>
@@ -3514,10 +3573,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="0">
         <v>3868.55</v>
@@ -3526,8 +3585,22 @@
         <v>33</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="0">
+        <v>4003.7</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D30"/>
+  <autoFilter ref="A1:D31"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3535,7 +3608,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3563,10 +3636,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -3577,10 +3650,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -3591,10 +3664,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -3605,10 +3678,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -3619,10 +3692,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -3633,10 +3706,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -3647,10 +3720,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -3661,10 +3734,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -3675,10 +3748,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -3689,10 +3762,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -3703,10 +3776,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -3717,10 +3790,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="0">
         <v>211.61</v>
@@ -3731,10 +3804,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="0">
         <v>203.23</v>
@@ -3745,10 +3818,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="0">
         <v>201.01</v>
@@ -3759,10 +3832,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="0">
         <v>181.01</v>
@@ -3773,10 +3846,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="0">
         <v>160.26</v>
@@ -3787,10 +3860,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="0">
         <v>155.14</v>
@@ -3801,10 +3874,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="0">
         <v>160.95</v>
@@ -3815,10 +3888,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="0">
         <v>161.57</v>
@@ -3829,10 +3902,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="0">
         <v>160.59</v>
@@ -3843,10 +3916,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="0">
         <v>154.05</v>
@@ -3857,10 +3930,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="0">
         <v>152.08</v>
@@ -3871,10 +3944,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="0">
         <v>155.74</v>
@@ -3885,10 +3958,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="0">
         <v>154</v>
@@ -3899,10 +3972,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="0">
         <v>145.92</v>
@@ -3913,10 +3986,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="0">
         <v>150.11</v>
@@ -3927,10 +4000,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="0">
         <v>153.24</v>
@@ -3941,10 +4014,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="0">
         <v>150.23</v>
@@ -3955,10 +4028,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" s="0">
         <v>145.91</v>
@@ -3967,8 +4040,22 @@
         <v>33</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="0">
+        <v>154.68</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D30"/>
+  <autoFilter ref="A1:D31"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3976,7 +4063,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4004,10 +4091,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -4018,10 +4105,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -4032,10 +4119,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -4046,10 +4133,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -4060,10 +4147,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -4074,10 +4161,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -4088,10 +4175,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -4102,10 +4189,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -4116,10 +4203,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -4130,10 +4217,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -4144,10 +4231,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="0">
         <v>204.08</v>
@@ -4158,10 +4245,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="0">
         <v>215.33</v>
@@ -4172,10 +4259,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="0">
         <v>225.38</v>
@@ -4186,10 +4273,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="0">
         <v>231</v>
@@ -4200,10 +4287,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="0">
         <v>200.96</v>
@@ -4214,10 +4301,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="0">
         <v>195.88</v>
@@ -4228,10 +4315,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="0">
         <v>194.68</v>
@@ -4242,10 +4329,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="0">
         <v>196.72</v>
@@ -4256,10 +4343,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="0">
         <v>188.61</v>
@@ -4270,10 +4357,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="0">
         <v>190.45</v>
@@ -4284,10 +4371,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="0">
         <v>179.87</v>
@@ -4298,10 +4385,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="0">
         <v>170.4</v>
@@ -4312,10 +4399,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" s="0">
         <v>168.93</v>
@@ -4326,10 +4413,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" s="0">
         <v>167.2</v>
@@ -4340,10 +4427,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="0">
         <v>154.34</v>
@@ -4354,10 +4441,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="0">
         <v>160.95</v>
@@ -4368,10 +4455,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" s="0">
         <v>177.49</v>
@@ -4382,10 +4469,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29" s="0">
         <v>179.72</v>
@@ -4396,10 +4483,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" s="0">
         <v>173.85</v>
@@ -4408,8 +4495,22 @@
         <v>33</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="0">
+        <v>184.62</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D30"/>
+  <autoFilter ref="A1:D31"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4417,7 +4518,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4445,10 +4546,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -4459,10 +4560,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -4473,10 +4574,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -4487,10 +4588,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -4501,10 +4602,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -4515,10 +4616,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -4529,10 +4630,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -4543,10 +4644,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -4557,10 +4658,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -4571,10 +4672,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -4585,10 +4686,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0">
         <v>20.22</v>
@@ -4599,10 +4700,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="0">
         <v>22.16</v>
@@ -4613,10 +4714,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="0">
         <v>22.34</v>
@@ -4627,10 +4728,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="0">
         <v>22.16</v>
@@ -4641,10 +4742,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="0">
         <v>19.26</v>
@@ -4655,10 +4756,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="0">
         <v>16.96</v>
@@ -4669,10 +4770,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="0">
         <v>16.43</v>
@@ -4683,10 +4784,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="0">
         <v>17.24</v>
@@ -4697,10 +4798,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="0">
         <v>17.51</v>
@@ -4711,10 +4812,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="0">
         <v>17.72</v>
@@ -4725,10 +4826,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="0">
         <v>16.11</v>
@@ -4739,10 +4840,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="0">
         <v>15.64</v>
@@ -4753,10 +4854,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" s="0">
         <v>15.67</v>
@@ -4767,10 +4868,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25" s="0">
         <v>15.41</v>
@@ -4781,10 +4882,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="0">
         <v>14.24</v>
@@ -4795,10 +4896,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27" s="0">
         <v>15</v>
@@ -4809,10 +4910,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" s="0">
         <v>15.1</v>
@@ -4823,10 +4924,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="0">
         <v>14.56</v>
@@ -4837,10 +4938,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" s="0">
         <v>15.38</v>
@@ -4849,8 +4950,22 @@
         <v>33</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="0">
+        <v>15.81</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D30"/>
+  <autoFilter ref="A1:D31"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$31</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$31</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$31</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$31</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$31</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$31</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$31</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$31</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$31</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$31</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$31</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$31</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$31</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$31</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$31</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$31</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$31</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$31</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$31</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$31</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$31</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$31</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$31</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$31</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$31</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$31</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$31</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$31</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$31</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$31</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$31</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$31</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$32</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$32</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$32</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$32</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$32</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$32</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$32</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$32</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$32</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$32</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$32</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$32</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$32</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$32</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$32</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$32</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$32</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$32</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$32</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$32</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$32</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$32</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$32</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$32</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$32</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$32</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$32</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$32</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$32</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$32</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$32</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$32</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>12/19/2021</t>
+  </si>
+  <si>
+    <t>12/20/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1068,7 +1071,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart159C"/>
+        <xdr:cNvPr id="0" name="ChartCAE7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1103,7 +1106,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart15EB"/>
+        <xdr:cNvPr id="0" name="ChartCB46"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1138,7 +1141,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart163A"/>
+        <xdr:cNvPr id="0" name="ChartCB76"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1173,7 +1176,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart165A"/>
+        <xdr:cNvPr id="0" name="ChartCBA6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1208,7 +1211,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart168A"/>
+        <xdr:cNvPr id="0" name="ChartCBD6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1243,7 +1246,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart16C9"/>
+        <xdr:cNvPr id="0" name="ChartCC05"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1278,7 +1281,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart16F9"/>
+        <xdr:cNvPr id="0" name="ChartCC35"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1313,7 +1316,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1729"/>
+        <xdr:cNvPr id="0" name="ChartCC75"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1333,7 +1336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1779,8 +1782,22 @@
         <v>34</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="0">
+        <v>47007</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D31"/>
+  <autoFilter ref="A1:D32"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1788,7 +1805,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1816,10 +1833,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1830,10 +1847,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1844,10 +1861,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1858,10 +1875,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1872,10 +1889,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1886,10 +1903,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1900,10 +1917,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1914,10 +1931,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -1928,10 +1945,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -1942,10 +1959,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -1956,10 +1973,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -1970,10 +1987,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="0">
         <v>1.58</v>
@@ -1984,10 +2001,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="0">
         <v>1.54</v>
@@ -1998,10 +2015,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="0">
         <v>1.69</v>
@@ -2012,10 +2029,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="0">
         <v>1.51</v>
@@ -2026,10 +2043,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="0">
         <v>1.39</v>
@@ -2040,10 +2057,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="0">
         <v>1.37</v>
@@ -2054,10 +2071,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="0">
         <v>1.45</v>
@@ -2068,10 +2085,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="0">
         <v>1.37</v>
@@ -2082,10 +2099,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0">
         <v>1.37</v>
@@ -2096,10 +2113,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="0">
         <v>1.31</v>
@@ -2110,10 +2127,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="0">
         <v>1.24</v>
@@ -2124,10 +2141,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="0">
         <v>1.37</v>
@@ -2138,10 +2155,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="0">
         <v>1.31</v>
@@ -2152,10 +2169,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="0">
         <v>1.22</v>
@@ -2166,10 +2183,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="0">
         <v>1.25</v>
@@ -2180,10 +2197,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" s="0">
         <v>1.3</v>
@@ -2194,10 +2211,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" s="0">
         <v>1.26</v>
@@ -2208,10 +2225,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" s="0">
         <v>1.22</v>
@@ -2222,10 +2239,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" s="0">
         <v>1.3</v>
@@ -2234,8 +2251,22 @@
         <v>34</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="0">
+        <v>1.24</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D31"/>
+  <autoFilter ref="A1:D32"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2243,7 +2274,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2271,10 +2302,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -2285,10 +2316,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -2299,10 +2330,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -2313,10 +2344,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -2327,10 +2358,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -2341,10 +2372,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -2355,10 +2386,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -2369,10 +2400,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -2383,10 +2414,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -2397,10 +2428,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -2411,10 +2442,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -2425,10 +2456,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="0">
         <v>26.02</v>
@@ -2439,10 +2470,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="0">
         <v>24.67</v>
@@ -2453,10 +2484,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="0">
         <v>24.6</v>
@@ -2467,10 +2498,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="0">
         <v>22.29</v>
@@ -2481,10 +2512,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="0">
         <v>20.11</v>
@@ -2495,10 +2526,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="0">
         <v>19.19</v>
@@ -2509,10 +2540,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="0">
         <v>20.1</v>
@@ -2523,10 +2554,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="0">
         <v>21.85</v>
@@ -2537,10 +2568,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="0">
         <v>21.81</v>
@@ -2551,10 +2582,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="0">
         <v>20.19</v>
@@ -2565,10 +2596,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="0">
         <v>19.09</v>
@@ -2579,10 +2610,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="0">
         <v>19.63</v>
@@ -2593,10 +2624,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="0">
         <v>19.55</v>
@@ -2607,10 +2638,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="0">
         <v>17.96</v>
@@ -2621,10 +2652,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" s="0">
         <v>18.29</v>
@@ -2635,10 +2666,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" s="0">
         <v>19.79</v>
@@ -2649,10 +2680,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="0">
         <v>19.15</v>
@@ -2663,10 +2694,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="0">
         <v>18.46</v>
@@ -2677,10 +2708,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" s="0">
         <v>20.22</v>
@@ -2689,8 +2720,22 @@
         <v>34</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="0">
+        <v>18.99</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D31"/>
+  <autoFilter ref="A1:D32"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2698,7 +2743,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2726,10 +2771,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -2740,10 +2785,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -2754,10 +2799,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -2768,10 +2813,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -2782,10 +2827,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -2796,10 +2841,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -2810,10 +2855,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -2824,10 +2869,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -2838,10 +2883,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -2852,10 +2897,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -2866,10 +2911,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -2880,10 +2925,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="0">
         <v>0.215267</v>
@@ -2894,10 +2939,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="0">
         <v>0.204968</v>
@@ -2908,10 +2953,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="0">
         <v>0.20861</v>
@@ -2922,10 +2967,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="0">
         <v>0.192745</v>
@@ -2936,10 +2981,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="0">
         <v>0.177181</v>
@@ -2950,10 +2995,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="0">
         <v>0.171993</v>
@@ -2964,10 +3009,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="0">
         <v>0.180834</v>
@@ -2978,10 +3023,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="0">
         <v>0.177974</v>
@@ -2992,10 +3037,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="0">
         <v>0.177815</v>
@@ -3006,10 +3051,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="0">
         <v>0.171574</v>
@@ -3020,10 +3065,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="0">
         <v>0.165586</v>
@@ -3034,10 +3079,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="0">
         <v>0.168042</v>
@@ -3048,10 +3093,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="0">
         <v>0.165679</v>
@@ -3062,10 +3107,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="0">
         <v>0.158598</v>
@@ -3076,10 +3121,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="0">
         <v>0.181898</v>
@@ -3090,10 +3135,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="0">
         <v>0.180307</v>
@@ -3104,10 +3149,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" s="0">
         <v>0.175952</v>
@@ -3118,10 +3163,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" s="0">
         <v>0.169715</v>
@@ -3132,10 +3177,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="0">
         <v>0.17388</v>
@@ -3144,8 +3189,22 @@
         <v>34</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="0">
+        <v>0.170993</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D31"/>
+  <autoFilter ref="A1:D32"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3153,7 +3212,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3181,10 +3240,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -3195,10 +3254,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -3209,10 +3268,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -3223,10 +3282,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -3237,10 +3296,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -3251,10 +3310,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -3265,10 +3324,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -3279,10 +3338,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -3293,10 +3352,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -3307,10 +3366,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -3321,10 +3380,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -3335,10 +3394,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="0">
         <v>4746.42</v>
@@ -3349,10 +3408,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="0">
         <v>4518.21</v>
@@ -3363,10 +3422,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="0">
         <v>4524.56</v>
@@ -3377,10 +3436,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="0">
         <v>4109</v>
@@ -3391,10 +3450,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="0">
         <v>4162.25</v>
@@ -3405,10 +3464,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="0">
         <v>4184.03</v>
@@ -3419,10 +3478,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="0">
         <v>4367.46</v>
@@ -3433,10 +3492,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="0">
         <v>4331.56</v>
@@ -3447,10 +3506,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="0">
         <v>4382.01</v>
@@ -3461,10 +3520,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="0">
         <v>4154.05</v>
@@ -3475,10 +3534,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" s="0">
         <v>4032.48</v>
@@ -3489,10 +3548,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" s="0">
         <v>4038.87</v>
@@ -3503,10 +3562,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="0">
         <v>4005.24</v>
@@ -3517,10 +3576,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="0">
         <v>3794.29</v>
@@ -3531,10 +3590,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" s="0">
         <v>3849.59</v>
@@ -3545,10 +3604,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="0">
         <v>4009.86</v>
@@ -3559,10 +3618,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" s="0">
         <v>3986.63</v>
@@ -3573,10 +3632,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" s="0">
         <v>3868.55</v>
@@ -3587,10 +3646,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" s="0">
         <v>4003.7</v>
@@ -3599,8 +3658,22 @@
         <v>34</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="0">
+        <v>3930.43</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D31"/>
+  <autoFilter ref="A1:D32"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3608,7 +3681,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3636,10 +3709,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -3650,10 +3723,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -3664,10 +3737,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -3678,10 +3751,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -3692,10 +3765,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -3706,10 +3779,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -3720,10 +3793,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -3734,10 +3807,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -3748,10 +3821,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -3762,10 +3835,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -3776,10 +3849,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -3790,10 +3863,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="0">
         <v>211.61</v>
@@ -3804,10 +3877,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="0">
         <v>203.23</v>
@@ -3818,10 +3891,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="0">
         <v>201.01</v>
@@ -3832,10 +3905,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="0">
         <v>181.01</v>
@@ -3846,10 +3919,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="0">
         <v>160.26</v>
@@ -3860,10 +3933,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="0">
         <v>155.14</v>
@@ -3874,10 +3947,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="0">
         <v>160.95</v>
@@ -3888,10 +3961,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="0">
         <v>161.57</v>
@@ -3902,10 +3975,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="0">
         <v>160.59</v>
@@ -3916,10 +3989,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="0">
         <v>154.05</v>
@@ -3930,10 +4003,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="0">
         <v>152.08</v>
@@ -3944,10 +4017,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="0">
         <v>155.74</v>
@@ -3958,10 +4031,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="0">
         <v>154</v>
@@ -3972,10 +4045,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="0">
         <v>145.92</v>
@@ -3986,10 +4059,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="0">
         <v>150.11</v>
@@ -4000,10 +4073,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="0">
         <v>153.24</v>
@@ -4014,10 +4087,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" s="0">
         <v>150.23</v>
@@ -4028,10 +4101,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="0">
         <v>145.91</v>
@@ -4042,10 +4115,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" s="0">
         <v>154.68</v>
@@ -4054,8 +4127,22 @@
         <v>34</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="0">
+        <v>155.97</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D31"/>
+  <autoFilter ref="A1:D32"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4063,7 +4150,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4091,10 +4178,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -4105,10 +4192,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -4119,10 +4206,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -4133,10 +4220,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -4147,10 +4234,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -4161,10 +4248,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -4175,10 +4262,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -4189,10 +4276,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -4203,10 +4290,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -4217,10 +4304,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -4231,10 +4318,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0">
         <v>204.08</v>
@@ -4245,10 +4332,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="0">
         <v>215.33</v>
@@ -4259,10 +4346,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="0">
         <v>225.38</v>
@@ -4273,10 +4360,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="0">
         <v>231</v>
@@ -4287,10 +4374,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="0">
         <v>200.96</v>
@@ -4301,10 +4388,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="0">
         <v>195.88</v>
@@ -4315,10 +4402,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="0">
         <v>194.68</v>
@@ -4329,10 +4416,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="0">
         <v>196.72</v>
@@ -4343,10 +4430,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="0">
         <v>188.61</v>
@@ -4357,10 +4444,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="0">
         <v>190.45</v>
@@ -4371,10 +4458,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="0">
         <v>179.87</v>
@@ -4385,10 +4472,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="0">
         <v>170.4</v>
@@ -4399,10 +4486,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="0">
         <v>168.93</v>
@@ -4413,10 +4500,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" s="0">
         <v>167.2</v>
@@ -4427,10 +4514,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="0">
         <v>154.34</v>
@@ -4441,10 +4528,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" s="0">
         <v>160.95</v>
@@ -4455,10 +4542,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="0">
         <v>177.49</v>
@@ -4469,10 +4556,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" s="0">
         <v>179.72</v>
@@ -4483,10 +4570,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" s="0">
         <v>173.85</v>
@@ -4497,10 +4584,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" s="0">
         <v>184.62</v>
@@ -4509,8 +4596,22 @@
         <v>34</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="0">
+        <v>179.08</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D31"/>
+  <autoFilter ref="A1:D32"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4518,7 +4619,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4546,10 +4647,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -4560,10 +4661,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -4574,10 +4675,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -4588,10 +4689,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -4602,10 +4703,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -4616,10 +4717,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -4630,10 +4731,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -4644,10 +4745,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -4658,10 +4759,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -4672,10 +4773,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -4686,10 +4787,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="0">
         <v>20.22</v>
@@ -4700,10 +4801,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0">
         <v>22.16</v>
@@ -4714,10 +4815,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="0">
         <v>22.34</v>
@@ -4728,10 +4829,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="0">
         <v>22.16</v>
@@ -4742,10 +4843,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="0">
         <v>19.26</v>
@@ -4756,10 +4857,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="0">
         <v>16.96</v>
@@ -4770,10 +4871,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="0">
         <v>16.43</v>
@@ -4784,10 +4885,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="0">
         <v>17.24</v>
@@ -4798,10 +4899,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="0">
         <v>17.51</v>
@@ -4812,10 +4913,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="0">
         <v>17.72</v>
@@ -4826,10 +4927,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="0">
         <v>16.11</v>
@@ -4840,10 +4941,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="0">
         <v>15.64</v>
@@ -4854,10 +4955,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="0">
         <v>15.67</v>
@@ -4868,10 +4969,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="0">
         <v>15.41</v>
@@ -4882,10 +4983,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="0">
         <v>14.24</v>
@@ -4896,10 +4997,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" s="0">
         <v>15</v>
@@ -4910,10 +5011,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" s="0">
         <v>15.1</v>
@@ -4924,10 +5025,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" s="0">
         <v>14.56</v>
@@ -4938,10 +5039,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="0">
         <v>15.38</v>
@@ -4952,10 +5053,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" s="0">
         <v>15.81</v>
@@ -4964,8 +5065,22 @@
         <v>34</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="0">
+        <v>14.82</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D31"/>
+  <autoFilter ref="A1:D32"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$32</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$32</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$32</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$32</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$32</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$32</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$32</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$32</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$32</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$32</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$32</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$32</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$32</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$32</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$32</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$32</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$32</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$32</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$32</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$32</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$32</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$32</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$32</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$32</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$32</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$32</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$32</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$32</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$32</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$32</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$32</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$32</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$33</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$33</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$33</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$33</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$33</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$33</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$33</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$33</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$33</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$33</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$33</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$33</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$33</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$33</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$33</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$33</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$33</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$33</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$33</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$33</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$33</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$33</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$33</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$33</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$33</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$33</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$33</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$33</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$33</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$33</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$33</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$33</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>12/20/2021</t>
+  </si>
+  <si>
+    <t>12/21/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1071,7 +1074,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartCAE7"/>
+        <xdr:cNvPr id="0" name="ChartA23F"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1106,7 +1109,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartCB46"/>
+        <xdr:cNvPr id="0" name="ChartA2AD"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1141,7 +1144,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartCB76"/>
+        <xdr:cNvPr id="0" name="ChartA2FC"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1176,7 +1179,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartCBA6"/>
+        <xdr:cNvPr id="0" name="ChartA32C"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1211,7 +1214,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartCBD6"/>
+        <xdr:cNvPr id="0" name="ChartA36C"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1246,7 +1249,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartCC05"/>
+        <xdr:cNvPr id="0" name="ChartA3AB"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1281,7 +1284,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartCC35"/>
+        <xdr:cNvPr id="0" name="ChartA3FA"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1316,7 +1319,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartCC75"/>
+        <xdr:cNvPr id="0" name="ChartA43A"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1336,7 +1339,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1796,8 +1799,22 @@
         <v>35</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="0">
+        <v>48662</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D32"/>
+  <autoFilter ref="A1:D33"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1805,7 +1822,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1833,10 +1850,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1847,10 +1864,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1861,10 +1878,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1875,10 +1892,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1889,10 +1906,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1903,10 +1920,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1917,10 +1934,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1931,10 +1948,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -1945,10 +1962,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -1959,10 +1976,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -1973,10 +1990,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -1987,10 +2004,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="0">
         <v>1.58</v>
@@ -2001,10 +2018,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="0">
         <v>1.54</v>
@@ -2015,10 +2032,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="0">
         <v>1.69</v>
@@ -2029,10 +2046,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="0">
         <v>1.51</v>
@@ -2043,10 +2060,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="0">
         <v>1.39</v>
@@ -2057,10 +2074,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="0">
         <v>1.37</v>
@@ -2071,10 +2088,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="0">
         <v>1.45</v>
@@ -2085,10 +2102,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="0">
         <v>1.37</v>
@@ -2099,10 +2116,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="0">
         <v>1.37</v>
@@ -2113,10 +2130,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="0">
         <v>1.31</v>
@@ -2127,10 +2144,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="0">
         <v>1.24</v>
@@ -2141,10 +2158,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="0">
         <v>1.37</v>
@@ -2155,10 +2172,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="0">
         <v>1.31</v>
@@ -2169,10 +2186,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" s="0">
         <v>1.22</v>
@@ -2183,10 +2200,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="0">
         <v>1.25</v>
@@ -2197,10 +2214,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" s="0">
         <v>1.3</v>
@@ -2211,10 +2228,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" s="0">
         <v>1.26</v>
@@ -2225,10 +2242,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" s="0">
         <v>1.22</v>
@@ -2239,10 +2256,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="0">
         <v>1.3</v>
@@ -2253,10 +2270,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" s="0">
         <v>1.24</v>
@@ -2265,8 +2282,22 @@
         <v>35</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="0">
+        <v>1.27</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D32"/>
+  <autoFilter ref="A1:D33"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2274,7 +2305,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2302,10 +2333,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -2316,10 +2347,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -2330,10 +2361,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -2344,10 +2375,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -2358,10 +2389,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -2372,10 +2403,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -2386,10 +2417,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -2400,10 +2431,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -2414,10 +2445,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -2428,10 +2459,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -2442,10 +2473,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -2456,10 +2487,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="0">
         <v>26.02</v>
@@ -2470,10 +2501,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="0">
         <v>24.67</v>
@@ -2484,10 +2515,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="0">
         <v>24.6</v>
@@ -2498,10 +2529,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="0">
         <v>22.29</v>
@@ -2512,10 +2543,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="0">
         <v>20.11</v>
@@ -2526,10 +2557,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="0">
         <v>19.19</v>
@@ -2540,10 +2571,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="0">
         <v>20.1</v>
@@ -2554,10 +2585,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="0">
         <v>21.85</v>
@@ -2568,10 +2599,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="0">
         <v>21.81</v>
@@ -2582,10 +2613,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="0">
         <v>20.19</v>
@@ -2596,10 +2627,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="0">
         <v>19.09</v>
@@ -2610,10 +2641,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="0">
         <v>19.63</v>
@@ -2624,10 +2655,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="0">
         <v>19.55</v>
@@ -2638,10 +2669,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="0">
         <v>17.96</v>
@@ -2652,10 +2683,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="0">
         <v>18.29</v>
@@ -2666,10 +2697,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" s="0">
         <v>19.79</v>
@@ -2680,10 +2711,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" s="0">
         <v>19.15</v>
@@ -2694,10 +2725,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" s="0">
         <v>18.46</v>
@@ -2708,10 +2739,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="0">
         <v>20.22</v>
@@ -2722,10 +2753,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="0">
         <v>18.99</v>
@@ -2734,8 +2765,22 @@
         <v>35</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="0">
+        <v>19.02</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D32"/>
+  <autoFilter ref="A1:D33"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2743,7 +2788,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2771,10 +2816,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -2785,10 +2830,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -2799,10 +2844,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -2813,10 +2858,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -2827,10 +2872,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -2841,10 +2886,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -2855,10 +2900,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -2869,10 +2914,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -2883,10 +2928,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -2897,10 +2942,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -2911,10 +2956,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -2925,10 +2970,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="0">
         <v>0.215267</v>
@@ -2939,10 +2984,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="0">
         <v>0.204968</v>
@@ -2953,10 +2998,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="0">
         <v>0.20861</v>
@@ -2967,10 +3012,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="0">
         <v>0.192745</v>
@@ -2981,10 +3026,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="0">
         <v>0.177181</v>
@@ -2995,10 +3040,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="0">
         <v>0.171993</v>
@@ -3009,10 +3054,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="0">
         <v>0.180834</v>
@@ -3023,10 +3068,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="0">
         <v>0.177974</v>
@@ -3037,10 +3082,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="0">
         <v>0.177815</v>
@@ -3051,10 +3096,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" s="0">
         <v>0.171574</v>
@@ -3065,10 +3110,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="0">
         <v>0.165586</v>
@@ -3079,10 +3124,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="0">
         <v>0.168042</v>
@@ -3093,10 +3138,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="0">
         <v>0.165679</v>
@@ -3107,10 +3152,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="0">
         <v>0.158598</v>
@@ -3121,10 +3166,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="0">
         <v>0.181898</v>
@@ -3135,10 +3180,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="0">
         <v>0.180307</v>
@@ -3149,10 +3194,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" s="0">
         <v>0.175952</v>
@@ -3163,10 +3208,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="0">
         <v>0.169715</v>
@@ -3177,10 +3222,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" s="0">
         <v>0.17388</v>
@@ -3191,10 +3236,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="0">
         <v>0.170993</v>
@@ -3203,8 +3248,22 @@
         <v>35</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="0">
+        <v>0.171914</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D32"/>
+  <autoFilter ref="A1:D33"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3212,7 +3271,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3240,10 +3299,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -3254,10 +3313,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -3268,10 +3327,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -3282,10 +3341,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -3296,10 +3355,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -3310,10 +3369,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -3324,10 +3383,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -3338,10 +3397,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -3352,10 +3411,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -3366,10 +3425,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -3380,10 +3439,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -3394,10 +3453,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="0">
         <v>4746.42</v>
@@ -3408,10 +3467,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="0">
         <v>4518.21</v>
@@ -3422,10 +3481,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="0">
         <v>4524.56</v>
@@ -3436,10 +3495,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="0">
         <v>4109</v>
@@ -3450,10 +3509,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="0">
         <v>4162.25</v>
@@ -3464,10 +3523,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="0">
         <v>4184.03</v>
@@ -3478,10 +3537,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="0">
         <v>4367.46</v>
@@ -3492,10 +3551,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="0">
         <v>4331.56</v>
@@ -3506,10 +3565,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="0">
         <v>4382.01</v>
@@ -3520,10 +3579,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="0">
         <v>4154.05</v>
@@ -3534,10 +3593,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="0">
         <v>4032.48</v>
@@ -3548,10 +3607,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="0">
         <v>4038.87</v>
@@ -3562,10 +3621,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="0">
         <v>4005.24</v>
@@ -3576,10 +3635,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="0">
         <v>3794.29</v>
@@ -3590,10 +3649,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="0">
         <v>3849.59</v>
@@ -3604,10 +3663,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="0">
         <v>4009.86</v>
@@ -3618,10 +3677,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="0">
         <v>3986.63</v>
@@ -3632,10 +3691,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" s="0">
         <v>3868.55</v>
@@ -3646,10 +3705,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" s="0">
         <v>4003.7</v>
@@ -3660,10 +3719,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" s="0">
         <v>3930.43</v>
@@ -3672,8 +3731,22 @@
         <v>35</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="0">
+        <v>4056.61</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D32"/>
+  <autoFilter ref="A1:D33"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3681,7 +3754,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3709,10 +3782,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -3723,10 +3796,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -3737,10 +3810,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -3751,10 +3824,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -3765,10 +3838,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -3779,10 +3852,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -3793,10 +3866,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -3807,10 +3880,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -3821,10 +3894,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -3835,10 +3908,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -3849,10 +3922,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -3863,10 +3936,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="0">
         <v>211.61</v>
@@ -3877,10 +3950,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="0">
         <v>203.23</v>
@@ -3891,10 +3964,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="0">
         <v>201.01</v>
@@ -3905,10 +3978,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="0">
         <v>181.01</v>
@@ -3919,10 +3992,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="0">
         <v>160.26</v>
@@ -3933,10 +4006,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="0">
         <v>155.14</v>
@@ -3947,10 +4020,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="0">
         <v>160.95</v>
@@ -3961,10 +4034,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="0">
         <v>161.57</v>
@@ -3975,10 +4048,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="0">
         <v>160.59</v>
@@ -3989,10 +4062,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="0">
         <v>154.05</v>
@@ -4003,10 +4076,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="0">
         <v>152.08</v>
@@ -4017,10 +4090,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" s="0">
         <v>155.74</v>
@@ -4031,10 +4104,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" s="0">
         <v>154</v>
@@ -4045,10 +4118,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="0">
         <v>145.92</v>
@@ -4059,10 +4132,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="0">
         <v>150.11</v>
@@ -4073,10 +4146,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" s="0">
         <v>153.24</v>
@@ -4087,10 +4160,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29" s="0">
         <v>150.23</v>
@@ -4101,10 +4174,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" s="0">
         <v>145.91</v>
@@ -4115,10 +4188,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="0">
         <v>154.68</v>
@@ -4129,10 +4202,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="0">
         <v>155.97</v>
@@ -4141,8 +4214,22 @@
         <v>35</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="0">
+        <v>155.24</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D32"/>
+  <autoFilter ref="A1:D33"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4150,7 +4237,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4178,10 +4265,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -4192,10 +4279,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -4206,10 +4293,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -4220,10 +4307,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -4234,10 +4321,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -4248,10 +4335,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -4262,10 +4349,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -4276,10 +4363,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -4290,10 +4377,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -4304,10 +4391,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -4318,10 +4405,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0">
         <v>204.08</v>
@@ -4332,10 +4419,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="0">
         <v>215.33</v>
@@ -4346,10 +4433,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="0">
         <v>225.38</v>
@@ -4360,10 +4447,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="0">
         <v>231</v>
@@ -4374,10 +4461,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="0">
         <v>200.96</v>
@@ -4388,10 +4475,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="0">
         <v>195.88</v>
@@ -4402,10 +4489,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="0">
         <v>194.68</v>
@@ -4416,10 +4503,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="0">
         <v>196.72</v>
@@ -4430,10 +4517,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="0">
         <v>188.61</v>
@@ -4444,10 +4531,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="0">
         <v>190.45</v>
@@ -4458,10 +4545,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="0">
         <v>179.87</v>
@@ -4472,10 +4559,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="0">
         <v>170.4</v>
@@ -4486,10 +4573,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" s="0">
         <v>168.93</v>
@@ -4500,10 +4587,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25" s="0">
         <v>167.2</v>
@@ -4514,10 +4601,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="0">
         <v>154.34</v>
@@ -4528,10 +4615,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27" s="0">
         <v>160.95</v>
@@ -4542,10 +4629,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" s="0">
         <v>177.49</v>
@@ -4556,10 +4643,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="0">
         <v>179.72</v>
@@ -4570,10 +4657,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" s="0">
         <v>173.85</v>
@@ -4584,10 +4671,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" s="0">
         <v>184.62</v>
@@ -4598,10 +4685,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" s="0">
         <v>179.08</v>
@@ -4610,8 +4697,22 @@
         <v>35</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="0">
+        <v>178.52</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D32"/>
+  <autoFilter ref="A1:D33"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4619,7 +4720,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4647,10 +4748,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -4661,10 +4762,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -4675,10 +4776,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -4689,10 +4790,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -4703,10 +4804,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -4717,10 +4818,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -4731,10 +4832,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -4745,10 +4846,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -4759,10 +4860,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -4773,10 +4874,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -4787,10 +4888,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="0">
         <v>20.22</v>
@@ -4801,10 +4902,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0">
         <v>22.16</v>
@@ -4815,10 +4916,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0">
         <v>22.34</v>
@@ -4829,10 +4930,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="0">
         <v>22.16</v>
@@ -4843,10 +4944,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="0">
         <v>19.26</v>
@@ -4857,10 +4958,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="0">
         <v>16.96</v>
@@ -4871,10 +4972,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="0">
         <v>16.43</v>
@@ -4885,10 +4986,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="0">
         <v>17.24</v>
@@ -4899,10 +5000,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="0">
         <v>17.51</v>
@@ -4913,10 +5014,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="0">
         <v>17.72</v>
@@ -4927,10 +5028,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="0">
         <v>16.11</v>
@@ -4941,10 +5042,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="0">
         <v>15.64</v>
@@ -4955,10 +5056,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="0">
         <v>15.67</v>
@@ -4969,10 +5070,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" s="0">
         <v>15.41</v>
@@ -4983,10 +5084,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="0">
         <v>14.24</v>
@@ -4997,10 +5098,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27" s="0">
         <v>15</v>
@@ -5011,10 +5112,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" s="0">
         <v>15.1</v>
@@ -5025,10 +5126,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="0">
         <v>14.56</v>
@@ -5039,10 +5140,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" s="0">
         <v>15.38</v>
@@ -5053,10 +5154,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="0">
         <v>15.81</v>
@@ -5067,10 +5168,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="0">
         <v>14.82</v>
@@ -5079,8 +5180,22 @@
         <v>35</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="0">
+        <v>14.84</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D32"/>
+  <autoFilter ref="A1:D33"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$33</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$33</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$33</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$33</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$33</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$33</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$33</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$33</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$33</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$33</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$33</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$33</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$33</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$33</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$33</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$33</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$33</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$33</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$33</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$33</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$33</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$33</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$33</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$33</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$33</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$33</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$33</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$33</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$33</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$33</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$33</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$33</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$34</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$34</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$34</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$34</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$34</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$34</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$34</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$34</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$34</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$34</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$34</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$34</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$34</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$34</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$34</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$34</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$34</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$34</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$34</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$34</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$34</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$34</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$34</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$34</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$34</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$34</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$34</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$34</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$34</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$34</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$34</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$34</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>12/21/2021</t>
+  </si>
+  <si>
+    <t>12/22/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1074,7 +1077,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartA23F"/>
+        <xdr:cNvPr id="0" name="Chart8A33"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1109,7 +1112,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartA2AD"/>
+        <xdr:cNvPr id="0" name="Chart8A91"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1144,7 +1147,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartA2FC"/>
+        <xdr:cNvPr id="0" name="Chart8AE1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1179,7 +1182,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartA32C"/>
+        <xdr:cNvPr id="0" name="Chart8B10"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1214,7 +1217,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartA36C"/>
+        <xdr:cNvPr id="0" name="Chart8B50"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1249,7 +1252,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartA3AB"/>
+        <xdr:cNvPr id="0" name="Chart8B8F"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1284,7 +1287,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartA3FA"/>
+        <xdr:cNvPr id="0" name="Chart8BCF"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1319,7 +1322,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartA43A"/>
+        <xdr:cNvPr id="0" name="Chart8C0E"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1339,7 +1342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1813,8 +1816,22 @@
         <v>36</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="0">
+        <v>49373</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D33"/>
+  <autoFilter ref="A1:D34"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1822,7 +1839,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1850,10 +1867,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1864,10 +1881,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1878,10 +1895,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1892,10 +1909,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1906,10 +1923,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1920,10 +1937,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1934,10 +1951,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1948,10 +1965,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -1962,10 +1979,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -1976,10 +1993,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -1990,10 +2007,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -2004,10 +2021,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="0">
         <v>1.58</v>
@@ -2018,10 +2035,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="0">
         <v>1.54</v>
@@ -2032,10 +2049,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="0">
         <v>1.69</v>
@@ -2046,10 +2063,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="0">
         <v>1.51</v>
@@ -2060,10 +2077,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="0">
         <v>1.39</v>
@@ -2074,10 +2091,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="0">
         <v>1.37</v>
@@ -2088,10 +2105,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="0">
         <v>1.45</v>
@@ -2102,10 +2119,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="0">
         <v>1.37</v>
@@ -2116,10 +2133,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="0">
         <v>1.37</v>
@@ -2130,10 +2147,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="0">
         <v>1.31</v>
@@ -2144,10 +2161,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="0">
         <v>1.24</v>
@@ -2158,10 +2175,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="0">
         <v>1.37</v>
@@ -2172,10 +2189,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="0">
         <v>1.31</v>
@@ -2186,10 +2203,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="0">
         <v>1.22</v>
@@ -2200,10 +2217,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" s="0">
         <v>1.25</v>
@@ -2214,10 +2231,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" s="0">
         <v>1.3</v>
@@ -2228,10 +2245,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="0">
         <v>1.26</v>
@@ -2242,10 +2259,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="0">
         <v>1.22</v>
@@ -2256,10 +2273,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" s="0">
         <v>1.3</v>
@@ -2270,10 +2287,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="0">
         <v>1.24</v>
@@ -2284,10 +2301,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" s="0">
         <v>1.27</v>
@@ -2296,8 +2313,22 @@
         <v>36</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="0">
+        <v>1.3</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D33"/>
+  <autoFilter ref="A1:D34"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2305,7 +2336,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2333,10 +2364,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -2347,10 +2378,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -2361,10 +2392,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -2375,10 +2406,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -2389,10 +2420,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -2403,10 +2434,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -2417,10 +2448,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -2431,10 +2462,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -2445,10 +2476,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -2459,10 +2490,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -2473,10 +2504,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -2487,10 +2518,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="0">
         <v>26.02</v>
@@ -2501,10 +2532,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="0">
         <v>24.67</v>
@@ -2515,10 +2546,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="0">
         <v>24.6</v>
@@ -2529,10 +2560,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="0">
         <v>22.29</v>
@@ -2543,10 +2574,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="0">
         <v>20.11</v>
@@ -2557,10 +2588,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="0">
         <v>19.19</v>
@@ -2571,10 +2602,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="0">
         <v>20.1</v>
@@ -2585,10 +2616,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="0">
         <v>21.85</v>
@@ -2599,10 +2630,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="0">
         <v>21.81</v>
@@ -2613,10 +2644,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="0">
         <v>20.19</v>
@@ -2627,10 +2658,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="0">
         <v>19.09</v>
@@ -2641,10 +2672,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="0">
         <v>19.63</v>
@@ -2655,10 +2686,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="0">
         <v>19.55</v>
@@ -2669,10 +2700,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="0">
         <v>17.96</v>
@@ -2683,10 +2714,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="0">
         <v>18.29</v>
@@ -2697,10 +2728,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="0">
         <v>19.79</v>
@@ -2711,10 +2742,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" s="0">
         <v>19.15</v>
@@ -2725,10 +2756,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" s="0">
         <v>18.46</v>
@@ -2739,10 +2770,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="0">
         <v>20.22</v>
@@ -2753,10 +2784,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" s="0">
         <v>18.99</v>
@@ -2767,10 +2798,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33" s="0">
         <v>19.02</v>
@@ -2779,8 +2810,22 @@
         <v>36</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="0">
+        <v>19.86</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D33"/>
+  <autoFilter ref="A1:D34"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2788,7 +2833,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2816,10 +2861,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -2830,10 +2875,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -2844,10 +2889,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -2858,10 +2903,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -2872,10 +2917,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -2886,10 +2931,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -2900,10 +2945,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -2914,10 +2959,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -2928,10 +2973,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -2942,10 +2987,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -2956,10 +3001,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -2970,10 +3015,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="0">
         <v>0.215267</v>
@@ -2984,10 +3029,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="0">
         <v>0.204968</v>
@@ -2998,10 +3043,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="0">
         <v>0.20861</v>
@@ -3012,10 +3057,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="0">
         <v>0.192745</v>
@@ -3026,10 +3071,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="0">
         <v>0.177181</v>
@@ -3040,10 +3085,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="0">
         <v>0.171993</v>
@@ -3054,10 +3099,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="0">
         <v>0.180834</v>
@@ -3068,10 +3113,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="0">
         <v>0.177974</v>
@@ -3082,10 +3127,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="0">
         <v>0.177815</v>
@@ -3096,10 +3141,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="0">
         <v>0.171574</v>
@@ -3110,10 +3155,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" s="0">
         <v>0.165586</v>
@@ -3124,10 +3169,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" s="0">
         <v>0.168042</v>
@@ -3138,10 +3183,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="0">
         <v>0.165679</v>
@@ -3152,10 +3197,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="0">
         <v>0.158598</v>
@@ -3166,10 +3211,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" s="0">
         <v>0.181898</v>
@@ -3180,10 +3225,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="0">
         <v>0.180307</v>
@@ -3194,10 +3239,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" s="0">
         <v>0.175952</v>
@@ -3208,10 +3253,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" s="0">
         <v>0.169715</v>
@@ -3222,10 +3267,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" s="0">
         <v>0.17388</v>
@@ -3236,10 +3281,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" s="0">
         <v>0.170993</v>
@@ -3250,10 +3295,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" s="0">
         <v>0.171914</v>
@@ -3262,8 +3307,22 @@
         <v>36</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="0">
+        <v>0.173829</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D33"/>
+  <autoFilter ref="A1:D34"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3271,7 +3330,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3299,10 +3358,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -3313,10 +3372,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -3327,10 +3386,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -3341,10 +3400,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -3355,10 +3414,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -3369,10 +3428,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -3383,10 +3442,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -3397,10 +3456,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -3411,10 +3470,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -3425,10 +3484,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -3439,10 +3498,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -3453,10 +3512,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="0">
         <v>4746.42</v>
@@ -3467,10 +3526,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="0">
         <v>4518.21</v>
@@ -3481,10 +3540,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="0">
         <v>4524.56</v>
@@ -3495,10 +3554,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="0">
         <v>4109</v>
@@ -3509,10 +3568,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="0">
         <v>4162.25</v>
@@ -3523,10 +3582,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="0">
         <v>4184.03</v>
@@ -3537,10 +3596,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="0">
         <v>4367.46</v>
@@ -3551,10 +3610,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="0">
         <v>4331.56</v>
@@ -3565,10 +3624,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="0">
         <v>4382.01</v>
@@ -3579,10 +3638,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="0">
         <v>4154.05</v>
@@ -3593,10 +3652,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="0">
         <v>4032.48</v>
@@ -3607,10 +3666,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="0">
         <v>4038.87</v>
@@ -3621,10 +3680,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="0">
         <v>4005.24</v>
@@ -3635,10 +3694,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="0">
         <v>3794.29</v>
@@ -3649,10 +3708,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="0">
         <v>3849.59</v>
@@ -3663,10 +3722,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="0">
         <v>4009.86</v>
@@ -3677,10 +3736,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" s="0">
         <v>3986.63</v>
@@ -3691,10 +3750,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="0">
         <v>3868.55</v>
@@ -3705,10 +3764,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" s="0">
         <v>4003.7</v>
@@ -3719,10 +3778,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" s="0">
         <v>3930.43</v>
@@ -3733,10 +3792,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" s="0">
         <v>4056.61</v>
@@ -3745,8 +3804,22 @@
         <v>36</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="0">
+        <v>4059.53</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D33"/>
+  <autoFilter ref="A1:D34"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3754,7 +3827,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3782,10 +3855,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -3796,10 +3869,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -3810,10 +3883,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -3824,10 +3897,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -3838,10 +3911,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -3852,10 +3925,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -3866,10 +3939,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -3880,10 +3953,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -3894,10 +3967,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -3908,10 +3981,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -3922,10 +3995,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -3936,10 +4009,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="0">
         <v>211.61</v>
@@ -3950,10 +4023,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="0">
         <v>203.23</v>
@@ -3964,10 +4037,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="0">
         <v>201.01</v>
@@ -3978,10 +4051,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="0">
         <v>181.01</v>
@@ -3992,10 +4065,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="0">
         <v>160.26</v>
@@ -4006,10 +4079,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="0">
         <v>155.14</v>
@@ -4020,10 +4093,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="0">
         <v>160.95</v>
@@ -4034,10 +4107,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="0">
         <v>161.57</v>
@@ -4048,10 +4121,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="0">
         <v>160.59</v>
@@ -4062,10 +4135,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="0">
         <v>154.05</v>
@@ -4076,10 +4149,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="0">
         <v>152.08</v>
@@ -4090,10 +4163,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="0">
         <v>155.74</v>
@@ -4104,10 +4177,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" s="0">
         <v>154</v>
@@ -4118,10 +4191,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="0">
         <v>145.92</v>
@@ -4132,10 +4205,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" s="0">
         <v>150.11</v>
@@ -4146,10 +4219,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="0">
         <v>153.24</v>
@@ -4160,10 +4233,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" s="0">
         <v>150.23</v>
@@ -4174,10 +4247,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" s="0">
         <v>145.91</v>
@@ -4188,10 +4261,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" s="0">
         <v>154.68</v>
@@ -4202,10 +4275,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="0">
         <v>155.97</v>
@@ -4216,10 +4289,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" s="0">
         <v>155.24</v>
@@ -4228,8 +4301,22 @@
         <v>36</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="0">
+        <v>156.52</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D33"/>
+  <autoFilter ref="A1:D34"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4237,7 +4324,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4265,10 +4352,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -4279,10 +4366,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -4293,10 +4380,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -4307,10 +4394,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -4321,10 +4408,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -4335,10 +4422,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -4349,10 +4436,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -4363,10 +4450,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -4377,10 +4464,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -4391,10 +4478,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -4405,10 +4492,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="0">
         <v>204.08</v>
@@ -4419,10 +4506,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0">
         <v>215.33</v>
@@ -4433,10 +4520,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="0">
         <v>225.38</v>
@@ -4447,10 +4534,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="0">
         <v>231</v>
@@ -4461,10 +4548,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="0">
         <v>200.96</v>
@@ -4475,10 +4562,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="0">
         <v>195.88</v>
@@ -4489,10 +4576,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="0">
         <v>194.68</v>
@@ -4503,10 +4590,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="0">
         <v>196.72</v>
@@ -4517,10 +4604,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="0">
         <v>188.61</v>
@@ -4531,10 +4618,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="0">
         <v>190.45</v>
@@ -4545,10 +4632,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="0">
         <v>179.87</v>
@@ -4559,10 +4646,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="0">
         <v>170.4</v>
@@ -4573,10 +4660,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="0">
         <v>168.93</v>
@@ -4587,10 +4674,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="0">
         <v>167.2</v>
@@ -4601,10 +4688,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="0">
         <v>154.34</v>
@@ -4615,10 +4702,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" s="0">
         <v>160.95</v>
@@ -4629,10 +4716,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" s="0">
         <v>177.49</v>
@@ -4643,10 +4730,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" s="0">
         <v>179.72</v>
@@ -4657,10 +4744,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="0">
         <v>173.85</v>
@@ -4671,10 +4758,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" s="0">
         <v>184.62</v>
@@ -4685,10 +4772,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="0">
         <v>179.08</v>
@@ -4699,10 +4786,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" s="0">
         <v>178.52</v>
@@ -4711,8 +4798,22 @@
         <v>36</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="0">
+        <v>179.73</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D33"/>
+  <autoFilter ref="A1:D34"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4720,7 +4821,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4748,10 +4849,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -4762,10 +4863,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -4776,10 +4877,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -4790,10 +4891,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -4804,10 +4905,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -4818,10 +4919,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -4832,10 +4933,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -4846,10 +4947,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -4860,10 +4961,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -4874,10 +4975,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -4888,10 +4989,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="0">
         <v>20.22</v>
@@ -4902,10 +5003,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="0">
         <v>22.16</v>
@@ -4916,10 +5017,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="0">
         <v>22.34</v>
@@ -4930,10 +5031,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="0">
         <v>22.16</v>
@@ -4944,10 +5045,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="0">
         <v>19.26</v>
@@ -4958,10 +5059,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="0">
         <v>16.96</v>
@@ -4972,10 +5073,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="0">
         <v>16.43</v>
@@ -4986,10 +5087,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="0">
         <v>17.24</v>
@@ -5000,10 +5101,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="0">
         <v>17.51</v>
@@ -5014,10 +5115,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="0">
         <v>17.72</v>
@@ -5028,10 +5129,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="0">
         <v>16.11</v>
@@ -5042,10 +5143,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="0">
         <v>15.64</v>
@@ -5056,10 +5157,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="0">
         <v>15.67</v>
@@ -5070,10 +5171,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="0">
         <v>15.41</v>
@@ -5084,10 +5185,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" s="0">
         <v>14.24</v>
@@ -5098,10 +5199,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27" s="0">
         <v>15</v>
@@ -5112,10 +5213,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28" s="0">
         <v>15.1</v>
@@ -5126,10 +5227,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C29" s="0">
         <v>14.56</v>
@@ -5140,10 +5241,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C30" s="0">
         <v>15.38</v>
@@ -5154,10 +5255,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C31" s="0">
         <v>15.81</v>
@@ -5168,10 +5269,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" s="0">
         <v>14.82</v>
@@ -5182,10 +5283,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" s="0">
         <v>14.84</v>
@@ -5194,8 +5295,22 @@
         <v>36</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="0">
+        <v>15.41</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D33"/>
+  <autoFilter ref="A1:D34"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$34</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$34</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$34</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$34</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$34</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$34</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$34</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$34</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$34</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$34</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$34</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$34</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$34</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$34</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$34</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$34</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$34</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$34</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$34</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$34</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$34</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$34</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$34</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$34</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$34</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$34</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$34</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$34</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$34</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$34</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$34</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$34</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$35</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$35</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$35</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$35</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$35</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$35</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$35</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$35</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$35</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$35</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$35</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$35</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$35</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$35</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$35</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$35</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$35</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$35</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$35</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$35</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$35</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$35</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$35</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$35</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$35</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$35</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$35</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$35</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$35</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$35</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$35</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$35</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>12/22/2021</t>
+  </si>
+  <si>
+    <t>12/23/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1077,7 +1080,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart8A33"/>
+        <xdr:cNvPr id="0" name="ChartAF5E"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1112,7 +1115,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart8A91"/>
+        <xdr:cNvPr id="0" name="ChartAFBD"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1147,7 +1150,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart8AE1"/>
+        <xdr:cNvPr id="0" name="ChartB00C"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1182,7 +1185,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart8B10"/>
+        <xdr:cNvPr id="0" name="ChartB04C"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1217,7 +1220,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart8B50"/>
+        <xdr:cNvPr id="0" name="ChartB07C"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1252,7 +1255,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart8B8F"/>
+        <xdr:cNvPr id="0" name="ChartB0BB"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1287,7 +1290,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart8BCF"/>
+        <xdr:cNvPr id="0" name="ChartB0FB"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1322,7 +1325,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart8C0E"/>
+        <xdr:cNvPr id="0" name="ChartB14A"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1342,7 +1345,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1830,8 +1833,22 @@
         <v>37</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="0">
+        <v>48699</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D34"/>
+  <autoFilter ref="A1:D35"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1839,7 +1856,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1867,10 +1884,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1881,10 +1898,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1895,10 +1912,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1909,10 +1926,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1923,10 +1940,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1937,10 +1954,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1951,10 +1968,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1965,10 +1982,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -1979,10 +1996,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -1993,10 +2010,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -2007,10 +2024,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -2021,10 +2038,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="0">
         <v>1.58</v>
@@ -2035,10 +2052,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="0">
         <v>1.54</v>
@@ -2049,10 +2066,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="0">
         <v>1.69</v>
@@ -2063,10 +2080,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="0">
         <v>1.51</v>
@@ -2077,10 +2094,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="0">
         <v>1.39</v>
@@ -2091,10 +2108,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="0">
         <v>1.37</v>
@@ -2105,10 +2122,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="0">
         <v>1.45</v>
@@ -2119,10 +2136,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="0">
         <v>1.37</v>
@@ -2133,10 +2150,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="0">
         <v>1.37</v>
@@ -2147,10 +2164,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="0">
         <v>1.31</v>
@@ -2161,10 +2178,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="0">
         <v>1.24</v>
@@ -2175,10 +2192,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="0">
         <v>1.37</v>
@@ -2189,10 +2206,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="0">
         <v>1.31</v>
@@ -2203,10 +2220,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="0">
         <v>1.22</v>
@@ -2217,10 +2234,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="0">
         <v>1.25</v>
@@ -2231,10 +2248,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" s="0">
         <v>1.3</v>
@@ -2245,10 +2262,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" s="0">
         <v>1.26</v>
@@ -2259,10 +2276,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" s="0">
         <v>1.22</v>
@@ -2273,10 +2290,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="0">
         <v>1.3</v>
@@ -2287,10 +2304,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="0">
         <v>1.24</v>
@@ -2301,10 +2318,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C33" s="0">
         <v>1.27</v>
@@ -2315,10 +2332,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34" s="0">
         <v>1.3</v>
@@ -2327,8 +2344,22 @@
         <v>37</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="0">
+        <v>1.35</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D34"/>
+  <autoFilter ref="A1:D35"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2336,7 +2367,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2364,10 +2395,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -2378,10 +2409,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -2392,10 +2423,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -2406,10 +2437,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -2420,10 +2451,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -2434,10 +2465,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -2448,10 +2479,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -2462,10 +2493,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -2476,10 +2507,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -2490,10 +2521,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -2504,10 +2535,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -2518,10 +2549,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="0">
         <v>26.02</v>
@@ -2532,10 +2563,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="0">
         <v>24.67</v>
@@ -2546,10 +2577,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="0">
         <v>24.6</v>
@@ -2560,10 +2591,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="0">
         <v>22.29</v>
@@ -2574,10 +2605,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="0">
         <v>20.11</v>
@@ -2588,10 +2619,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="0">
         <v>19.19</v>
@@ -2602,10 +2633,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="0">
         <v>20.1</v>
@@ -2616,10 +2647,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="0">
         <v>21.85</v>
@@ -2630,10 +2661,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="0">
         <v>21.81</v>
@@ -2644,10 +2675,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" s="0">
         <v>20.19</v>
@@ -2658,10 +2689,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="0">
         <v>19.09</v>
@@ -2672,10 +2703,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="0">
         <v>19.63</v>
@@ -2686,10 +2717,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="0">
         <v>19.55</v>
@@ -2700,10 +2731,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="0">
         <v>17.96</v>
@@ -2714,10 +2745,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="0">
         <v>18.29</v>
@@ -2728,10 +2759,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="0">
         <v>19.79</v>
@@ -2742,10 +2773,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" s="0">
         <v>19.15</v>
@@ -2756,10 +2787,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="0">
         <v>18.46</v>
@@ -2770,10 +2801,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" s="0">
         <v>20.22</v>
@@ -2784,10 +2815,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="0">
         <v>18.99</v>
@@ -2798,10 +2829,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" s="0">
         <v>19.02</v>
@@ -2812,10 +2843,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" s="0">
         <v>19.86</v>
@@ -2824,8 +2855,22 @@
         <v>37</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="0">
+        <v>20.64</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D34"/>
+  <autoFilter ref="A1:D35"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2833,7 +2878,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2861,10 +2906,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -2875,10 +2920,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -2889,10 +2934,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -2903,10 +2948,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -2917,10 +2962,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -2931,10 +2976,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -2945,10 +2990,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -2959,10 +3004,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -2973,10 +3018,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -2987,10 +3032,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -3001,10 +3046,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -3015,10 +3060,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="0">
         <v>0.215267</v>
@@ -3029,10 +3074,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="0">
         <v>0.204968</v>
@@ -3043,10 +3088,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="0">
         <v>0.20861</v>
@@ -3057,10 +3102,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="0">
         <v>0.192745</v>
@@ -3071,10 +3116,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="0">
         <v>0.177181</v>
@@ -3085,10 +3130,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="0">
         <v>0.171993</v>
@@ -3099,10 +3144,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="0">
         <v>0.180834</v>
@@ -3113,10 +3158,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="0">
         <v>0.177974</v>
@@ -3127,10 +3172,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="0">
         <v>0.177815</v>
@@ -3141,10 +3186,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="0">
         <v>0.171574</v>
@@ -3155,10 +3200,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="0">
         <v>0.165586</v>
@@ -3169,10 +3214,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="0">
         <v>0.168042</v>
@@ -3183,10 +3228,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="0">
         <v>0.165679</v>
@@ -3197,10 +3242,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="0">
         <v>0.158598</v>
@@ -3211,10 +3256,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="0">
         <v>0.181898</v>
@@ -3225,10 +3270,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="0">
         <v>0.180307</v>
@@ -3239,10 +3284,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="0">
         <v>0.175952</v>
@@ -3253,10 +3298,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" s="0">
         <v>0.169715</v>
@@ -3267,10 +3312,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" s="0">
         <v>0.17388</v>
@@ -3281,10 +3326,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" s="0">
         <v>0.170993</v>
@@ -3295,10 +3340,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33" s="0">
         <v>0.171914</v>
@@ -3309,10 +3354,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" s="0">
         <v>0.173829</v>
@@ -3321,8 +3366,22 @@
         <v>37</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="0">
+        <v>0.176145</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D34"/>
+  <autoFilter ref="A1:D35"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3330,7 +3389,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3358,10 +3417,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -3372,10 +3431,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -3386,10 +3445,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -3400,10 +3459,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -3414,10 +3473,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -3428,10 +3487,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -3442,10 +3501,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -3456,10 +3515,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -3470,10 +3529,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -3484,10 +3543,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -3498,10 +3557,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -3512,10 +3571,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="0">
         <v>4746.42</v>
@@ -3526,10 +3585,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="0">
         <v>4518.21</v>
@@ -3540,10 +3599,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="0">
         <v>4524.56</v>
@@ -3554,10 +3613,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="0">
         <v>4109</v>
@@ -3568,10 +3627,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="0">
         <v>4162.25</v>
@@ -3582,10 +3641,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="0">
         <v>4184.03</v>
@@ -3596,10 +3655,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="0">
         <v>4367.46</v>
@@ -3610,10 +3669,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="0">
         <v>4331.56</v>
@@ -3624,10 +3683,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="0">
         <v>4382.01</v>
@@ -3638,10 +3697,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="0">
         <v>4154.05</v>
@@ -3652,10 +3711,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="0">
         <v>4032.48</v>
@@ -3666,10 +3725,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" s="0">
         <v>4038.87</v>
@@ -3680,10 +3739,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" s="0">
         <v>4005.24</v>
@@ -3694,10 +3753,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="0">
         <v>3794.29</v>
@@ -3708,10 +3767,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="0">
         <v>3849.59</v>
@@ -3722,10 +3781,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" s="0">
         <v>4009.86</v>
@@ -3736,10 +3795,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29" s="0">
         <v>3986.63</v>
@@ -3750,10 +3809,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" s="0">
         <v>3868.55</v>
@@ -3764,10 +3823,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="0">
         <v>4003.7</v>
@@ -3778,10 +3837,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="0">
         <v>3930.43</v>
@@ -3792,10 +3851,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33" s="0">
         <v>4056.61</v>
@@ -3806,10 +3865,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" s="0">
         <v>4059.53</v>
@@ -3818,8 +3877,22 @@
         <v>37</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="0">
+        <v>3975.8</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D34"/>
+  <autoFilter ref="A1:D35"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3827,7 +3900,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3855,10 +3928,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -3869,10 +3942,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -3883,10 +3956,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -3897,10 +3970,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -3911,10 +3984,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -3925,10 +3998,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -3939,10 +4012,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -3953,10 +4026,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -3967,10 +4040,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -3981,10 +4054,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -3995,10 +4068,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -4009,10 +4082,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="0">
         <v>211.61</v>
@@ -4023,10 +4096,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="0">
         <v>203.23</v>
@@ -4037,10 +4110,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="0">
         <v>201.01</v>
@@ -4051,10 +4124,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="0">
         <v>181.01</v>
@@ -4065,10 +4138,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="0">
         <v>160.26</v>
@@ -4079,10 +4152,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="0">
         <v>155.14</v>
@@ -4093,10 +4166,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="0">
         <v>160.95</v>
@@ -4107,10 +4180,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="0">
         <v>161.57</v>
@@ -4121,10 +4194,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="0">
         <v>160.59</v>
@@ -4135,10 +4208,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="0">
         <v>154.05</v>
@@ -4149,10 +4222,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="0">
         <v>152.08</v>
@@ -4163,10 +4236,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" s="0">
         <v>155.74</v>
@@ -4177,10 +4250,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25" s="0">
         <v>154</v>
@@ -4191,10 +4264,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="0">
         <v>145.92</v>
@@ -4205,10 +4278,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27" s="0">
         <v>150.11</v>
@@ -4219,10 +4292,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" s="0">
         <v>153.24</v>
@@ -4233,10 +4306,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="0">
         <v>150.23</v>
@@ -4247,10 +4320,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" s="0">
         <v>145.91</v>
@@ -4261,10 +4334,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" s="0">
         <v>154.68</v>
@@ -4275,10 +4348,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" s="0">
         <v>155.97</v>
@@ -4289,10 +4362,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" s="0">
         <v>155.24</v>
@@ -4303,10 +4376,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34" s="0">
         <v>156.52</v>
@@ -4315,8 +4388,22 @@
         <v>37</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="0">
+        <v>157.49</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D34"/>
+  <autoFilter ref="A1:D35"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4324,7 +4411,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4352,10 +4439,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -4366,10 +4453,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -4380,10 +4467,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -4394,10 +4481,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -4408,10 +4495,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -4422,10 +4509,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -4436,10 +4523,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -4450,10 +4537,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -4464,10 +4551,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -4478,10 +4565,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -4492,10 +4579,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="0">
         <v>204.08</v>
@@ -4506,10 +4593,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0">
         <v>215.33</v>
@@ -4520,10 +4607,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0">
         <v>225.38</v>
@@ -4534,10 +4621,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="0">
         <v>231</v>
@@ -4548,10 +4635,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="0">
         <v>200.96</v>
@@ -4562,10 +4649,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="0">
         <v>195.88</v>
@@ -4576,10 +4663,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="0">
         <v>194.68</v>
@@ -4590,10 +4677,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="0">
         <v>196.72</v>
@@ -4604,10 +4691,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="0">
         <v>188.61</v>
@@ -4618,10 +4705,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="0">
         <v>190.45</v>
@@ -4632,10 +4719,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="0">
         <v>179.87</v>
@@ -4646,10 +4733,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="0">
         <v>170.4</v>
@@ -4660,10 +4747,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="0">
         <v>168.93</v>
@@ -4674,10 +4761,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" s="0">
         <v>167.2</v>
@@ -4688,10 +4775,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="0">
         <v>154.34</v>
@@ -4702,10 +4789,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27" s="0">
         <v>160.95</v>
@@ -4716,10 +4803,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" s="0">
         <v>177.49</v>
@@ -4730,10 +4817,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="0">
         <v>179.72</v>
@@ -4744,10 +4831,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" s="0">
         <v>173.85</v>
@@ -4758,10 +4845,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="0">
         <v>184.62</v>
@@ -4772,10 +4859,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="0">
         <v>179.08</v>
@@ -4786,10 +4873,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" s="0">
         <v>178.52</v>
@@ -4800,10 +4887,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" s="0">
         <v>179.73</v>
@@ -4812,8 +4899,22 @@
         <v>37</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="0">
+        <v>181.3</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D34"/>
+  <autoFilter ref="A1:D35"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4821,7 +4922,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4849,10 +4950,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -4863,10 +4964,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -4877,10 +4978,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -4891,10 +4992,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -4905,10 +5006,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -4919,10 +5020,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -4933,10 +5034,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -4947,10 +5048,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -4961,10 +5062,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -4975,10 +5076,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -4989,10 +5090,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="0">
         <v>20.22</v>
@@ -5003,10 +5104,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="0">
         <v>22.16</v>
@@ -5017,10 +5118,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="0">
         <v>22.34</v>
@@ -5031,10 +5132,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="0">
         <v>22.16</v>
@@ -5045,10 +5146,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" s="0">
         <v>19.26</v>
@@ -5059,10 +5160,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" s="0">
         <v>16.96</v>
@@ -5073,10 +5174,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" s="0">
         <v>16.43</v>
@@ -5087,10 +5188,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" s="0">
         <v>17.24</v>
@@ -5101,10 +5202,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="0">
         <v>17.51</v>
@@ -5115,10 +5216,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="0">
         <v>17.72</v>
@@ -5129,10 +5230,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="0">
         <v>16.11</v>
@@ -5143,10 +5244,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="0">
         <v>15.64</v>
@@ -5157,10 +5258,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="0">
         <v>15.67</v>
@@ -5171,10 +5272,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="0">
         <v>15.41</v>
@@ -5185,10 +5286,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="0">
         <v>14.24</v>
@@ -5199,10 +5300,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" s="0">
         <v>15</v>
@@ -5213,10 +5314,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" s="0">
         <v>15.1</v>
@@ -5227,10 +5328,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" s="0">
         <v>14.56</v>
@@ -5241,10 +5342,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C30" s="0">
         <v>15.38</v>
@@ -5255,10 +5356,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31" s="0">
         <v>15.81</v>
@@ -5269,10 +5370,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C32" s="0">
         <v>14.82</v>
@@ -5283,10 +5384,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" s="0">
         <v>14.84</v>
@@ -5297,10 +5398,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" s="0">
         <v>15.41</v>
@@ -5309,8 +5410,22 @@
         <v>37</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="0">
+        <v>16.96</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D34"/>
+  <autoFilter ref="A1:D35"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$35</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$35</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$35</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$35</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$35</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$35</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$35</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$35</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$35</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$35</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$35</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$35</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$35</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$35</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$35</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$35</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$35</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$35</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$35</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$35</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$35</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$35</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$35</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$35</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$35</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$35</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$35</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$35</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$35</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$35</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$35</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$35</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$36</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$36</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$36</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$36</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$36</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$36</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$36</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$36</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$36</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$36</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$36</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$36</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$36</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$36</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$36</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$36</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$36</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$36</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$36</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$36</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$36</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$36</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$36</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$36</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$36</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$36</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$36</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$36</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$36</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$36</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$36</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$36</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>12/23/2021</t>
+  </si>
+  <si>
+    <t>12/24/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1080,7 +1083,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartAF5E"/>
+        <xdr:cNvPr id="0" name="Chart7870"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1115,7 +1118,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartAFBD"/>
+        <xdr:cNvPr id="0" name="Chart78CF"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1150,7 +1153,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB00C"/>
+        <xdr:cNvPr id="0" name="Chart790E"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1185,7 +1188,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB04C"/>
+        <xdr:cNvPr id="0" name="Chart793E"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1220,7 +1223,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB07C"/>
+        <xdr:cNvPr id="0" name="Chart796E"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1255,7 +1258,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB0BB"/>
+        <xdr:cNvPr id="0" name="Chart79AD"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1290,7 +1293,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB0FB"/>
+        <xdr:cNvPr id="0" name="Chart79ED"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1325,7 +1328,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB14A"/>
+        <xdr:cNvPr id="0" name="Chart7A2C"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1345,7 +1348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1847,8 +1850,22 @@
         <v>38</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="0">
+        <v>51222</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D35"/>
+  <autoFilter ref="A1:D36"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1856,7 +1873,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1884,10 +1901,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1898,10 +1915,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1912,10 +1929,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1926,10 +1943,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1940,10 +1957,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1954,10 +1971,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1968,10 +1985,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1982,10 +1999,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -1996,10 +2013,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -2010,10 +2027,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -2024,10 +2041,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -2038,10 +2055,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="0">
         <v>1.58</v>
@@ -2052,10 +2069,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="0">
         <v>1.54</v>
@@ -2066,10 +2083,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="0">
         <v>1.69</v>
@@ -2080,10 +2097,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="0">
         <v>1.51</v>
@@ -2094,10 +2111,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="0">
         <v>1.39</v>
@@ -2108,10 +2125,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="0">
         <v>1.37</v>
@@ -2122,10 +2139,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="0">
         <v>1.45</v>
@@ -2136,10 +2153,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="0">
         <v>1.37</v>
@@ -2150,10 +2167,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="0">
         <v>1.37</v>
@@ -2164,10 +2181,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="0">
         <v>1.31</v>
@@ -2178,10 +2195,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="0">
         <v>1.24</v>
@@ -2192,10 +2209,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="0">
         <v>1.37</v>
@@ -2206,10 +2223,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="0">
         <v>1.31</v>
@@ -2220,10 +2237,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="0">
         <v>1.22</v>
@@ -2234,10 +2251,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="0">
         <v>1.25</v>
@@ -2248,10 +2265,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="0">
         <v>1.3</v>
@@ -2262,10 +2279,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" s="0">
         <v>1.26</v>
@@ -2276,10 +2293,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" s="0">
         <v>1.22</v>
@@ -2290,10 +2307,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="0">
         <v>1.3</v>
@@ -2304,10 +2321,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" s="0">
         <v>1.24</v>
@@ -2318,10 +2335,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33" s="0">
         <v>1.27</v>
@@ -2332,10 +2349,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" s="0">
         <v>1.3</v>
@@ -2346,10 +2363,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35" s="0">
         <v>1.35</v>
@@ -2358,8 +2375,22 @@
         <v>38</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="0">
+        <v>1.46</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D35"/>
+  <autoFilter ref="A1:D36"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2367,7 +2398,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2395,10 +2426,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -2409,10 +2440,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -2423,10 +2454,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -2437,10 +2468,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -2451,10 +2482,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -2465,10 +2496,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -2479,10 +2510,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -2493,10 +2524,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -2507,10 +2538,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -2521,10 +2552,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -2535,10 +2566,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -2549,10 +2580,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="0">
         <v>26.02</v>
@@ -2563,10 +2594,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="0">
         <v>24.67</v>
@@ -2577,10 +2608,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="0">
         <v>24.6</v>
@@ -2591,10 +2622,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="0">
         <v>22.29</v>
@@ -2605,10 +2636,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="0">
         <v>20.11</v>
@@ -2619,10 +2650,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="0">
         <v>19.19</v>
@@ -2633,10 +2664,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="0">
         <v>20.1</v>
@@ -2647,10 +2678,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="0">
         <v>21.85</v>
@@ -2661,10 +2692,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="0">
         <v>21.81</v>
@@ -2675,10 +2706,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="0">
         <v>20.19</v>
@@ -2689,10 +2720,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" s="0">
         <v>19.09</v>
@@ -2703,10 +2734,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" s="0">
         <v>19.63</v>
@@ -2717,10 +2748,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="0">
         <v>19.55</v>
@@ -2731,10 +2762,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="0">
         <v>17.96</v>
@@ -2745,10 +2776,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" s="0">
         <v>18.29</v>
@@ -2759,10 +2790,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="0">
         <v>19.79</v>
@@ -2773,10 +2804,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" s="0">
         <v>19.15</v>
@@ -2787,10 +2818,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" s="0">
         <v>18.46</v>
@@ -2801,10 +2832,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" s="0">
         <v>20.22</v>
@@ -2815,10 +2846,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" s="0">
         <v>18.99</v>
@@ -2829,10 +2860,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" s="0">
         <v>19.02</v>
@@ -2843,10 +2874,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" s="0">
         <v>19.86</v>
@@ -2857,10 +2888,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" s="0">
         <v>20.64</v>
@@ -2869,8 +2900,22 @@
         <v>38</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="0">
+        <v>22.18</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D35"/>
+  <autoFilter ref="A1:D36"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2878,7 +2923,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2906,10 +2951,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -2920,10 +2965,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -2934,10 +2979,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -2948,10 +2993,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -2962,10 +3007,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -2976,10 +3021,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -2990,10 +3035,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -3004,10 +3049,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -3018,10 +3063,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -3032,10 +3077,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -3046,10 +3091,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -3060,10 +3105,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="0">
         <v>0.215267</v>
@@ -3074,10 +3119,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="0">
         <v>0.204968</v>
@@ -3088,10 +3133,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="0">
         <v>0.20861</v>
@@ -3102,10 +3147,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="0">
         <v>0.192745</v>
@@ -3116,10 +3161,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="0">
         <v>0.177181</v>
@@ -3130,10 +3175,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="0">
         <v>0.171993</v>
@@ -3144,10 +3189,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="0">
         <v>0.180834</v>
@@ -3158,10 +3203,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="0">
         <v>0.177974</v>
@@ -3172,10 +3217,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="0">
         <v>0.177815</v>
@@ -3186,10 +3231,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="0">
         <v>0.171574</v>
@@ -3200,10 +3245,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="0">
         <v>0.165586</v>
@@ -3214,10 +3259,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="0">
         <v>0.168042</v>
@@ -3228,10 +3273,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="0">
         <v>0.165679</v>
@@ -3242,10 +3287,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="0">
         <v>0.158598</v>
@@ -3256,10 +3301,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="0">
         <v>0.181898</v>
@@ -3270,10 +3315,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="0">
         <v>0.180307</v>
@@ -3284,10 +3329,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" s="0">
         <v>0.175952</v>
@@ -3298,10 +3343,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="0">
         <v>0.169715</v>
@@ -3312,10 +3357,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" s="0">
         <v>0.17388</v>
@@ -3326,10 +3371,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" s="0">
         <v>0.170993</v>
@@ -3340,10 +3385,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" s="0">
         <v>0.171914</v>
@@ -3354,10 +3399,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" s="0">
         <v>0.173829</v>
@@ -3368,10 +3413,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" s="0">
         <v>0.176145</v>
@@ -3380,8 +3425,22 @@
         <v>38</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="0">
+        <v>0.183197</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D35"/>
+  <autoFilter ref="A1:D36"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3389,7 +3448,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3417,10 +3476,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -3431,10 +3490,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -3445,10 +3504,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -3459,10 +3518,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -3473,10 +3532,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -3487,10 +3546,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -3501,10 +3560,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -3515,10 +3574,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -3529,10 +3588,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -3543,10 +3602,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -3557,10 +3616,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -3571,10 +3630,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="0">
         <v>4746.42</v>
@@ -3585,10 +3644,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="0">
         <v>4518.21</v>
@@ -3599,10 +3658,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="0">
         <v>4524.56</v>
@@ -3613,10 +3672,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="0">
         <v>4109</v>
@@ -3627,10 +3686,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="0">
         <v>4162.25</v>
@@ -3641,10 +3700,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="0">
         <v>4184.03</v>
@@ -3655,10 +3714,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="0">
         <v>4367.46</v>
@@ -3669,10 +3728,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="0">
         <v>4331.56</v>
@@ -3683,10 +3742,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="0">
         <v>4382.01</v>
@@ -3697,10 +3756,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="0">
         <v>4154.05</v>
@@ -3711,10 +3770,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="0">
         <v>4032.48</v>
@@ -3725,10 +3784,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="0">
         <v>4038.87</v>
@@ -3739,10 +3798,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" s="0">
         <v>4005.24</v>
@@ -3753,10 +3812,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="0">
         <v>3794.29</v>
@@ -3767,10 +3826,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" s="0">
         <v>3849.59</v>
@@ -3781,10 +3840,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="0">
         <v>4009.86</v>
@@ -3795,10 +3854,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" s="0">
         <v>3986.63</v>
@@ -3809,10 +3868,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" s="0">
         <v>3868.55</v>
@@ -3823,10 +3882,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" s="0">
         <v>4003.7</v>
@@ -3837,10 +3896,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="0">
         <v>3930.43</v>
@@ -3851,10 +3910,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" s="0">
         <v>4056.61</v>
@@ -3865,10 +3924,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34" s="0">
         <v>4059.53</v>
@@ -3879,10 +3938,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35" s="0">
         <v>3975.8</v>
@@ -3891,8 +3950,22 @@
         <v>38</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="0">
+        <v>4109.66</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D35"/>
+  <autoFilter ref="A1:D36"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3900,7 +3973,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3928,10 +4001,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -3942,10 +4015,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -3956,10 +4029,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -3970,10 +4043,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -3984,10 +4057,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -3998,10 +4071,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -4012,10 +4085,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -4026,10 +4099,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -4040,10 +4113,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -4054,10 +4127,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -4068,10 +4141,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -4082,10 +4155,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0">
         <v>211.61</v>
@@ -4096,10 +4169,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="0">
         <v>203.23</v>
@@ -4110,10 +4183,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="0">
         <v>201.01</v>
@@ -4124,10 +4197,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="0">
         <v>181.01</v>
@@ -4138,10 +4211,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="0">
         <v>160.26</v>
@@ -4152,10 +4225,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="0">
         <v>155.14</v>
@@ -4166,10 +4239,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="0">
         <v>160.95</v>
@@ -4180,10 +4253,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="0">
         <v>161.57</v>
@@ -4194,10 +4267,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="0">
         <v>160.59</v>
@@ -4208,10 +4281,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="0">
         <v>154.05</v>
@@ -4222,10 +4295,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="0">
         <v>152.08</v>
@@ -4236,10 +4309,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="0">
         <v>155.74</v>
@@ -4250,10 +4323,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="0">
         <v>154</v>
@@ -4264,10 +4337,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="0">
         <v>145.92</v>
@@ -4278,10 +4351,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" s="0">
         <v>150.11</v>
@@ -4292,10 +4365,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" s="0">
         <v>153.24</v>
@@ -4306,10 +4379,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" s="0">
         <v>150.23</v>
@@ -4320,10 +4393,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="0">
         <v>145.91</v>
@@ -4334,10 +4407,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" s="0">
         <v>154.68</v>
@@ -4348,10 +4421,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="0">
         <v>155.97</v>
@@ -4362,10 +4435,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" s="0">
         <v>155.24</v>
@@ -4376,10 +4449,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" s="0">
         <v>156.52</v>
@@ -4390,10 +4463,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35" s="0">
         <v>157.49</v>
@@ -4402,8 +4475,22 @@
         <v>38</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="0">
+        <v>165.95</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D35"/>
+  <autoFilter ref="A1:D36"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4411,7 +4498,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4439,10 +4526,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -4453,10 +4540,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -4467,10 +4554,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -4481,10 +4568,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -4495,10 +4582,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -4509,10 +4596,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -4523,10 +4610,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -4537,10 +4624,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -4551,10 +4638,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -4565,10 +4652,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -4579,10 +4666,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="0">
         <v>204.08</v>
@@ -4593,10 +4680,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="0">
         <v>215.33</v>
@@ -4607,10 +4694,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="0">
         <v>225.38</v>
@@ -4621,10 +4708,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="0">
         <v>231</v>
@@ -4635,10 +4722,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="0">
         <v>200.96</v>
@@ -4649,10 +4736,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="0">
         <v>195.88</v>
@@ -4663,10 +4750,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="0">
         <v>194.68</v>
@@ -4677,10 +4764,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="0">
         <v>196.72</v>
@@ -4691,10 +4778,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="0">
         <v>188.61</v>
@@ -4705,10 +4792,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="0">
         <v>190.45</v>
@@ -4719,10 +4806,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="0">
         <v>179.87</v>
@@ -4733,10 +4820,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="0">
         <v>170.4</v>
@@ -4747,10 +4834,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="0">
         <v>168.93</v>
@@ -4761,10 +4848,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="0">
         <v>167.2</v>
@@ -4775,10 +4862,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" s="0">
         <v>154.34</v>
@@ -4789,10 +4876,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27" s="0">
         <v>160.95</v>
@@ -4803,10 +4890,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28" s="0">
         <v>177.49</v>
@@ -4817,10 +4904,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C29" s="0">
         <v>179.72</v>
@@ -4831,10 +4918,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C30" s="0">
         <v>173.85</v>
@@ -4845,10 +4932,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C31" s="0">
         <v>184.62</v>
@@ -4859,10 +4946,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" s="0">
         <v>179.08</v>
@@ -4873,10 +4960,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" s="0">
         <v>178.52</v>
@@ -4887,10 +4974,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34" s="0">
         <v>179.73</v>
@@ -4901,10 +4988,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35" s="0">
         <v>181.3</v>
@@ -4913,8 +5000,22 @@
         <v>38</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="0">
+        <v>188.96</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D35"/>
+  <autoFilter ref="A1:D36"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4922,7 +5023,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4950,10 +5051,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -4964,10 +5065,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -4978,10 +5079,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -4992,10 +5093,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -5006,10 +5107,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -5020,10 +5121,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -5034,10 +5135,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -5048,10 +5149,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -5062,10 +5163,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -5076,10 +5177,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -5090,10 +5191,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="0">
         <v>20.22</v>
@@ -5104,10 +5205,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="0">
         <v>22.16</v>
@@ -5118,10 +5219,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0">
         <v>22.34</v>
@@ -5132,10 +5233,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="0">
         <v>22.16</v>
@@ -5146,10 +5247,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="0">
         <v>19.26</v>
@@ -5160,10 +5261,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="0">
         <v>16.96</v>
@@ -5174,10 +5275,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" s="0">
         <v>16.43</v>
@@ -5188,10 +5289,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="0">
         <v>17.24</v>
@@ -5202,10 +5303,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="0">
         <v>17.51</v>
@@ -5216,10 +5317,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="0">
         <v>17.72</v>
@@ -5230,10 +5331,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="0">
         <v>16.11</v>
@@ -5244,10 +5345,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" s="0">
         <v>15.64</v>
@@ -5258,10 +5359,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="0">
         <v>15.67</v>
@@ -5272,10 +5373,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="0">
         <v>15.41</v>
@@ -5286,10 +5387,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="0">
         <v>14.24</v>
@@ -5300,10 +5401,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C27" s="0">
         <v>15</v>
@@ -5314,10 +5415,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" s="0">
         <v>15.1</v>
@@ -5328,10 +5429,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29" s="0">
         <v>14.56</v>
@@ -5342,10 +5443,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30" s="0">
         <v>15.38</v>
@@ -5356,10 +5457,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C31" s="0">
         <v>15.81</v>
@@ -5370,10 +5471,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" s="0">
         <v>14.82</v>
@@ -5384,10 +5485,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" s="0">
         <v>14.84</v>
@@ -5398,10 +5499,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" s="0">
         <v>15.41</v>
@@ -5412,10 +5513,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" s="0">
         <v>16.96</v>
@@ -5424,8 +5525,22 @@
         <v>38</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="0">
+        <v>17.63</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D35"/>
+  <autoFilter ref="A1:D36"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$36</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$36</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$36</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$36</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$36</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$36</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$36</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$36</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$36</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$36</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$36</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$36</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$36</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$36</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$36</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$36</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$36</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$36</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$36</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$36</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$36</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$36</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$36</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$36</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$36</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$36</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$36</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$36</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$36</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$36</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$36</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$36</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$37</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$37</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$37</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$37</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$37</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$37</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$37</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$37</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$37</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$37</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$37</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$37</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$37</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$37</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$37</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$37</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$37</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$37</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$37</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$37</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$37</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$37</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$37</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$37</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$37</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$37</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$37</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$37</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$37</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$37</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$37</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$37</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>12/24/2021</t>
+  </si>
+  <si>
+    <t>12/25/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1083,7 +1086,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart7870"/>
+        <xdr:cNvPr id="0" name="ChartA9FB"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1118,7 +1121,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart78CF"/>
+        <xdr:cNvPr id="0" name="ChartAA59"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1153,7 +1156,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart790E"/>
+        <xdr:cNvPr id="0" name="ChartAAB8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1188,7 +1191,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart793E"/>
+        <xdr:cNvPr id="0" name="ChartAAE8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1223,7 +1226,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart796E"/>
+        <xdr:cNvPr id="0" name="ChartAB18"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1258,7 +1261,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart79AD"/>
+        <xdr:cNvPr id="0" name="ChartAB48"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1293,7 +1296,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart79ED"/>
+        <xdr:cNvPr id="0" name="ChartAB87"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1328,7 +1331,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart7A2C"/>
+        <xdr:cNvPr id="0" name="ChartABC7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1348,7 +1351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1864,8 +1867,22 @@
         <v>39</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="0">
+        <v>51182</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D36"/>
+  <autoFilter ref="A1:D37"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1873,7 +1890,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1901,10 +1918,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1915,10 +1932,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1929,10 +1946,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1943,10 +1960,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1957,10 +1974,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1971,10 +1988,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -1985,10 +2002,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -1999,10 +2016,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -2013,10 +2030,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -2027,10 +2044,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -2041,10 +2058,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -2055,10 +2072,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="0">
         <v>1.58</v>
@@ -2069,10 +2086,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="0">
         <v>1.54</v>
@@ -2083,10 +2100,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="0">
         <v>1.69</v>
@@ -2097,10 +2114,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="0">
         <v>1.51</v>
@@ -2111,10 +2128,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="0">
         <v>1.39</v>
@@ -2125,10 +2142,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="0">
         <v>1.37</v>
@@ -2139,10 +2156,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="0">
         <v>1.45</v>
@@ -2153,10 +2170,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="0">
         <v>1.37</v>
@@ -2167,10 +2184,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="0">
         <v>1.37</v>
@@ -2181,10 +2198,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" s="0">
         <v>1.31</v>
@@ -2195,10 +2212,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="0">
         <v>1.24</v>
@@ -2209,10 +2226,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="0">
         <v>1.37</v>
@@ -2223,10 +2240,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="0">
         <v>1.31</v>
@@ -2237,10 +2254,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="0">
         <v>1.22</v>
@@ -2251,10 +2268,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="0">
         <v>1.25</v>
@@ -2265,10 +2282,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="0">
         <v>1.3</v>
@@ -2279,10 +2296,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" s="0">
         <v>1.26</v>
@@ -2293,10 +2310,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="0">
         <v>1.22</v>
@@ -2307,10 +2324,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" s="0">
         <v>1.3</v>
@@ -2321,10 +2338,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="0">
         <v>1.24</v>
@@ -2335,10 +2352,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" s="0">
         <v>1.27</v>
@@ -2349,10 +2366,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" s="0">
         <v>1.3</v>
@@ -2363,10 +2380,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C35" s="0">
         <v>1.35</v>
@@ -2377,10 +2394,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" s="0">
         <v>1.46</v>
@@ -2389,8 +2406,22 @@
         <v>39</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="0">
+        <v>1.41</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D36"/>
+  <autoFilter ref="A1:D37"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2398,7 +2429,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2426,10 +2457,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -2440,10 +2471,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -2454,10 +2485,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -2468,10 +2499,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -2482,10 +2513,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -2496,10 +2527,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -2510,10 +2541,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -2524,10 +2555,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -2538,10 +2569,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -2552,10 +2583,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -2566,10 +2597,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -2580,10 +2611,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="0">
         <v>26.02</v>
@@ -2594,10 +2625,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="0">
         <v>24.67</v>
@@ -2608,10 +2639,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="0">
         <v>24.6</v>
@@ -2622,10 +2653,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="0">
         <v>22.29</v>
@@ -2636,10 +2667,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="0">
         <v>20.11</v>
@@ -2650,10 +2681,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="0">
         <v>19.19</v>
@@ -2664,10 +2695,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="0">
         <v>20.1</v>
@@ -2678,10 +2709,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="0">
         <v>21.85</v>
@@ -2692,10 +2723,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="0">
         <v>21.81</v>
@@ -2706,10 +2737,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="0">
         <v>20.19</v>
@@ -2720,10 +2751,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="0">
         <v>19.09</v>
@@ -2734,10 +2765,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="0">
         <v>19.63</v>
@@ -2748,10 +2779,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="0">
         <v>19.55</v>
@@ -2762,10 +2793,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="0">
         <v>17.96</v>
@@ -2776,10 +2807,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="0">
         <v>18.29</v>
@@ -2790,10 +2821,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="0">
         <v>19.79</v>
@@ -2804,10 +2835,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="0">
         <v>19.15</v>
@@ -2818,10 +2849,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" s="0">
         <v>18.46</v>
@@ -2832,10 +2863,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" s="0">
         <v>20.22</v>
@@ -2846,10 +2877,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" s="0">
         <v>18.99</v>
@@ -2860,10 +2891,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33" s="0">
         <v>19.02</v>
@@ -2874,10 +2905,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" s="0">
         <v>19.86</v>
@@ -2888,10 +2919,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C35" s="0">
         <v>20.64</v>
@@ -2902,10 +2933,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" s="0">
         <v>22.18</v>
@@ -2914,8 +2945,22 @@
         <v>39</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="0">
+        <v>21.71</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D36"/>
+  <autoFilter ref="A1:D37"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2923,7 +2968,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2951,10 +2996,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -2965,10 +3010,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -2979,10 +3024,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -2993,10 +3038,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -3007,10 +3052,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -3021,10 +3066,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -3035,10 +3080,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -3049,10 +3094,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -3063,10 +3108,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -3077,10 +3122,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -3091,10 +3136,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -3105,10 +3150,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="0">
         <v>0.215267</v>
@@ -3119,10 +3164,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="0">
         <v>0.204968</v>
@@ -3133,10 +3178,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="0">
         <v>0.20861</v>
@@ -3147,10 +3192,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="0">
         <v>0.192745</v>
@@ -3161,10 +3206,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="0">
         <v>0.177181</v>
@@ -3175,10 +3220,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="0">
         <v>0.171993</v>
@@ -3189,10 +3234,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="0">
         <v>0.180834</v>
@@ -3203,10 +3248,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="0">
         <v>0.177974</v>
@@ -3217,10 +3262,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="0">
         <v>0.177815</v>
@@ -3231,10 +3276,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="0">
         <v>0.171574</v>
@@ -3245,10 +3290,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="0">
         <v>0.165586</v>
@@ -3259,10 +3304,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" s="0">
         <v>0.168042</v>
@@ -3273,10 +3318,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" s="0">
         <v>0.165679</v>
@@ -3287,10 +3332,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="0">
         <v>0.158598</v>
@@ -3301,10 +3346,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="0">
         <v>0.181898</v>
@@ -3315,10 +3360,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" s="0">
         <v>0.180307</v>
@@ -3329,10 +3374,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29" s="0">
         <v>0.175952</v>
@@ -3343,10 +3388,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" s="0">
         <v>0.169715</v>
@@ -3357,10 +3402,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="0">
         <v>0.17388</v>
@@ -3371,10 +3416,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="0">
         <v>0.170993</v>
@@ -3385,10 +3430,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33" s="0">
         <v>0.171914</v>
@@ -3399,10 +3444,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" s="0">
         <v>0.173829</v>
@@ -3413,10 +3458,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" s="0">
         <v>0.176145</v>
@@ -3427,10 +3472,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" s="0">
         <v>0.183197</v>
@@ -3439,8 +3484,22 @@
         <v>39</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="0">
+        <v>0.189594</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D36"/>
+  <autoFilter ref="A1:D37"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3448,7 +3507,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3476,10 +3535,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -3490,10 +3549,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -3504,10 +3563,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -3518,10 +3577,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -3532,10 +3591,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -3546,10 +3605,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -3560,10 +3619,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -3574,10 +3633,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -3588,10 +3647,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -3602,10 +3661,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -3616,10 +3675,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -3630,10 +3689,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="0">
         <v>4746.42</v>
@@ -3644,10 +3703,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="0">
         <v>4518.21</v>
@@ -3658,10 +3717,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="0">
         <v>4524.56</v>
@@ -3672,10 +3731,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="0">
         <v>4109</v>
@@ -3686,10 +3745,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="0">
         <v>4162.25</v>
@@ -3700,10 +3759,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="0">
         <v>4184.03</v>
@@ -3714,10 +3773,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="0">
         <v>4367.46</v>
@@ -3728,10 +3787,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="0">
         <v>4331.56</v>
@@ -3742,10 +3801,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="0">
         <v>4382.01</v>
@@ -3756,10 +3815,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="0">
         <v>4154.05</v>
@@ -3770,10 +3829,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="0">
         <v>4032.48</v>
@@ -3784,10 +3843,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" s="0">
         <v>4038.87</v>
@@ -3798,10 +3857,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25" s="0">
         <v>4005.24</v>
@@ -3812,10 +3871,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="0">
         <v>3794.29</v>
@@ -3826,10 +3885,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27" s="0">
         <v>3849.59</v>
@@ -3840,10 +3899,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" s="0">
         <v>4009.86</v>
@@ -3854,10 +3913,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="0">
         <v>3986.63</v>
@@ -3868,10 +3927,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" s="0">
         <v>3868.55</v>
@@ -3882,10 +3941,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" s="0">
         <v>4003.7</v>
@@ -3896,10 +3955,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" s="0">
         <v>3930.43</v>
@@ -3910,10 +3969,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" s="0">
         <v>4056.61</v>
@@ -3924,10 +3983,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34" s="0">
         <v>4059.53</v>
@@ -3938,10 +3997,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35" s="0">
         <v>3975.8</v>
@@ -3952,10 +4011,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36" s="0">
         <v>4109.66</v>
@@ -3964,8 +4023,22 @@
         <v>39</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="0">
+        <v>4059.91</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D36"/>
+  <autoFilter ref="A1:D37"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3973,7 +4046,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4001,10 +4074,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -4015,10 +4088,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -4029,10 +4102,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -4043,10 +4116,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -4057,10 +4130,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -4071,10 +4144,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -4085,10 +4158,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -4099,10 +4172,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -4113,10 +4186,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -4127,10 +4200,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -4141,10 +4214,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -4155,10 +4228,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0">
         <v>211.61</v>
@@ -4169,10 +4242,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0">
         <v>203.23</v>
@@ -4183,10 +4256,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="0">
         <v>201.01</v>
@@ -4197,10 +4270,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="0">
         <v>181.01</v>
@@ -4211,10 +4284,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="0">
         <v>160.26</v>
@@ -4225,10 +4298,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="0">
         <v>155.14</v>
@@ -4239,10 +4312,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="0">
         <v>160.95</v>
@@ -4253,10 +4326,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="0">
         <v>161.57</v>
@@ -4267,10 +4340,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="0">
         <v>160.59</v>
@@ -4281,10 +4354,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="0">
         <v>154.05</v>
@@ -4295,10 +4368,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="0">
         <v>152.08</v>
@@ -4309,10 +4382,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="0">
         <v>155.74</v>
@@ -4323,10 +4396,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" s="0">
         <v>154</v>
@@ -4337,10 +4410,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="0">
         <v>145.92</v>
@@ -4351,10 +4424,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27" s="0">
         <v>150.11</v>
@@ -4365,10 +4438,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" s="0">
         <v>153.24</v>
@@ -4379,10 +4452,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="0">
         <v>150.23</v>
@@ -4393,10 +4466,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" s="0">
         <v>145.91</v>
@@ -4407,10 +4480,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="0">
         <v>154.68</v>
@@ -4421,10 +4494,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="0">
         <v>155.97</v>
@@ -4435,10 +4508,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" s="0">
         <v>155.24</v>
@@ -4449,10 +4522,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" s="0">
         <v>156.52</v>
@@ -4463,10 +4536,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" s="0">
         <v>157.49</v>
@@ -4477,10 +4550,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" s="0">
         <v>165.95</v>
@@ -4489,8 +4562,22 @@
         <v>39</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="0">
+        <v>162.11</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D36"/>
+  <autoFilter ref="A1:D37"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4498,7 +4585,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4526,10 +4613,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -4540,10 +4627,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -4554,10 +4641,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -4568,10 +4655,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -4582,10 +4669,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -4596,10 +4683,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -4610,10 +4697,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -4624,10 +4711,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -4638,10 +4725,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -4652,10 +4739,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -4666,10 +4753,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="0">
         <v>204.08</v>
@@ -4680,10 +4767,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="0">
         <v>215.33</v>
@@ -4694,10 +4781,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="0">
         <v>225.38</v>
@@ -4708,10 +4795,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="0">
         <v>231</v>
@@ -4722,10 +4809,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" s="0">
         <v>200.96</v>
@@ -4736,10 +4823,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" s="0">
         <v>195.88</v>
@@ -4750,10 +4837,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" s="0">
         <v>194.68</v>
@@ -4764,10 +4851,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" s="0">
         <v>196.72</v>
@@ -4778,10 +4865,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="0">
         <v>188.61</v>
@@ -4792,10 +4879,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="0">
         <v>190.45</v>
@@ -4806,10 +4893,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="0">
         <v>179.87</v>
@@ -4820,10 +4907,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="0">
         <v>170.4</v>
@@ -4834,10 +4921,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="0">
         <v>168.93</v>
@@ -4848,10 +4935,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="0">
         <v>167.2</v>
@@ -4862,10 +4949,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="0">
         <v>154.34</v>
@@ -4876,10 +4963,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" s="0">
         <v>160.95</v>
@@ -4890,10 +4977,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" s="0">
         <v>177.49</v>
@@ -4904,10 +4991,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" s="0">
         <v>179.72</v>
@@ -4918,10 +5005,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C30" s="0">
         <v>173.85</v>
@@ -4932,10 +5019,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31" s="0">
         <v>184.62</v>
@@ -4946,10 +5033,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C32" s="0">
         <v>179.08</v>
@@ -4960,10 +5047,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" s="0">
         <v>178.52</v>
@@ -4974,10 +5061,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" s="0">
         <v>179.73</v>
@@ -4988,10 +5075,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" s="0">
         <v>181.3</v>
@@ -5002,10 +5089,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36" s="0">
         <v>188.96</v>
@@ -5014,8 +5101,22 @@
         <v>39</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="0">
+        <v>193.13</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D36"/>
+  <autoFilter ref="A1:D37"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5023,7 +5124,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5051,10 +5152,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -5065,10 +5166,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -5079,10 +5180,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -5093,10 +5194,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -5107,10 +5208,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -5121,10 +5222,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -5135,10 +5236,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -5149,10 +5250,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -5163,10 +5264,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -5177,10 +5278,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -5191,10 +5292,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="0">
         <v>20.22</v>
@@ -5205,10 +5306,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="0">
         <v>22.16</v>
@@ -5219,10 +5320,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="0">
         <v>22.34</v>
@@ -5233,10 +5334,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="0">
         <v>22.16</v>
@@ -5247,10 +5348,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="0">
         <v>19.26</v>
@@ -5261,10 +5362,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="0">
         <v>16.96</v>
@@ -5275,10 +5376,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="0">
         <v>16.43</v>
@@ -5289,10 +5390,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="0">
         <v>17.24</v>
@@ -5303,10 +5404,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" s="0">
         <v>17.51</v>
@@ -5317,10 +5418,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="0">
         <v>17.72</v>
@@ -5331,10 +5432,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="0">
         <v>16.11</v>
@@ -5345,10 +5446,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="0">
         <v>15.64</v>
@@ -5359,10 +5460,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="0">
         <v>15.67</v>
@@ -5373,10 +5474,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="0">
         <v>15.41</v>
@@ -5387,10 +5488,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="0">
         <v>14.24</v>
@@ -5401,10 +5502,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" s="0">
         <v>15</v>
@@ -5415,10 +5516,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28" s="0">
         <v>15.1</v>
@@ -5429,10 +5530,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C29" s="0">
         <v>14.56</v>
@@ -5443,10 +5544,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C30" s="0">
         <v>15.38</v>
@@ -5457,10 +5558,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C31" s="0">
         <v>15.81</v>
@@ -5471,10 +5572,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C32" s="0">
         <v>14.82</v>
@@ -5485,10 +5586,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" s="0">
         <v>14.84</v>
@@ -5499,10 +5600,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34" s="0">
         <v>15.41</v>
@@ -5513,10 +5614,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="0">
         <v>16.96</v>
@@ -5527,10 +5628,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" s="0">
         <v>17.63</v>
@@ -5539,8 +5640,22 @@
         <v>39</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="0">
+        <v>17.65</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D36"/>
+  <autoFilter ref="A1:D37"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$37</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$37</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$37</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$37</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$37</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$37</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$37</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$37</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$37</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$37</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$37</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$37</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$37</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$37</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$37</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$37</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$37</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$37</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$37</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$37</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$37</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$37</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$37</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$37</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$37</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$37</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$37</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$37</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$37</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$37</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$37</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$37</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$38</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$38</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$38</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$38</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$38</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$38</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$38</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$38</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$38</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$38</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$38</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$38</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$38</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$38</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$38</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$38</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$38</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$38</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$38</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$38</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$38</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$38</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$38</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$38</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$38</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$38</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$38</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$38</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$38</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$38</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$38</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$38</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>12/25/2021</t>
+  </si>
+  <si>
+    <t>12/26/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1086,7 +1089,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartA9FB"/>
+        <xdr:cNvPr id="0" name="ChartAF4B"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1121,7 +1124,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartAA59"/>
+        <xdr:cNvPr id="0" name="ChartAFBA"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1156,7 +1159,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartAAB8"/>
+        <xdr:cNvPr id="0" name="ChartAFF9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1191,7 +1194,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartAAE8"/>
+        <xdr:cNvPr id="0" name="ChartB029"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1226,7 +1229,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartAB18"/>
+        <xdr:cNvPr id="0" name="ChartB069"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1261,7 +1264,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartAB48"/>
+        <xdr:cNvPr id="0" name="ChartB098"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1296,7 +1299,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartAB87"/>
+        <xdr:cNvPr id="0" name="ChartB0E8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1331,7 +1334,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartABC7"/>
+        <xdr:cNvPr id="0" name="ChartB146"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1351,7 +1354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1881,8 +1884,22 @@
         <v>40</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="0">
+        <v>49932</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D37"/>
+  <autoFilter ref="A1:D38"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1890,7 +1907,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1918,10 +1935,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1932,10 +1949,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1946,10 +1963,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1960,10 +1977,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1974,10 +1991,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -1988,10 +2005,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -2002,10 +2019,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -2016,10 +2033,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -2030,10 +2047,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -2044,10 +2061,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -2058,10 +2075,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -2072,10 +2089,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="0">
         <v>1.58</v>
@@ -2086,10 +2103,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="0">
         <v>1.54</v>
@@ -2100,10 +2117,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="0">
         <v>1.69</v>
@@ -2114,10 +2131,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="0">
         <v>1.51</v>
@@ -2128,10 +2145,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="0">
         <v>1.39</v>
@@ -2142,10 +2159,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="0">
         <v>1.37</v>
@@ -2156,10 +2173,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="0">
         <v>1.45</v>
@@ -2170,10 +2187,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="0">
         <v>1.37</v>
@@ -2184,10 +2201,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="0">
         <v>1.37</v>
@@ -2198,10 +2215,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="0">
         <v>1.31</v>
@@ -2212,10 +2229,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" s="0">
         <v>1.24</v>
@@ -2226,10 +2243,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" s="0">
         <v>1.37</v>
@@ -2240,10 +2257,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="0">
         <v>1.31</v>
@@ -2254,10 +2271,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="0">
         <v>1.22</v>
@@ -2268,10 +2285,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" s="0">
         <v>1.25</v>
@@ -2282,10 +2299,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="0">
         <v>1.3</v>
@@ -2296,10 +2313,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" s="0">
         <v>1.26</v>
@@ -2310,10 +2327,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" s="0">
         <v>1.22</v>
@@ -2324,10 +2341,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" s="0">
         <v>1.3</v>
@@ -2338,10 +2355,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" s="0">
         <v>1.24</v>
@@ -2352,10 +2369,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" s="0">
         <v>1.27</v>
@@ -2366,10 +2383,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" s="0">
         <v>1.3</v>
@@ -2380,10 +2397,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" s="0">
         <v>1.35</v>
@@ -2394,10 +2411,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" s="0">
         <v>1.46</v>
@@ -2408,10 +2425,10 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" s="0">
         <v>1.41</v>
@@ -2420,8 +2437,22 @@
         <v>40</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="0">
+        <v>1.42</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D37"/>
+  <autoFilter ref="A1:D38"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2429,7 +2460,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2457,10 +2488,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -2471,10 +2502,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -2485,10 +2516,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -2499,10 +2530,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -2513,10 +2544,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -2527,10 +2558,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -2541,10 +2572,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -2555,10 +2586,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -2569,10 +2600,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -2583,10 +2614,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -2597,10 +2628,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -2611,10 +2642,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="0">
         <v>26.02</v>
@@ -2625,10 +2656,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="0">
         <v>24.67</v>
@@ -2639,10 +2670,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="0">
         <v>24.6</v>
@@ -2653,10 +2684,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="0">
         <v>22.29</v>
@@ -2667,10 +2698,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="0">
         <v>20.11</v>
@@ -2681,10 +2712,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="0">
         <v>19.19</v>
@@ -2695,10 +2726,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="0">
         <v>20.1</v>
@@ -2709,10 +2740,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="0">
         <v>21.85</v>
@@ -2723,10 +2754,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="0">
         <v>21.81</v>
@@ -2737,10 +2768,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="0">
         <v>20.19</v>
@@ -2751,10 +2782,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="0">
         <v>19.09</v>
@@ -2765,10 +2796,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="0">
         <v>19.63</v>
@@ -2779,10 +2810,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="0">
         <v>19.55</v>
@@ -2793,10 +2824,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="0">
         <v>17.96</v>
@@ -2807,10 +2838,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="0">
         <v>18.29</v>
@@ -2821,10 +2852,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="0">
         <v>19.79</v>
@@ -2835,10 +2866,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" s="0">
         <v>19.15</v>
@@ -2849,10 +2880,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="0">
         <v>18.46</v>
@@ -2863,10 +2894,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" s="0">
         <v>20.22</v>
@@ -2877,10 +2908,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" s="0">
         <v>18.99</v>
@@ -2891,10 +2922,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" s="0">
         <v>19.02</v>
@@ -2905,10 +2936,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" s="0">
         <v>19.86</v>
@@ -2919,10 +2950,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" s="0">
         <v>20.64</v>
@@ -2933,10 +2964,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" s="0">
         <v>22.18</v>
@@ -2947,10 +2978,10 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" s="0">
         <v>21.71</v>
@@ -2959,8 +2990,22 @@
         <v>40</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="0">
+        <v>21.37</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D37"/>
+  <autoFilter ref="A1:D38"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2968,7 +3013,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2996,10 +3041,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -3010,10 +3055,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -3024,10 +3069,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -3038,10 +3083,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -3052,10 +3097,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -3066,10 +3111,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -3080,10 +3125,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -3094,10 +3139,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -3108,10 +3153,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -3122,10 +3167,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -3136,10 +3181,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -3150,10 +3195,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="0">
         <v>0.215267</v>
@@ -3164,10 +3209,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="0">
         <v>0.204968</v>
@@ -3178,10 +3223,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="0">
         <v>0.20861</v>
@@ -3192,10 +3237,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="0">
         <v>0.192745</v>
@@ -3206,10 +3251,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="0">
         <v>0.177181</v>
@@ -3220,10 +3265,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="0">
         <v>0.171993</v>
@@ -3234,10 +3279,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="0">
         <v>0.180834</v>
@@ -3248,10 +3293,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="0">
         <v>0.177974</v>
@@ -3262,10 +3307,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="0">
         <v>0.177815</v>
@@ -3276,10 +3321,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="0">
         <v>0.171574</v>
@@ -3290,10 +3335,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="0">
         <v>0.165586</v>
@@ -3304,10 +3349,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="0">
         <v>0.168042</v>
@@ -3318,10 +3363,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" s="0">
         <v>0.165679</v>
@@ -3332,10 +3377,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="0">
         <v>0.158598</v>
@@ -3346,10 +3391,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" s="0">
         <v>0.181898</v>
@@ -3360,10 +3405,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="0">
         <v>0.180307</v>
@@ -3374,10 +3419,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" s="0">
         <v>0.175952</v>
@@ -3388,10 +3433,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" s="0">
         <v>0.169715</v>
@@ -3402,10 +3447,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" s="0">
         <v>0.17388</v>
@@ -3416,10 +3461,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="0">
         <v>0.170993</v>
@@ -3430,10 +3475,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" s="0">
         <v>0.171914</v>
@@ -3444,10 +3489,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34" s="0">
         <v>0.173829</v>
@@ -3458,10 +3503,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35" s="0">
         <v>0.176145</v>
@@ -3472,10 +3517,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" s="0">
         <v>0.183197</v>
@@ -3486,10 +3531,10 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37" s="0">
         <v>0.189594</v>
@@ -3498,8 +3543,22 @@
         <v>40</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="0">
+        <v>0.187866</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D37"/>
+  <autoFilter ref="A1:D38"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3507,7 +3566,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3535,10 +3594,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -3549,10 +3608,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -3563,10 +3622,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -3577,10 +3636,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -3591,10 +3650,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -3605,10 +3664,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -3619,10 +3678,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -3633,10 +3692,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -3647,10 +3706,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -3661,10 +3720,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -3675,10 +3734,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -3689,10 +3748,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0">
         <v>4746.42</v>
@@ -3703,10 +3762,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="0">
         <v>4518.21</v>
@@ -3717,10 +3776,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="0">
         <v>4524.56</v>
@@ -3731,10 +3790,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="0">
         <v>4109</v>
@@ -3745,10 +3804,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="0">
         <v>4162.25</v>
@@ -3759,10 +3818,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="0">
         <v>4184.03</v>
@@ -3773,10 +3832,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="0">
         <v>4367.46</v>
@@ -3787,10 +3846,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="0">
         <v>4331.56</v>
@@ -3801,10 +3860,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="0">
         <v>4382.01</v>
@@ -3815,10 +3874,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="0">
         <v>4154.05</v>
@@ -3829,10 +3888,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="0">
         <v>4032.48</v>
@@ -3843,10 +3902,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="0">
         <v>4038.87</v>
@@ -3857,10 +3916,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="0">
         <v>4005.24</v>
@@ -3871,10 +3930,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="0">
         <v>3794.29</v>
@@ -3885,10 +3944,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" s="0">
         <v>3849.59</v>
@@ -3899,10 +3958,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" s="0">
         <v>4009.86</v>
@@ -3913,10 +3972,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" s="0">
         <v>3986.63</v>
@@ -3927,10 +3986,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="0">
         <v>3868.55</v>
@@ -3941,10 +4000,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" s="0">
         <v>4003.7</v>
@@ -3955,10 +4014,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="0">
         <v>3930.43</v>
@@ -3969,10 +4028,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" s="0">
         <v>4056.61</v>
@@ -3983,10 +4042,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" s="0">
         <v>4059.53</v>
@@ -3997,10 +4056,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35" s="0">
         <v>3975.8</v>
@@ -4011,10 +4070,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36" s="0">
         <v>4109.66</v>
@@ -4025,10 +4084,10 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37" s="0">
         <v>4059.91</v>
@@ -4037,8 +4096,22 @@
         <v>40</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="0">
+        <v>4034.78</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D37"/>
+  <autoFilter ref="A1:D38"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4046,7 +4119,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4074,10 +4147,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -4088,10 +4161,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -4102,10 +4175,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -4116,10 +4189,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -4130,10 +4203,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -4144,10 +4217,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -4158,10 +4231,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -4172,10 +4245,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -4186,10 +4259,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -4200,10 +4273,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -4214,10 +4287,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -4228,10 +4301,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="0">
         <v>211.61</v>
@@ -4242,10 +4315,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="0">
         <v>203.23</v>
@@ -4256,10 +4329,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="0">
         <v>201.01</v>
@@ -4270,10 +4343,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="0">
         <v>181.01</v>
@@ -4284,10 +4357,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="0">
         <v>160.26</v>
@@ -4298,10 +4371,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="0">
         <v>155.14</v>
@@ -4312,10 +4385,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="0">
         <v>160.95</v>
@@ -4326,10 +4399,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="0">
         <v>161.57</v>
@@ -4340,10 +4413,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="0">
         <v>160.59</v>
@@ -4354,10 +4427,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="0">
         <v>154.05</v>
@@ -4368,10 +4441,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="0">
         <v>152.08</v>
@@ -4382,10 +4455,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="0">
         <v>155.74</v>
@@ -4396,10 +4469,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="0">
         <v>154</v>
@@ -4410,10 +4483,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" s="0">
         <v>145.92</v>
@@ -4424,10 +4497,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27" s="0">
         <v>150.11</v>
@@ -4438,10 +4511,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28" s="0">
         <v>153.24</v>
@@ -4452,10 +4525,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C29" s="0">
         <v>150.23</v>
@@ -4466,10 +4539,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C30" s="0">
         <v>145.91</v>
@@ -4480,10 +4553,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C31" s="0">
         <v>154.68</v>
@@ -4494,10 +4567,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" s="0">
         <v>155.97</v>
@@ -4508,10 +4581,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" s="0">
         <v>155.24</v>
@@ -4522,10 +4595,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34" s="0">
         <v>156.52</v>
@@ -4536,10 +4609,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35" s="0">
         <v>157.49</v>
@@ -4550,10 +4623,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36" s="0">
         <v>165.95</v>
@@ -4564,10 +4637,10 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37" s="0">
         <v>162.11</v>
@@ -4576,8 +4649,22 @@
         <v>40</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="0">
+        <v>154.41</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D37"/>
+  <autoFilter ref="A1:D38"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4585,7 +4672,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4613,10 +4700,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -4627,10 +4714,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -4641,10 +4728,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -4655,10 +4742,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -4669,10 +4756,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -4683,10 +4770,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -4697,10 +4784,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -4711,10 +4798,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -4725,10 +4812,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -4739,10 +4826,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -4753,10 +4840,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="0">
         <v>204.08</v>
@@ -4767,10 +4854,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="0">
         <v>215.33</v>
@@ -4781,10 +4868,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0">
         <v>225.38</v>
@@ -4795,10 +4882,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="0">
         <v>231</v>
@@ -4809,10 +4896,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="0">
         <v>200.96</v>
@@ -4823,10 +4910,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="0">
         <v>195.88</v>
@@ -4837,10 +4924,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" s="0">
         <v>194.68</v>
@@ -4851,10 +4938,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="0">
         <v>196.72</v>
@@ -4865,10 +4952,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="0">
         <v>188.61</v>
@@ -4879,10 +4966,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="0">
         <v>190.45</v>
@@ -4893,10 +4980,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="0">
         <v>179.87</v>
@@ -4907,10 +4994,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" s="0">
         <v>170.4</v>
@@ -4921,10 +5008,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="0">
         <v>168.93</v>
@@ -4935,10 +5022,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="0">
         <v>167.2</v>
@@ -4949,10 +5036,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="0">
         <v>154.34</v>
@@ -4963,10 +5050,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C27" s="0">
         <v>160.95</v>
@@ -4977,10 +5064,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" s="0">
         <v>177.49</v>
@@ -4991,10 +5078,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29" s="0">
         <v>179.72</v>
@@ -5005,10 +5092,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30" s="0">
         <v>173.85</v>
@@ -5019,10 +5106,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C31" s="0">
         <v>184.62</v>
@@ -5033,10 +5120,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" s="0">
         <v>179.08</v>
@@ -5047,10 +5134,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" s="0">
         <v>178.52</v>
@@ -5061,10 +5148,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" s="0">
         <v>179.73</v>
@@ -5075,10 +5162,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" s="0">
         <v>181.3</v>
@@ -5089,10 +5176,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36" s="0">
         <v>188.96</v>
@@ -5103,10 +5190,10 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37" s="0">
         <v>193.13</v>
@@ -5115,8 +5202,22 @@
         <v>40</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="0">
+        <v>192.73</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D37"/>
+  <autoFilter ref="A1:D38"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5124,7 +5225,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5152,10 +5253,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -5166,10 +5267,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -5180,10 +5281,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -5194,10 +5295,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -5208,10 +5309,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -5222,10 +5323,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -5236,10 +5337,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -5250,10 +5351,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -5264,10 +5365,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -5278,10 +5379,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -5292,10 +5393,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="0">
         <v>20.22</v>
@@ -5306,10 +5407,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" s="0">
         <v>22.16</v>
@@ -5320,10 +5421,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" s="0">
         <v>22.34</v>
@@ -5334,10 +5435,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" s="0">
         <v>22.16</v>
@@ -5348,10 +5449,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="0">
         <v>19.26</v>
@@ -5362,10 +5463,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" s="0">
         <v>16.96</v>
@@ -5376,10 +5477,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" s="0">
         <v>16.43</v>
@@ -5390,10 +5491,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="0">
         <v>17.24</v>
@@ -5404,10 +5505,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="0">
         <v>17.51</v>
@@ -5418,10 +5519,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="0">
         <v>17.72</v>
@@ -5432,10 +5533,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="0">
         <v>16.11</v>
@@ -5446,10 +5547,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="0">
         <v>15.64</v>
@@ -5460,10 +5561,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" s="0">
         <v>15.67</v>
@@ -5474,10 +5575,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="0">
         <v>15.41</v>
@@ -5488,10 +5589,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" s="0">
         <v>14.24</v>
@@ -5502,10 +5603,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="0">
         <v>15</v>
@@ -5516,10 +5617,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" s="0">
         <v>15.1</v>
@@ -5530,10 +5631,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" s="0">
         <v>14.56</v>
@@ -5544,10 +5645,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30" s="0">
         <v>15.38</v>
@@ -5558,10 +5659,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31" s="0">
         <v>15.81</v>
@@ -5572,10 +5673,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C32" s="0">
         <v>14.82</v>
@@ -5586,10 +5687,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33" s="0">
         <v>14.84</v>
@@ -5600,10 +5701,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" s="0">
         <v>15.41</v>
@@ -5614,10 +5715,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C35" s="0">
         <v>16.96</v>
@@ -5628,10 +5729,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" s="0">
         <v>17.63</v>
@@ -5642,10 +5743,10 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" s="0">
         <v>17.65</v>
@@ -5654,8 +5755,22 @@
         <v>40</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="0">
+        <v>16.98</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D37"/>
+  <autoFilter ref="A1:D38"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$38</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$38</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$38</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$38</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$38</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$38</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$38</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$38</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$38</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$38</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$38</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$38</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$38</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$38</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$38</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$38</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$38</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$38</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$38</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$38</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$38</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$38</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$38</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$38</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$38</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$38</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$38</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$38</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$38</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$38</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$38</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$38</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$39</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$39</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$39</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$39</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$39</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$39</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$39</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$39</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$39</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$39</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$39</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$39</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$39</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$39</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$39</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$39</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$39</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$39</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$39</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$39</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$39</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$39</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$39</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$39</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$39</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$39</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$39</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$39</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$39</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$39</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$39</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$39</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>12/26/2021</t>
+  </si>
+  <si>
+    <t>12/27/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1089,7 +1092,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartAF4B"/>
+        <xdr:cNvPr id="0" name="ChartB5F0"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1124,7 +1127,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartAFBA"/>
+        <xdr:cNvPr id="0" name="ChartB65E"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1159,7 +1162,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartAFF9"/>
+        <xdr:cNvPr id="0" name="ChartB69E"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1194,7 +1197,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB029"/>
+        <xdr:cNvPr id="0" name="ChartB6CD"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1229,7 +1232,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB069"/>
+        <xdr:cNvPr id="0" name="ChartB6FD"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1264,7 +1267,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB098"/>
+        <xdr:cNvPr id="0" name="ChartB73D"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1299,7 +1302,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB0E8"/>
+        <xdr:cNvPr id="0" name="ChartB78C"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1334,7 +1337,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB146"/>
+        <xdr:cNvPr id="0" name="ChartB7DB"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1354,7 +1357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1898,8 +1901,22 @@
         <v>41</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="0">
+        <v>50974</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D38"/>
+  <autoFilter ref="A1:D39"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1907,7 +1924,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1935,10 +1952,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1949,10 +1966,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1963,10 +1980,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1977,10 +1994,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -1991,10 +2008,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -2005,10 +2022,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -2019,10 +2036,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -2033,10 +2050,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -2047,10 +2064,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -2061,10 +2078,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -2075,10 +2092,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -2089,10 +2106,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="0">
         <v>1.58</v>
@@ -2103,10 +2120,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="0">
         <v>1.54</v>
@@ -2117,10 +2134,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="0">
         <v>1.69</v>
@@ -2131,10 +2148,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="0">
         <v>1.51</v>
@@ -2145,10 +2162,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="0">
         <v>1.39</v>
@@ -2159,10 +2176,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="0">
         <v>1.37</v>
@@ -2173,10 +2190,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="0">
         <v>1.45</v>
@@ -2187,10 +2204,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="0">
         <v>1.37</v>
@@ -2201,10 +2218,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="0">
         <v>1.37</v>
@@ -2215,10 +2232,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="0">
         <v>1.31</v>
@@ -2229,10 +2246,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="0">
         <v>1.24</v>
@@ -2243,10 +2260,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="0">
         <v>1.37</v>
@@ -2257,10 +2274,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="0">
         <v>1.31</v>
@@ -2271,10 +2288,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="0">
         <v>1.22</v>
@@ -2285,10 +2302,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="0">
         <v>1.25</v>
@@ -2299,10 +2316,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="0">
         <v>1.3</v>
@@ -2313,10 +2330,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="0">
         <v>1.26</v>
@@ -2327,10 +2344,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" s="0">
         <v>1.22</v>
@@ -2341,10 +2358,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" s="0">
         <v>1.3</v>
@@ -2355,10 +2372,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" s="0">
         <v>1.24</v>
@@ -2369,10 +2386,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33" s="0">
         <v>1.27</v>
@@ -2383,10 +2400,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" s="0">
         <v>1.3</v>
@@ -2397,10 +2414,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C35" s="0">
         <v>1.35</v>
@@ -2411,10 +2428,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" s="0">
         <v>1.46</v>
@@ -2425,10 +2442,10 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37" s="0">
         <v>1.41</v>
@@ -2439,10 +2456,10 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" s="0">
         <v>1.42</v>
@@ -2451,8 +2468,22 @@
         <v>41</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="0">
+        <v>1.47</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D38"/>
+  <autoFilter ref="A1:D39"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2460,7 +2491,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2488,10 +2519,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -2502,10 +2533,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -2516,10 +2547,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -2530,10 +2561,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -2544,10 +2575,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -2558,10 +2589,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -2572,10 +2603,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -2586,10 +2617,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -2600,10 +2631,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -2614,10 +2645,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -2628,10 +2659,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -2642,10 +2673,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="0">
         <v>26.02</v>
@@ -2656,10 +2687,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="0">
         <v>24.67</v>
@@ -2670,10 +2701,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="0">
         <v>24.6</v>
@@ -2684,10 +2715,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="0">
         <v>22.29</v>
@@ -2698,10 +2729,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="0">
         <v>20.11</v>
@@ -2712,10 +2743,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="0">
         <v>19.19</v>
@@ -2726,10 +2757,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="0">
         <v>20.1</v>
@@ -2740,10 +2771,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="0">
         <v>21.85</v>
@@ -2754,10 +2785,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="0">
         <v>21.81</v>
@@ -2768,10 +2799,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="0">
         <v>20.19</v>
@@ -2782,10 +2813,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="0">
         <v>19.09</v>
@@ -2796,10 +2827,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" s="0">
         <v>19.63</v>
@@ -2810,10 +2841,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" s="0">
         <v>19.55</v>
@@ -2824,10 +2855,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="0">
         <v>17.96</v>
@@ -2838,10 +2869,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="0">
         <v>18.29</v>
@@ -2852,10 +2883,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" s="0">
         <v>19.79</v>
@@ -2866,10 +2897,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29" s="0">
         <v>19.15</v>
@@ -2880,10 +2911,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" s="0">
         <v>18.46</v>
@@ -2894,10 +2925,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="0">
         <v>20.22</v>
@@ -2908,10 +2939,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="0">
         <v>18.99</v>
@@ -2922,10 +2953,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33" s="0">
         <v>19.02</v>
@@ -2936,10 +2967,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" s="0">
         <v>19.86</v>
@@ -2950,10 +2981,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" s="0">
         <v>20.64</v>
@@ -2964,10 +2995,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" s="0">
         <v>22.18</v>
@@ -2978,10 +3009,10 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C37" s="0">
         <v>21.71</v>
@@ -2992,10 +3023,10 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" s="0">
         <v>21.37</v>
@@ -3004,8 +3035,22 @@
         <v>41</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="0">
+        <v>23.01</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D38"/>
+  <autoFilter ref="A1:D39"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3013,7 +3058,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3041,10 +3086,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -3055,10 +3100,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -3069,10 +3114,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -3083,10 +3128,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -3097,10 +3142,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -3111,10 +3156,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -3125,10 +3170,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -3139,10 +3184,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -3153,10 +3198,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -3167,10 +3212,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -3181,10 +3226,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -3195,10 +3240,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="0">
         <v>0.215267</v>
@@ -3209,10 +3254,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="0">
         <v>0.204968</v>
@@ -3223,10 +3268,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="0">
         <v>0.20861</v>
@@ -3237,10 +3282,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="0">
         <v>0.192745</v>
@@ -3251,10 +3296,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="0">
         <v>0.177181</v>
@@ -3265,10 +3310,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="0">
         <v>0.171993</v>
@@ -3279,10 +3324,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="0">
         <v>0.180834</v>
@@ -3293,10 +3338,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="0">
         <v>0.177974</v>
@@ -3307,10 +3352,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="0">
         <v>0.177815</v>
@@ -3321,10 +3366,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="0">
         <v>0.171574</v>
@@ -3335,10 +3380,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="0">
         <v>0.165586</v>
@@ -3349,10 +3394,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" s="0">
         <v>0.168042</v>
@@ -3363,10 +3408,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25" s="0">
         <v>0.165679</v>
@@ -3377,10 +3422,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="0">
         <v>0.158598</v>
@@ -3391,10 +3436,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27" s="0">
         <v>0.181898</v>
@@ -3405,10 +3450,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" s="0">
         <v>0.180307</v>
@@ -3419,10 +3464,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="0">
         <v>0.175952</v>
@@ -3433,10 +3478,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" s="0">
         <v>0.169715</v>
@@ -3447,10 +3492,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" s="0">
         <v>0.17388</v>
@@ -3461,10 +3506,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" s="0">
         <v>0.170993</v>
@@ -3475,10 +3520,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" s="0">
         <v>0.171914</v>
@@ -3489,10 +3534,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34" s="0">
         <v>0.173829</v>
@@ -3503,10 +3548,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35" s="0">
         <v>0.176145</v>
@@ -3517,10 +3562,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36" s="0">
         <v>0.183197</v>
@@ -3531,10 +3576,10 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37" s="0">
         <v>0.189594</v>
@@ -3545,10 +3590,10 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38" s="0">
         <v>0.187866</v>
@@ -3557,8 +3602,22 @@
         <v>41</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="0">
+        <v>0.19077</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D38"/>
+  <autoFilter ref="A1:D39"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3566,7 +3625,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3594,10 +3653,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -3608,10 +3667,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -3622,10 +3681,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -3636,10 +3695,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -3650,10 +3709,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -3664,10 +3723,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -3678,10 +3737,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -3692,10 +3751,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -3706,10 +3765,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -3720,10 +3779,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -3734,10 +3793,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -3748,10 +3807,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0">
         <v>4746.42</v>
@@ -3762,10 +3821,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0">
         <v>4518.21</v>
@@ -3776,10 +3835,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="0">
         <v>4524.56</v>
@@ -3790,10 +3849,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="0">
         <v>4109</v>
@@ -3804,10 +3863,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="0">
         <v>4162.25</v>
@@ -3818,10 +3877,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="0">
         <v>4184.03</v>
@@ -3832,10 +3891,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="0">
         <v>4367.46</v>
@@ -3846,10 +3905,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="0">
         <v>4331.56</v>
@@ -3860,10 +3919,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="0">
         <v>4382.01</v>
@@ -3874,10 +3933,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="0">
         <v>4154.05</v>
@@ -3888,10 +3947,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="0">
         <v>4032.48</v>
@@ -3902,10 +3961,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="0">
         <v>4038.87</v>
@@ -3916,10 +3975,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" s="0">
         <v>4005.24</v>
@@ -3930,10 +3989,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="0">
         <v>3794.29</v>
@@ -3944,10 +4003,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27" s="0">
         <v>3849.59</v>
@@ -3958,10 +4017,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" s="0">
         <v>4009.86</v>
@@ -3972,10 +4031,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="0">
         <v>3986.63</v>
@@ -3986,10 +4045,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" s="0">
         <v>3868.55</v>
@@ -4000,10 +4059,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="0">
         <v>4003.7</v>
@@ -4014,10 +4073,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="0">
         <v>3930.43</v>
@@ -4028,10 +4087,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" s="0">
         <v>4056.61</v>
@@ -4042,10 +4101,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" s="0">
         <v>4059.53</v>
@@ -4056,10 +4115,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" s="0">
         <v>3975.8</v>
@@ -4070,10 +4129,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" s="0">
         <v>4109.66</v>
@@ -4084,10 +4143,10 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37" s="0">
         <v>4059.91</v>
@@ -4098,10 +4157,10 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="0">
         <v>4034.78</v>
@@ -4110,8 +4169,22 @@
         <v>41</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="0">
+        <v>4076.56</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D38"/>
+  <autoFilter ref="A1:D39"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4119,7 +4192,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4147,10 +4220,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -4161,10 +4234,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -4175,10 +4248,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -4189,10 +4262,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -4203,10 +4276,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -4217,10 +4290,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -4231,10 +4304,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -4245,10 +4318,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -4259,10 +4332,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -4273,10 +4346,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -4287,10 +4360,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -4301,10 +4374,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="0">
         <v>211.61</v>
@@ -4315,10 +4388,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="0">
         <v>203.23</v>
@@ -4329,10 +4402,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="0">
         <v>201.01</v>
@@ -4343,10 +4416,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" s="0">
         <v>181.01</v>
@@ -4357,10 +4430,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" s="0">
         <v>160.26</v>
@@ -4371,10 +4444,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" s="0">
         <v>155.14</v>
@@ -4385,10 +4458,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" s="0">
         <v>160.95</v>
@@ -4399,10 +4472,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="0">
         <v>161.57</v>
@@ -4413,10 +4486,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="0">
         <v>160.59</v>
@@ -4427,10 +4500,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="0">
         <v>154.05</v>
@@ -4441,10 +4514,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="0">
         <v>152.08</v>
@@ -4455,10 +4528,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="0">
         <v>155.74</v>
@@ -4469,10 +4542,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="0">
         <v>154</v>
@@ -4483,10 +4556,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="0">
         <v>145.92</v>
@@ -4497,10 +4570,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" s="0">
         <v>150.11</v>
@@ -4511,10 +4584,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" s="0">
         <v>153.24</v>
@@ -4525,10 +4598,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" s="0">
         <v>150.23</v>
@@ -4539,10 +4612,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C30" s="0">
         <v>145.91</v>
@@ -4553,10 +4626,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31" s="0">
         <v>154.68</v>
@@ -4567,10 +4640,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C32" s="0">
         <v>155.97</v>
@@ -4581,10 +4654,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" s="0">
         <v>155.24</v>
@@ -4595,10 +4668,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" s="0">
         <v>156.52</v>
@@ -4609,10 +4682,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" s="0">
         <v>157.49</v>
@@ -4623,10 +4696,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36" s="0">
         <v>165.95</v>
@@ -4637,10 +4710,10 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37" s="0">
         <v>162.11</v>
@@ -4651,10 +4724,10 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38" s="0">
         <v>154.41</v>
@@ -4663,8 +4736,22 @@
         <v>41</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="0">
+        <v>156.42</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D38"/>
+  <autoFilter ref="A1:D39"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4672,7 +4759,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4700,10 +4787,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="0">
         <v>214.58</v>
@@ -4714,10 +4801,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="0">
         <v>227.22</v>
@@ -4728,10 +4815,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="0">
         <v>220.35</v>
@@ -4742,10 +4829,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="0">
         <v>220.3</v>
@@ -4756,10 +4843,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="0">
         <v>218.84</v>
@@ -4770,10 +4857,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="0">
         <v>209.01</v>
@@ -4784,10 +4871,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="0">
         <v>206.34</v>
@@ -4798,10 +4885,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="0">
         <v>195.53</v>
@@ -4812,10 +4899,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="0">
         <v>186.96</v>
@@ -4826,10 +4913,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" s="0">
         <v>201.76</v>
@@ -4840,10 +4927,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="0">
         <v>204.08</v>
@@ -4854,10 +4941,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="0">
         <v>215.33</v>
@@ -4868,10 +4955,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="0">
         <v>225.38</v>
@@ -4882,10 +4969,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="0">
         <v>231</v>
@@ -4896,10 +4983,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="0">
         <v>200.96</v>
@@ -4910,10 +4997,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="0">
         <v>195.88</v>
@@ -4924,10 +5011,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="0">
         <v>194.68</v>
@@ -4938,10 +5025,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="0">
         <v>196.72</v>
@@ -4952,10 +5039,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" s="0">
         <v>188.61</v>
@@ -4966,10 +5053,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="0">
         <v>190.45</v>
@@ -4980,10 +5067,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="0">
         <v>179.87</v>
@@ -4994,10 +5081,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="0">
         <v>170.4</v>
@@ -5008,10 +5095,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="0">
         <v>168.93</v>
@@ -5022,10 +5109,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="0">
         <v>167.2</v>
@@ -5036,10 +5123,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="0">
         <v>154.34</v>
@@ -5050,10 +5137,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" s="0">
         <v>160.95</v>
@@ -5064,10 +5151,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28" s="0">
         <v>177.49</v>
@@ -5078,10 +5165,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C29" s="0">
         <v>179.72</v>
@@ -5092,10 +5179,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C30" s="0">
         <v>173.85</v>
@@ -5106,10 +5193,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C31" s="0">
         <v>184.62</v>
@@ -5120,10 +5207,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C32" s="0">
         <v>179.08</v>
@@ -5134,10 +5221,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" s="0">
         <v>178.52</v>
@@ -5148,10 +5235,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34" s="0">
         <v>179.73</v>
@@ -5162,10 +5249,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="0">
         <v>181.3</v>
@@ -5176,10 +5263,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" s="0">
         <v>188.96</v>
@@ -5190,10 +5277,10 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37" s="0">
         <v>193.13</v>
@@ -5204,10 +5291,10 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38" s="0">
         <v>192.73</v>
@@ -5216,8 +5303,22 @@
         <v>41</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="0">
+        <v>199.84</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D38"/>
+  <autoFilter ref="A1:D39"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5225,7 +5326,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5253,10 +5354,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="0">
         <v>21.71</v>
@@ -5267,10 +5368,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="0">
         <v>21.85</v>
@@ -5281,10 +5382,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="0">
         <v>21.01</v>
@@ -5295,10 +5396,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" s="0">
         <v>21.46</v>
@@ -5309,10 +5410,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" s="0">
         <v>21.84</v>
@@ -5323,10 +5424,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" s="0">
         <v>20.95</v>
@@ -5337,10 +5438,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" s="0">
         <v>20.98</v>
@@ -5351,10 +5452,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="0">
         <v>19.82</v>
@@ -5365,10 +5466,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="0">
         <v>18.92</v>
@@ -5379,10 +5480,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" s="0">
         <v>20.04</v>
@@ -5393,10 +5494,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="0">
         <v>20.22</v>
@@ -5407,10 +5508,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" s="0">
         <v>22.16</v>
@@ -5421,10 +5522,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" s="0">
         <v>22.34</v>
@@ -5435,10 +5536,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="0">
         <v>22.16</v>
@@ -5449,10 +5550,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" s="0">
         <v>19.26</v>
@@ -5463,10 +5564,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" s="0">
         <v>16.96</v>
@@ -5477,10 +5578,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" s="0">
         <v>16.43</v>
@@ -5491,10 +5592,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" s="0">
         <v>17.24</v>
@@ -5505,10 +5606,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" s="0">
         <v>17.51</v>
@@ -5519,10 +5620,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" s="0">
         <v>17.72</v>
@@ -5533,10 +5634,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="0">
         <v>16.11</v>
@@ -5547,10 +5648,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="0">
         <v>15.64</v>
@@ -5561,10 +5662,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="0">
         <v>15.67</v>
@@ -5575,10 +5676,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" s="0">
         <v>15.41</v>
@@ -5589,10 +5690,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" s="0">
         <v>14.24</v>
@@ -5603,10 +5704,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="0">
         <v>15</v>
@@ -5617,10 +5718,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" s="0">
         <v>15.1</v>
@@ -5631,10 +5732,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" s="0">
         <v>14.56</v>
@@ -5645,10 +5746,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C30" s="0">
         <v>15.38</v>
@@ -5659,10 +5760,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C31" s="0">
         <v>15.81</v>
@@ -5673,10 +5774,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" s="0">
         <v>14.82</v>
@@ -5687,10 +5788,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" s="0">
         <v>14.84</v>
@@ -5701,10 +5802,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" s="0">
         <v>15.41</v>
@@ -5715,10 +5816,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" s="0">
         <v>16.96</v>
@@ -5729,10 +5830,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="0">
         <v>17.63</v>
@@ -5743,10 +5844,10 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" s="0">
         <v>17.65</v>
@@ -5757,10 +5858,10 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" s="0">
         <v>16.98</v>
@@ -5769,8 +5870,22 @@
         <v>41</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="0">
+        <v>19</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D38"/>
+  <autoFilter ref="A1:D39"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,53 +15,53 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$39</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$39</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$39</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$39</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$39</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$39</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$39</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$39</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$39</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$39</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$39</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$39</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$39</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$39</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$39</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$39</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$39</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$39</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$39</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$39</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$39</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$39</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$39</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$39</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$39</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$39</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$39</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$39</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$39</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$39</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$39</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$39</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$40</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$40</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$40</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$40</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$40</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$40</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$40</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$40</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$40</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$40</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$40</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$40</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$40</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$40</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$40</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$40</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$40</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$40</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$40</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$40</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$40</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$40</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$40</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$40</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$40</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$40</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$40</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$40</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$40</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$40</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$40</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$40</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>12/27/2021</t>
+  </si>
+  <si>
+    <t>12/28/2021</t>
   </si>
   <si>
     <t>cardano</t>
@@ -1092,7 +1095,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB5F0"/>
+        <xdr:cNvPr id="0" name="Chart7D99"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1127,7 +1130,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB65E"/>
+        <xdr:cNvPr id="0" name="Chart7DE8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1162,7 +1165,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB69E"/>
+        <xdr:cNvPr id="0" name="Chart7E28"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1197,7 +1200,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB6CD"/>
+        <xdr:cNvPr id="0" name="Chart7E58"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1232,7 +1235,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB6FD"/>
+        <xdr:cNvPr id="0" name="Chart7E88"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1267,7 +1270,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB73D"/>
+        <xdr:cNvPr id="0" name="Chart7EC7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1302,7 +1305,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB78C"/>
+        <xdr:cNvPr id="0" name="Chart7EF7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1337,7 +1340,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="ChartB7DB"/>
+        <xdr:cNvPr id="0" name="Chart7F46"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1357,7 +1360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1915,8 +1918,22 @@
         <v>42</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="0">
+        <v>48914</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D39"/>
+  <autoFilter ref="A1:D40"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1924,7 +1941,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1952,10 +1969,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="0">
         <v>1.88</v>
@@ -1966,10 +1983,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="0">
         <v>1.88</v>
@@ -1980,10 +1997,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="0">
         <v>1.79</v>
@@ -1994,10 +2011,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="0">
         <v>1.81</v>
@@ -2008,10 +2025,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="0">
         <v>1.68</v>
@@ -2022,10 +2039,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="0">
         <v>1.69</v>
@@ -2036,10 +2053,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="0">
         <v>1.65</v>
@@ -2050,10 +2067,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0">
         <v>1.56</v>
@@ -2064,10 +2081,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="0">
         <v>1.49</v>
@@ -2078,10 +2095,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="0">
         <v>1.6</v>
@@ -2092,10 +2109,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="0">
         <v>1.59</v>
@@ -2106,10 +2123,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="0">
         <v>1.58</v>
@@ -2120,10 +2137,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="0">
         <v>1.54</v>
@@ -2134,10 +2151,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="0">
         <v>1.69</v>
@@ -2148,10 +2165,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="0">
         <v>1.51</v>
@@ -2162,10 +2179,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="0">
         <v>1.39</v>
@@ -2176,10 +2193,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="0">
         <v>1.37</v>
@@ -2190,10 +2207,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="0">
         <v>1.45</v>
@@ -2204,10 +2221,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="0">
         <v>1.37</v>
@@ -2218,10 +2235,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="0">
         <v>1.37</v>
@@ -2232,10 +2249,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="0">
         <v>1.31</v>
@@ -2246,10 +2263,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="0">
         <v>1.24</v>
@@ -2260,10 +2277,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="0">
         <v>1.37</v>
@@ -2274,10 +2291,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="0">
         <v>1.31</v>
@@ -2288,10 +2305,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="0">
         <v>1.22</v>
@@ -2302,10 +2319,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="0">
         <v>1.25</v>
@@ -2316,10 +2333,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="0">
         <v>1.3</v>
@@ -2330,10 +2347,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" s="0">
         <v>1.26</v>
@@ -2344,10 +2361,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="0">
         <v>1.22</v>
@@ -2358,10 +2375,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" s="0">
         <v>1.3</v>
@@ -2372,10 +2389,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" s="0">
         <v>1.24</v>
@@ -2386,10 +2403,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" s="0">
         <v>1.27</v>
@@ -2400,10 +2417,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" s="0">
         <v>1.3</v>
@@ -2414,10 +2431,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" s="0">
         <v>1.35</v>
@@ -2428,10 +2445,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" s="0">
         <v>1.46</v>
@@ -2442,10 +2459,10 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" s="0">
         <v>1.41</v>
@@ -2456,10 +2473,10 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" s="0">
         <v>1.42</v>
@@ -2470,10 +2487,10 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" s="0">
         <v>1.47</v>
@@ -2482,8 +2499,22 @@
         <v>42</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="0">
+        <v>1.46</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D39"/>
+  <autoFilter ref="A1:D40"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2491,7 +2522,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2519,10 +2550,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="0">
         <v>28.04</v>
@@ -2533,10 +2564,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="0">
         <v>28.34</v>
@@ -2547,10 +2578,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="0">
         <v>27.5</v>
@@ -2561,10 +2592,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="0">
         <v>26.91</v>
@@ -2575,10 +2606,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="0">
         <v>26.37</v>
@@ -2589,10 +2620,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="0">
         <v>26.43</v>
@@ -2603,10 +2634,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="0">
         <v>26.22</v>
@@ -2617,10 +2648,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="0">
         <v>24.65</v>
@@ -2631,10 +2662,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="0">
         <v>23.39</v>
@@ -2645,10 +2676,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0">
         <v>24.94</v>
@@ -2659,10 +2690,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0">
         <v>24.98</v>
@@ -2673,10 +2704,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="0">
         <v>26.02</v>
@@ -2687,10 +2718,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="0">
         <v>24.67</v>
@@ -2701,10 +2732,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="0">
         <v>24.6</v>
@@ -2715,10 +2746,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="0">
         <v>22.29</v>
@@ -2729,10 +2760,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="0">
         <v>20.11</v>
@@ -2743,10 +2774,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="0">
         <v>19.19</v>
@@ -2757,10 +2788,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="0">
         <v>20.1</v>
@@ -2771,10 +2802,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="0">
         <v>21.85</v>
@@ -2785,10 +2816,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="0">
         <v>21.81</v>
@@ -2799,10 +2830,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="0">
         <v>20.19</v>
@@ -2813,10 +2844,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="0">
         <v>19.09</v>
@@ -2827,10 +2858,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="0">
         <v>19.63</v>
@@ -2841,10 +2872,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" s="0">
         <v>19.55</v>
@@ -2855,10 +2886,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="0">
         <v>17.96</v>
@@ -2869,10 +2900,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" s="0">
         <v>18.29</v>
@@ -2883,10 +2914,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="0">
         <v>19.79</v>
@@ -2897,10 +2928,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" s="0">
         <v>19.15</v>
@@ -2911,10 +2942,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" s="0">
         <v>18.46</v>
@@ -2925,10 +2956,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" s="0">
         <v>20.22</v>
@@ -2939,10 +2970,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="0">
         <v>18.99</v>
@@ -2953,10 +2984,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" s="0">
         <v>19.02</v>
@@ -2967,10 +2998,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34" s="0">
         <v>19.86</v>
@@ -2981,10 +3012,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35" s="0">
         <v>20.64</v>
@@ -2995,10 +3026,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" s="0">
         <v>22.18</v>
@@ -3009,10 +3040,10 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37" s="0">
         <v>21.71</v>
@@ -3023,10 +3054,10 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38" s="0">
         <v>21.37</v>
@@ -3037,10 +3068,10 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" s="0">
         <v>23.01</v>
@@ -3049,8 +3080,22 @@
         <v>42</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="0">
+        <v>21.84</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D39"/>
+  <autoFilter ref="A1:D40"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3058,7 +3103,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3086,10 +3131,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="0">
         <v>0.230603</v>
@@ -3100,10 +3145,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="0">
         <v>0.230255</v>
@@ -3114,10 +3159,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="0">
         <v>0.223177</v>
@@ -3128,10 +3173,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="0">
         <v>0.222552</v>
@@ -3142,10 +3187,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="0">
         <v>0.223058</v>
@@ -3156,10 +3201,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="0">
         <v>0.219012</v>
@@ -3170,10 +3215,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="0">
         <v>0.218451</v>
@@ -3184,10 +3229,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="0">
         <v>0.206149</v>
@@ -3198,10 +3243,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="0">
         <v>0.199152</v>
@@ -3212,10 +3257,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="0">
         <v>0.205705</v>
@@ -3226,10 +3271,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="0">
         <v>0.221365</v>
@@ -3240,10 +3285,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0">
         <v>0.215267</v>
@@ -3254,10 +3299,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="0">
         <v>0.204968</v>
@@ -3268,10 +3313,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="0">
         <v>0.20861</v>
@@ -3282,10 +3327,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="0">
         <v>0.192745</v>
@@ -3296,10 +3341,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="0">
         <v>0.177181</v>
@@ -3310,10 +3355,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="0">
         <v>0.171993</v>
@@ -3324,10 +3369,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="0">
         <v>0.180834</v>
@@ -3338,10 +3383,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="0">
         <v>0.177974</v>
@@ -3352,10 +3397,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="0">
         <v>0.177815</v>
@@ -3366,10 +3411,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="0">
         <v>0.171574</v>
@@ -3380,10 +3425,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="0">
         <v>0.165586</v>
@@ -3394,10 +3439,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="0">
         <v>0.168042</v>
@@ -3408,10 +3453,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="0">
         <v>0.165679</v>
@@ -3422,10 +3467,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="0">
         <v>0.158598</v>
@@ -3436,10 +3481,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" s="0">
         <v>0.181898</v>
@@ -3450,10 +3495,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" s="0">
         <v>0.180307</v>
@@ -3464,10 +3509,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" s="0">
         <v>0.175952</v>
@@ -3478,10 +3523,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="0">
         <v>0.169715</v>
@@ -3492,10 +3537,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" s="0">
         <v>0.17388</v>
@@ -3506,10 +3551,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="0">
         <v>0.170993</v>
@@ -3520,10 +3565,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" s="0">
         <v>0.171914</v>
@@ -3534,10 +3579,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" s="0">
         <v>0.173829</v>
@@ -3548,10 +3593,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35" s="0">
         <v>0.176145</v>
@@ -3562,10 +3607,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36" s="0">
         <v>0.183197</v>
@@ -3576,10 +3621,10 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37" s="0">
         <v>0.189594</v>
@@ -3590,10 +3635,10 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" s="0">
         <v>0.187866</v>
@@ -3604,10 +3649,10 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C39" s="0">
         <v>0.19077</v>
@@ -3616,8 +3661,22 @@
         <v>42</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="0">
+        <v>0.179467</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D39"/>
+  <autoFilter ref="A1:D40"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3625,7 +3684,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3653,10 +3712,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="0">
         <v>4380.05</v>
@@ -3667,10 +3726,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="0">
         <v>4383.99</v>
@@ -3681,10 +3740,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="0">
         <v>4177.8</v>
@@ -3695,10 +3754,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="0">
         <v>4180.33</v>
@@ -3709,10 +3768,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="0">
         <v>4269.13</v>
@@ -3723,10 +3782,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="0">
         <v>4314.93</v>
@@ -3737,10 +3796,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="0">
         <v>4441.96</v>
@@ -3751,10 +3810,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="0">
         <v>4124.31</v>
@@ -3765,10 +3824,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="0">
         <v>4028.24</v>
@@ -3779,10 +3838,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="0">
         <v>4338.62</v>
@@ -3793,10 +3852,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="0">
         <v>4448.98</v>
@@ -3807,10 +3866,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="0">
         <v>4746.42</v>
@@ -3821,10 +3880,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="0">
         <v>4518.21</v>
@@ -3835,10 +3894,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="0">
         <v>4524.56</v>
@@ -3849,10 +3908,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="0">
         <v>4109</v>
@@ -3863,10 +3922,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="0">
         <v>4162.25</v>
@@ -3877,10 +3936,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="0">
         <v>4184.03</v>
@@ -3891,10 +3950,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="0">
         <v>4367.46</v>
@@ -3905,10 +3964,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="0">
         <v>4331.56</v>
@@ -3919,10 +3978,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="0">
         <v>4382.01</v>
@@ -3933,10 +3992,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="0">
         <v>4154.05</v>
@@ -3947,10 +4006,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="0">
         <v>4032.48</v>
@@ -3961,10 +4020,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="0">
         <v>4038.87</v>
@@ -3975,10 +4034,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="0">
         <v>4005.24</v>
@@ -3989,10 +4048,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" s="0">
         <v>3794.29</v>
@@ -4003,10 +4062,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27" s="0">
         <v>3849.59</v>
@@ -4017,10 +4076,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28" s="0">
         <v>4009.86</v>
@@ -4031,10 +4090,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C29" s="0">
         <v>3986.63</v>
@@ -4045,10 +4104,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C30" s="0">
         <v>3868.55</v>
@@ -4059,10 +4118,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C31" s="0">
         <v>4003.7</v>
@@ -4073,10 +4132,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" s="0">
         <v>3930.43</v>
@@ -4087,10 +4146,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" s="0">
         <v>4056.61</v>
@@ -4101,10 +4160,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34" s="0">
         <v>4059.53</v>
@@ -4115,10 +4174,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35" s="0">
         <v>3975.8</v>
@@ -4129,10 +4188,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36" s="0">
         <v>4109.66</v>
@@ -4143,10 +4202,10 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37" s="0">
         <v>4059.91</v>
@@ -4157,10 +4216,10 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38" s="0">
         <v>4034.78</v>
@@ -4171,10 +4230,10 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C39" s="0">
         <v>4076.56</v>
@@ -4183,8 +4242,22 @@
         <v>42</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="0">
+        <v>3895.32</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D39"/>
+  <autoFilter ref="A1:D40"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4192,7 +4265,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4220,10 +4293,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="0">
         <v>224.12</v>
@@ -4234,10 +4307,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="0">
         <v>227.73</v>
@@ -4248,10 +4321,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="0">
         <v>215.75</v>
@@ -4262,10 +4335,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="0">
         <v>210.78</v>
@@ -4276,10 +4349,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="0">
         <v>210.92</v>
@@ -4290,10 +4363,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" s="0">
         <v>218.83</v>
@@ -4304,10 +4377,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="0">
         <v>217.18</v>
@@ -4318,10 +4391,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="0">
         <v>198.44</v>
@@ -4332,10 +4405,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" s="0">
         <v>188.68</v>
@@ -4346,10 +4419,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="0">
         <v>199.41</v>
@@ -4360,10 +4433,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="0">
         <v>203.77</v>
@@ -4374,10 +4447,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="0">
         <v>211.61</v>
@@ -4388,10 +4461,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0">
         <v>203.23</v>
@@ -4402,10 +4475,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="0">
         <v>201.01</v>
@@ -4416,10 +4489,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="0">
         <v>181.01</v>
@@ -4430,10 +4503,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="0">
         <v>160.26</v>
@@ -4444,10 +4517,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" s="0">
         <v>155.14</v>
@@ -4458,10 +4531,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="0">
         <v>160.95</v>
@@ -4472,10 +4545,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="0">
         <v>1